--- a/Översikt HANINGE.xlsx
+++ b/Översikt HANINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         <v>45679</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45258</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>44525</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>44525</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>45679</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>45991.89199074074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1386,14 +1386,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 59567-2025</t>
+          <t>A 3155-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45991.89914351852</v>
+        <v>45679.31876157408</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1406,19 +1406,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>6.6</v>
+        <v>17.7</v>
       </c>
       <c r="H9" t="n">
         <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1430,15 +1430,114 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>11</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Granticka
+Kandelabersvamp
+Spillkråka
+Vedtrappmossa
+Brandticka
+Grön sköldmossa
+Grönpyrola
+Mörk husmossa
+Rödgul trumpetsvamp
+Sårläka
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 3155-2025 artfynd.xlsx", "A 3155-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 3155-2025 karta.png", "A 3155-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 3155-2025 FSC-klagomål.docx", "A 3155-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 3155-2025 FSC-klagomål mail.docx", "A 3155-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 3155-2025 tillsynsbegäran.docx", "A 3155-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 3155-2025 tillsynsbegäran mail.docx", "A 3155-2025")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 3155-2025 prioriterade fågelarter.docx", "A 3155-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 59567-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45991.89914351852</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>6</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>11</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Spillkråka
@@ -1453,135 +1552,36 @@
 Mindre märgborre</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 59567-2025 artfynd.xlsx", "A 59567-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 59567-2025 karta.png", "A 59567-2025")</f>
         <v/>
       </c>
-      <c r="U9">
+      <c r="U10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/knärot/A 59567-2025 karta knärot.png", "A 59567-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 59567-2025 FSC-klagomål.docx", "A 59567-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 59567-2025 FSC-klagomål mail.docx", "A 59567-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 59567-2025 tillsynsbegäran.docx", "A 59567-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 59567-2025 tillsynsbegäran mail.docx", "A 59567-2025")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 59567-2025 prioriterade fågelarter.docx", "A 59567-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 3155-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45679.31876157408</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>4</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>11</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Granticka
-Kandelabersvamp
-Spillkråka
-Vedtrappmossa
-Brandticka
-Grön sköldmossa
-Grönpyrola
-Mörk husmossa
-Rödgul trumpetsvamp
-Sårläka
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 3155-2025 artfynd.xlsx", "A 3155-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 3155-2025 karta.png", "A 3155-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 3155-2025 FSC-klagomål.docx", "A 3155-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 3155-2025 FSC-klagomål mail.docx", "A 3155-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 3155-2025 tillsynsbegäran.docx", "A 3155-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 3155-2025 tillsynsbegäran mail.docx", "A 3155-2025")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 3155-2025 prioriterade fågelarter.docx", "A 3155-2025")</f>
         <v/>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
         <v>44643</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>44463</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44463</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>45203</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1956,14 +1956,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 14729-2023</t>
+          <t>A 20507-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45014</v>
+        <v>45775.59121527777</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1976,16 +1976,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -2010,118 +2010,118 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
+          <t>Brandticka
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 20507-2025 artfynd.xlsx", "A 20507-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 20507-2025 karta.png", "A 20507-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 20507-2025 FSC-klagomål.docx", "A 20507-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 20507-2025 FSC-klagomål mail.docx", "A 20507-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 20507-2025 tillsynsbegäran.docx", "A 20507-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 20507-2025 tillsynsbegäran mail.docx", "A 20507-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 14729-2023</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45014</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
           <t>Ullticka
 Mindre märgborre</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 14729-2023 artfynd.xlsx", "A 14729-2023")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 14729-2023 karta.png", "A 14729-2023")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 14729-2023 FSC-klagomål.docx", "A 14729-2023")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 14729-2023 FSC-klagomål mail.docx", "A 14729-2023")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 14729-2023 tillsynsbegäran.docx", "A 14729-2023")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 14729-2023 tillsynsbegäran mail.docx", "A 14729-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 20507-2025</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45775.59121527777</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Brandticka
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 20507-2025 artfynd.xlsx", "A 20507-2025")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 20507-2025 karta.png", "A 20507-2025")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 20507-2025 FSC-klagomål.docx", "A 20507-2025")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 20507-2025 FSC-klagomål mail.docx", "A 20507-2025")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 20507-2025 tillsynsbegäran.docx", "A 20507-2025")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 20507-2025 tillsynsbegäran mail.docx", "A 20507-2025")</f>
         <v/>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
         <v>45796.84584490741</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44818</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44580</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44806</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>44796</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2559,14 +2559,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 60369-2023</t>
+          <t>A 59570-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45259</v>
+        <v>45991.93646990741</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2613,45 +2613,49 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Fjällvråk</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 60369-2023 artfynd.xlsx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 59570-2025 artfynd.xlsx", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 60369-2023 karta.png", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 59570-2025 karta.png", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 60369-2023 FSC-klagomål.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 59570-2025 FSC-klagomål.docx", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 60369-2023 FSC-klagomål mail.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 59570-2025 FSC-klagomål mail.docx", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 60369-2023 tillsynsbegäran.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 59570-2025 tillsynsbegäran.docx", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 60369-2023 tillsynsbegäran mail.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 59570-2025 tillsynsbegäran mail.docx", "A 59570-2025")</f>
+        <v/>
+      </c>
+      <c r="Z22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 59570-2025 prioriterade fågelarter.docx", "A 59570-2025")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 59570-2025</t>
+          <t>A 68883-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45991.93646990741</v>
+        <v>44526</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2664,7 +2668,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -2673,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2688,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2698,49 +2702,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Fjällvråk</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 59570-2025 artfynd.xlsx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 68883-2021 artfynd.xlsx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 59570-2025 karta.png", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 68883-2021 karta.png", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 59570-2025 FSC-klagomål.docx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 68883-2021 FSC-klagomål.docx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 59570-2025 FSC-klagomål mail.docx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 68883-2021 FSC-klagomål mail.docx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 59570-2025 tillsynsbegäran.docx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 68883-2021 tillsynsbegäran.docx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 59570-2025 tillsynsbegäran mail.docx", "A 59570-2025")</f>
-        <v/>
-      </c>
-      <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 59570-2025 prioriterade fågelarter.docx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 68883-2021 tillsynsbegäran mail.docx", "A 68883-2021")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 68883-2021</t>
+          <t>A 60369-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44526</v>
+        <v>45259</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -2787,31 +2787,31 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 68883-2021 artfynd.xlsx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 60369-2023 artfynd.xlsx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 68883-2021 karta.png", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 60369-2023 karta.png", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 68883-2021 FSC-klagomål.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 60369-2023 FSC-klagomål.docx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 68883-2021 FSC-klagomål mail.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 60369-2023 FSC-klagomål mail.docx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 68883-2021 tillsynsbegäran.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 60369-2023 tillsynsbegäran.docx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 68883-2021 tillsynsbegäran mail.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 60369-2023 tillsynsbegäran mail.docx", "A 60369-2023")</f>
         <v/>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
         <v>44369</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44526</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44300</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44825</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>44825</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>44460</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>44845.42407407407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>44845.42118055555</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>44476</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44694</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>44433.62136574074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>44476</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>44825</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44643</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44761</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>44806</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3879,14 +3879,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 14264-2025</t>
+          <t>A 4297-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45740.6340162037</v>
+        <v>45324.62291666667</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3898,8 +3898,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3936,14 +3941,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 50306-2023</t>
+          <t>A 9946-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45209</v>
+        <v>45363.59789351852</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3956,7 +3961,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3989,38 +3994,18 @@
         <v>0</v>
       </c>
       <c r="R44" s="2" t="inlineStr"/>
-      <c r="U44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/knärot/A 50306-2023 karta knärot.png", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 50306-2023 FSC-klagomål.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 50306-2023 FSC-klagomål mail.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 50306-2023 tillsynsbegäran.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 50306-2023 tillsynsbegäran mail.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
     </row>
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 38880-2025</t>
+          <t>A 41809-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45887.57966435186</v>
+        <v>44425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4033,7 +4018,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4070,14 +4055,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 22288-2023</t>
+          <t>A 13046-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45070</v>
+        <v>44643</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4090,7 +4075,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4127,14 +4112,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 17020-2022</t>
+          <t>A 64075-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44676</v>
+        <v>45279</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4146,13 +4131,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>12.4</v>
+        <v>2.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4189,14 +4169,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 8163-2024</t>
+          <t>A 50306-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45351.60337962963</v>
+        <v>45209</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4208,13 +4188,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4247,18 +4222,38 @@
         <v>0</v>
       </c>
       <c r="R48" s="2" t="inlineStr"/>
+      <c r="U48">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/knärot/A 50306-2023 karta knärot.png", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="V48">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 50306-2023 FSC-klagomål.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="W48">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 50306-2023 FSC-klagomål mail.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="X48">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 50306-2023 tillsynsbegäran.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="Y48">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 50306-2023 tillsynsbegäran mail.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 33792-2023</t>
+          <t>A 8163-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45121</v>
+        <v>45351.60337962963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4270,8 +4265,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4308,14 +4308,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 3156-2025</t>
+          <t>A 22288-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45679.32142361111</v>
+        <v>45070</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4365,14 +4365,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 20839-2024</t>
+          <t>A 27596-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45439.39953703704</v>
+        <v>45813.52303240741</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>8.4</v>
+        <v>0.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4422,14 +4422,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 18491-2025</t>
+          <t>A 38595-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45763.34135416667</v>
+        <v>44407</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4479,14 +4479,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 59569-2025</t>
+          <t>A 18512-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45991.92870370371</v>
+        <v>45425.59938657407</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4498,8 +4498,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4536,14 +4541,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 59565-2025</t>
+          <t>A 1184-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45991.88413194445</v>
+        <v>45302.57663194444</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4556,7 +4561,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4593,14 +4598,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 59568-2025</t>
+          <t>A 32952-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45991.90737268519</v>
+        <v>45839.69278935185</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4613,7 +4618,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>5.8</v>
+        <v>1.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4650,14 +4655,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 68896-2021</t>
+          <t>A 32954-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44526</v>
+        <v>45839.70034722222</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4670,7 +4675,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4714,7 +4719,7 @@
         <v>45936.47019675926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4764,14 +4769,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 18512-2024</t>
+          <t>A 52770-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45425.59938657407</v>
+        <v>45610.52414351852</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4783,13 +4788,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4826,14 +4826,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 6648-2023</t>
+          <t>A 32948-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44966</v>
+        <v>45839</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4883,14 +4883,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 4297-2024</t>
+          <t>A 14264-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45324.62291666667</v>
+        <v>45740.6340162037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4902,13 +4902,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4945,14 +4940,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 58599-2023</t>
+          <t>A 17020-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45251.47721064815</v>
+        <v>44676</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4964,8 +4959,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>3.2</v>
+        <v>12.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5009,7 +5009,7 @@
         <v>45425.61965277778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>44938.44412037037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5121,14 +5121,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 17765-2024</t>
+          <t>A 38880-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45418.63149305555</v>
+        <v>45887.57966435186</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5178,14 +5178,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 25584-2023</t>
+          <t>A 18490-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45089</v>
+        <v>45763</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5235,14 +5235,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 38595-2021</t>
+          <t>A 18548-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44407</v>
+        <v>45425.64708333334</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5254,8 +5254,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>1.1</v>
+        <v>7.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5292,14 +5297,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 20527-2025</t>
+          <t>A 20839-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45775.60663194444</v>
+        <v>45439.39953703704</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5312,7 +5317,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.1</v>
+        <v>8.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5349,14 +5354,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 1187-2024</t>
+          <t>A 5474-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45302.58045138889</v>
+        <v>45333.51131944444</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5368,8 +5373,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5406,14 +5416,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 1180-2024</t>
+          <t>A 23666-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45302</v>
+        <v>45454.57909722222</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5426,7 +5436,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5463,14 +5473,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 1184-2024</t>
+          <t>A 59565-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45302.57663194444</v>
+        <v>45991.88413194445</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5483,7 +5493,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5520,14 +5530,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 19220-2023</t>
+          <t>A 59569-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45048</v>
+        <v>45991.92870370371</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5540,7 +5550,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5577,14 +5587,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 18490-2025</t>
+          <t>A 68896-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45763</v>
+        <v>44526</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5597,7 +5607,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5634,14 +5644,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 64568-2023</t>
+          <t>A 59568-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45281.43164351852</v>
+        <v>45991.90737268519</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5654,7 +5664,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.1</v>
+        <v>5.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5691,14 +5701,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 18548-2024</t>
+          <t>A 6648-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45425.64708333334</v>
+        <v>44966</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5710,13 +5720,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>7.3</v>
+        <v>4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5753,14 +5758,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 41809-2021</t>
+          <t>A 33792-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44425</v>
+        <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5773,7 +5778,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5810,14 +5815,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 68894-2021</t>
+          <t>A 14900-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44526</v>
+        <v>45743.48729166666</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5830,7 +5835,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5867,14 +5872,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 13046-2022</t>
+          <t>A 20527-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44643</v>
+        <v>45775.60663194444</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5887,7 +5892,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5924,14 +5929,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 8078-2024</t>
+          <t>A 64568-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45351.43737268518</v>
+        <v>45281.43164351852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5943,13 +5948,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5986,14 +5986,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 24873-2023</t>
+          <t>A 1180-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45085</v>
+        <v>45302</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6043,14 +6043,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 52773-2024</t>
+          <t>A 24873-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45610.53207175926</v>
+        <v>45085</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6100,14 +6100,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 23666-2024</t>
+          <t>A 58599-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45454.57909722222</v>
+        <v>45251.47721064815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6157,14 +6157,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 9946-2024</t>
+          <t>A 52836-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45363.59789351852</v>
+        <v>45610.59637731482</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6214,14 +6214,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 52770-2024</t>
+          <t>A 8078-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45610.52414351852</v>
+        <v>45351.43737268518</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6233,8 +6233,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6271,14 +6276,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 52836-2024</t>
+          <t>A 19220-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45610.59637731482</v>
+        <v>45048</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6291,7 +6296,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6328,14 +6333,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 5474-2024</t>
+          <t>A 25584-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45333.51131944444</v>
+        <v>45089</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6347,13 +6352,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>0.9</v>
+        <v>4.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6390,14 +6390,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 14900-2025</t>
+          <t>A 3156-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45743.48729166666</v>
+        <v>45679.32142361111</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6447,14 +6447,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 21231-2025</t>
+          <t>A 17765-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45779.54644675926</v>
+        <v>45418.63149305555</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.3</v>
+        <v>1.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6504,14 +6504,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 24115-2025</t>
+          <t>A 68894-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45796.61494212963</v>
+        <v>44526</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6561,14 +6561,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 24191-2025</t>
+          <t>A 18491-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45796.86738425926</v>
+        <v>45763.34135416667</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6618,14 +6618,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 24193-2025</t>
+          <t>A 1187-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45796.89591435185</v>
+        <v>45302.58045138889</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6675,14 +6675,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 64075-2023</t>
+          <t>A 52773-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45279</v>
+        <v>45610.53207175926</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6732,14 +6732,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 27596-2025</t>
+          <t>A 21231-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45813.52303240741</v>
+        <v>45779.54644675926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.1</v>
+        <v>4.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6789,14 +6789,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 32952-2025</t>
+          <t>A 24191-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45839.69278935185</v>
+        <v>45796.86738425926</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6846,14 +6846,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 32954-2025</t>
+          <t>A 24193-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45839.70034722222</v>
+        <v>45796.89591435185</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6903,14 +6903,14 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 32948-2025</t>
+          <t>A 24115-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45839</v>
+        <v>45796.61494212963</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>

--- a/Översikt HANINGE.xlsx
+++ b/Översikt HANINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         <v>45679</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45258</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>44525</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>44525</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>45679</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>45991.89199074074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         <v>45679.31876157408</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         <v>45991.89914351852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44643</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>44463</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44463</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>45203</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>45775.59121527777</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>45014</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>45796.84584490741</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44818</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44580</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44806</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>44796</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>45991.93646990741</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>44526</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>45259</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>44369</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44526</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44300</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44825</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>44825</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>44460</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>44845.42407407407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>44845.42118055555</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>44476</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44694</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>44433.62136574074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>44476</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>44825</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44643</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44761</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>44806</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>45324.62291666667</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>45363.59789351852</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>44425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>44643</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>45279</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>45209</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>45351.60337962963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>45070</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>45813.52303240741</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>44407</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>45425.59938657407</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>45302.57663194444</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>45839.69278935185</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>45839.70034722222</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>45936.47019675926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>45610.52414351852</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>45839</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>45740.6340162037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>44676</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>45425.61965277778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>44938.44412037037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>45887.57966435186</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>45763</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>45425.64708333334</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>45439.39953703704</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>45333.51131944444</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>45454.57909722222</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>45991.88413194445</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>45991.92870370371</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>44526</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>45991.90737268519</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>44966</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>45743.48729166666</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>45775.60663194444</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>45281.43164351852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>45302</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>45085</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>45251.47721064815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>45610.59637731482</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>45351.43737268518</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>45048</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>45089</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>45679.32142361111</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>45418.63149305555</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>44526</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>45763.34135416667</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>45302.58045138889</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>45610.53207175926</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>45779.54644675926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>45796.86738425926</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>45796.89591435185</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>45796.61494212963</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>

--- a/Översikt HANINGE.xlsx
+++ b/Översikt HANINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         <v>45679</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45258</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>44525</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>44525</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>45679</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>45991.89199074074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         <v>45679.31876157408</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         <v>45991.89914351852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44643</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>44463</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44463</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>45203</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>45775.59121527777</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>45014</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>45796.84584490741</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44818</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44580</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44806</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>44796</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>45991.93646990741</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>44526</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>45259</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>44369</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44526</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44300</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44825</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>44825</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>44460</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>44845.42407407407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>44845.42118055555</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>44476</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44694</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>44433.62136574074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>44476</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>44825</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44643</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44761</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>44806</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>45324.62291666667</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>45363.59789351852</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>44425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>44643</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>45279</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>45209</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>45351.60337962963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>45070</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>45813.52303240741</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>44407</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>45425.59938657407</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>45302.57663194444</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>45839.69278935185</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>45839.70034722222</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>45936.47019675926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>45610.52414351852</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>45839</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>45740.6340162037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>44676</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>45425.61965277778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>44938.44412037037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>45887.57966435186</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>45763</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>45425.64708333334</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>45439.39953703704</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>45333.51131944444</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>45454.57909722222</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>45991.88413194445</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>45991.92870370371</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>44526</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>45991.90737268519</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>44966</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>45743.48729166666</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>45775.60663194444</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>45281.43164351852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>45302</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>45085</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>45251.47721064815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>45610.59637731482</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>45351.43737268518</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>45048</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>45089</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>45679.32142361111</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>45418.63149305555</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>44526</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>45763.34135416667</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>45302.58045138889</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>45610.53207175926</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>45779.54644675926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>45796.86738425926</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>45796.89591435185</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>45796.61494212963</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>

--- a/Översikt HANINGE.xlsx
+++ b/Översikt HANINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         <v>45679</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45258</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>44525</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>44525</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>45679</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>45991.89199074074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         <v>45679.31876157408</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         <v>45991.89914351852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44643</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>44463</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44463</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>45203</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1956,14 +1956,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 20507-2025</t>
+          <t>A 14729-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45775.59121527777</v>
+        <v>45014</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1976,16 +1976,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -2010,118 +2010,118 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
+          <t>Ullticka
+Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 14729-2023 artfynd.xlsx", "A 14729-2023")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 14729-2023 karta.png", "A 14729-2023")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 14729-2023 FSC-klagomål.docx", "A 14729-2023")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 14729-2023 FSC-klagomål mail.docx", "A 14729-2023")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 14729-2023 tillsynsbegäran.docx", "A 14729-2023")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 14729-2023 tillsynsbegäran mail.docx", "A 14729-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 20507-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45775.59121527777</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
           <t>Brandticka
 Revlummer</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 20507-2025 artfynd.xlsx", "A 20507-2025")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 20507-2025 karta.png", "A 20507-2025")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 20507-2025 FSC-klagomål.docx", "A 20507-2025")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 20507-2025 FSC-klagomål mail.docx", "A 20507-2025")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 20507-2025 tillsynsbegäran.docx", "A 20507-2025")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 20507-2025 tillsynsbegäran mail.docx", "A 20507-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 14729-2023</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45014</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Ullticka
-Mindre märgborre</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 14729-2023 artfynd.xlsx", "A 14729-2023")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 14729-2023 karta.png", "A 14729-2023")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 14729-2023 FSC-klagomål.docx", "A 14729-2023")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 14729-2023 FSC-klagomål mail.docx", "A 14729-2023")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 14729-2023 tillsynsbegäran.docx", "A 14729-2023")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 14729-2023 tillsynsbegäran mail.docx", "A 14729-2023")</f>
         <v/>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
         <v>45796.84584490741</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44818</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44580</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44806</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2474,14 +2474,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 34823-2022</t>
+          <t>A 60369-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44796</v>
+        <v>45259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2494,10 +2494,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>12</v>
+        <v>2.9</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -2518,55 +2518,55 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Mörk kraterlav</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 34823-2022 artfynd.xlsx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 60369-2023 artfynd.xlsx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 34823-2022 karta.png", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 60369-2023 karta.png", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 34823-2022 FSC-klagomål.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 60369-2023 FSC-klagomål.docx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 34823-2022 FSC-klagomål mail.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 60369-2023 FSC-klagomål mail.docx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 34823-2022 tillsynsbegäran.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 60369-2023 tillsynsbegäran.docx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 34823-2022 tillsynsbegäran mail.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 60369-2023 tillsynsbegäran mail.docx", "A 60369-2023")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 59570-2025</t>
+          <t>A 34823-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45991.93646990741</v>
+        <v>44796</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2579,19 +2579,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.3</v>
+        <v>12</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2606,42 +2606,38 @@
         <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Fjällvråk</t>
+          <t>Mörk kraterlav</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 59570-2025 artfynd.xlsx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 34823-2022 artfynd.xlsx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 59570-2025 karta.png", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 34823-2022 karta.png", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 59570-2025 FSC-klagomål.docx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 34823-2022 FSC-klagomål.docx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 59570-2025 FSC-klagomål mail.docx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 34823-2022 FSC-klagomål mail.docx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 59570-2025 tillsynsbegäran.docx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 34823-2022 tillsynsbegäran.docx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 59570-2025 tillsynsbegäran mail.docx", "A 59570-2025")</f>
-        <v/>
-      </c>
-      <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 59570-2025 prioriterade fågelarter.docx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 34823-2022 tillsynsbegäran mail.docx", "A 34823-2022")</f>
         <v/>
       </c>
     </row>
@@ -2655,7 +2651,7 @@
         <v>44526</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2733,14 +2729,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 60369-2023</t>
+          <t>A 59570-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45259</v>
+        <v>45991.93646990741</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2753,7 +2749,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -2762,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2777,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2787,31 +2783,35 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Fjällvråk</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 60369-2023 artfynd.xlsx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 59570-2025 artfynd.xlsx", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 60369-2023 karta.png", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 59570-2025 karta.png", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 60369-2023 FSC-klagomål.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 59570-2025 FSC-klagomål.docx", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 60369-2023 FSC-klagomål mail.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 59570-2025 FSC-klagomål mail.docx", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 60369-2023 tillsynsbegäran.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 59570-2025 tillsynsbegäran.docx", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 60369-2023 tillsynsbegäran mail.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 59570-2025 tillsynsbegäran mail.docx", "A 59570-2025")</f>
+        <v/>
+      </c>
+      <c r="Z24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 59570-2025 prioriterade fågelarter.docx", "A 59570-2025")</f>
         <v/>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
         <v>44369</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44526</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44300</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44825</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>44825</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>44460</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>44845.42407407407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>44845.42118055555</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>44476</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44694</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>44433.62136574074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>44476</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>44825</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44643</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44761</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>44806</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3879,14 +3879,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 4297-2024</t>
+          <t>A 3156-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45324.62291666667</v>
+        <v>45679.32142361111</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3898,13 +3898,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>0.4</v>
+        <v>3.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3941,14 +3936,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 9946-2024</t>
+          <t>A 18491-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45363.59789351852</v>
+        <v>45763.34135416667</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3961,7 +3956,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3998,14 +3993,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 41809-2021</t>
+          <t>A 68896-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44425</v>
+        <v>44526</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4018,7 +4013,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4055,14 +4050,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 13046-2022</t>
+          <t>A 6648-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44643</v>
+        <v>44966</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4075,7 +4070,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4112,14 +4107,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 64075-2023</t>
+          <t>A 38880-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45279</v>
+        <v>45887.57966435186</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4132,7 +4127,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4169,14 +4164,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 50306-2023</t>
+          <t>A 8163-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45209</v>
+        <v>45351.60337962963</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4188,8 +4183,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4222,38 +4222,18 @@
         <v>0</v>
       </c>
       <c r="R48" s="2" t="inlineStr"/>
-      <c r="U48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/knärot/A 50306-2023 karta knärot.png", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="V48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 50306-2023 FSC-klagomål.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="W48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 50306-2023 FSC-klagomål mail.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="X48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 50306-2023 tillsynsbegäran.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="Y48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 50306-2023 tillsynsbegäran mail.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
     </row>
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 8163-2024</t>
+          <t>A 58599-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45351.60337962963</v>
+        <v>45251.47721064815</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4265,13 +4245,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4308,14 +4283,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 22288-2023</t>
+          <t>A 32952-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45070</v>
+        <v>45839.69278935185</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4328,7 +4303,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4365,14 +4340,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 27596-2025</t>
+          <t>A 32954-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45813.52303240741</v>
+        <v>45839.70034722222</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4385,7 +4360,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.1</v>
+        <v>1.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4422,14 +4397,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 38595-2021</t>
+          <t>A 18528-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44407</v>
+        <v>45425.61965277778</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4441,8 +4416,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4479,14 +4459,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 18512-2024</t>
+          <t>A 32948-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45425.59938657407</v>
+        <v>45839</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4498,13 +4478,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4541,14 +4516,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 1184-2024</t>
+          <t>A 14264-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45302.57663194444</v>
+        <v>45740.6340162037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4561,7 +4536,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4598,14 +4573,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 32952-2025</t>
+          <t>A 17020-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45839.69278935185</v>
+        <v>44676</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4617,8 +4592,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>1.3</v>
+        <v>12.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4655,14 +4635,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 32954-2025</t>
+          <t>A 38595-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45839.70034722222</v>
+        <v>44407</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4675,7 +4655,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4712,14 +4692,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 48606-2025</t>
+          <t>A 50306-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45936.47019675926</v>
+        <v>45209</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4732,7 +4712,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>6.9</v>
+        <v>2.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4765,18 +4745,38 @@
         <v>0</v>
       </c>
       <c r="R57" s="2" t="inlineStr"/>
+      <c r="U57">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/knärot/A 50306-2023 karta knärot.png", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="V57">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 50306-2023 FSC-klagomål.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="W57">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 50306-2023 FSC-klagomål mail.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="X57">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 50306-2023 tillsynsbegäran.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="Y57">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 50306-2023 tillsynsbegäran mail.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 52770-2024</t>
+          <t>A 22288-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45610.52414351852</v>
+        <v>45070</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4826,14 +4826,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 32948-2025</t>
+          <t>A 33792-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45839</v>
+        <v>45121</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4883,14 +4883,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 14264-2025</t>
+          <t>A 48606-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45740.6340162037</v>
+        <v>45936.47019675926</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>6.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4940,14 +4940,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 17020-2022</t>
+          <t>A 20839-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44676</v>
+        <v>45439.39953703704</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4959,13 +4959,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>12.4</v>
+        <v>8.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5002,14 +4997,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 18528-2024</t>
+          <t>A 18512-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45425.61965277778</v>
+        <v>45425.59938657407</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5027,7 +5022,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5064,14 +5059,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 1703-2023</t>
+          <t>A 4297-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44938.44412037037</v>
+        <v>45324.62291666667</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5083,8 +5078,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5121,14 +5121,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 38880-2025</t>
+          <t>A 1703-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45887.57966435186</v>
+        <v>44938.44412037037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5178,14 +5178,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 18490-2025</t>
+          <t>A 17765-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45763</v>
+        <v>45418.63149305555</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5235,14 +5235,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 18548-2024</t>
+          <t>A 25584-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45425.64708333334</v>
+        <v>45089</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5254,13 +5254,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>7.3</v>
+        <v>4.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5297,14 +5292,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 20839-2024</t>
+          <t>A 59569-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45439.39953703704</v>
+        <v>45991.92870370371</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5317,7 +5312,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>8.4</v>
+        <v>1.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5354,14 +5349,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 5474-2024</t>
+          <t>A 59565-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45333.51131944444</v>
+        <v>45991.88413194445</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5373,13 +5368,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5416,14 +5406,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 23666-2024</t>
+          <t>A 59568-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45454.57909722222</v>
+        <v>45991.90737268519</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5436,7 +5426,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.8</v>
+        <v>5.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5473,14 +5463,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 59565-2025</t>
+          <t>A 20527-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45991.88413194445</v>
+        <v>45775.60663194444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5493,7 +5483,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5530,14 +5520,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 59569-2025</t>
+          <t>A 1187-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45991.92870370371</v>
+        <v>45302.58045138889</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5550,7 +5540,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5587,14 +5577,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 68896-2021</t>
+          <t>A 1180-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44526</v>
+        <v>45302</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5607,7 +5597,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5644,14 +5634,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 59568-2025</t>
+          <t>A 1184-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45991.90737268519</v>
+        <v>45302.57663194444</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5664,7 +5654,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>5.8</v>
+        <v>3.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5701,14 +5691,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 6648-2023</t>
+          <t>A 19220-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44966</v>
+        <v>45048</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5721,7 +5711,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5758,14 +5748,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 33792-2023</t>
+          <t>A 18490-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45121</v>
+        <v>45763</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5778,7 +5768,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5815,14 +5805,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 14900-2025</t>
+          <t>A 64568-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45743.48729166666</v>
+        <v>45281.43164351852</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5835,7 +5825,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5872,14 +5862,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 20527-2025</t>
+          <t>A 18548-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45775.60663194444</v>
+        <v>45425.64708333334</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5891,8 +5881,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>2.1</v>
+        <v>7.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5929,14 +5924,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 64568-2023</t>
+          <t>A 41809-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45281.43164351852</v>
+        <v>44425</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5949,7 +5944,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5986,14 +5981,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 1180-2024</t>
+          <t>A 68894-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45302</v>
+        <v>44526</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6006,7 +6001,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6043,14 +6038,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 24873-2023</t>
+          <t>A 13046-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45085</v>
+        <v>44643</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6063,7 +6058,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6100,14 +6095,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 58599-2023</t>
+          <t>A 8078-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45251.47721064815</v>
+        <v>45351.43737268518</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6119,8 +6114,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6157,14 +6157,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 52836-2024</t>
+          <t>A 24873-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45610.59637731482</v>
+        <v>45085</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6214,14 +6214,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 8078-2024</t>
+          <t>A 52773-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45351.43737268518</v>
+        <v>45610.53207175926</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6233,13 +6233,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6276,14 +6271,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 19220-2023</t>
+          <t>A 23666-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45048</v>
+        <v>45454.57909722222</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6296,7 +6291,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6333,14 +6328,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 25584-2023</t>
+          <t>A 9946-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45089</v>
+        <v>45363.59789351852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6353,7 +6348,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6390,14 +6385,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 3156-2025</t>
+          <t>A 52770-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45679.32142361111</v>
+        <v>45610.52414351852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6410,7 +6405,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6447,14 +6442,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 17765-2024</t>
+          <t>A 52836-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45418.63149305555</v>
+        <v>45610.59637731482</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6467,7 +6462,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6504,14 +6499,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 68894-2021</t>
+          <t>A 5474-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44526</v>
+        <v>45333.51131944444</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6523,8 +6518,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6561,14 +6561,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 18491-2025</t>
+          <t>A 14900-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45763.34135416667</v>
+        <v>45743.48729166666</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6618,14 +6618,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 1187-2024</t>
+          <t>A 21231-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45302.58045138889</v>
+        <v>45779.54644675926</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.5</v>
+        <v>4.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6675,14 +6675,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 52773-2024</t>
+          <t>A 24115-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45610.53207175926</v>
+        <v>45796.61494212963</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6732,14 +6732,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 21231-2025</t>
+          <t>A 24191-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45779.54644675926</v>
+        <v>45796.86738425926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4.3</v>
+        <v>2.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6789,14 +6789,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 24191-2025</t>
+          <t>A 24193-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45796.86738425926</v>
+        <v>45796.89591435185</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.8</v>
+        <v>0.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6846,14 +6846,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 24193-2025</t>
+          <t>A 64075-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45796.89591435185</v>
+        <v>45279</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6903,14 +6903,14 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 24115-2025</t>
+          <t>A 27596-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45796.61494212963</v>
+        <v>45813.52303240741</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>

--- a/Översikt HANINGE.xlsx
+++ b/Översikt HANINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         <v>45679</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45258</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>44525</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1063,14 +1063,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 67868-2021</t>
+          <t>A 3152-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44525</v>
+        <v>45679</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1083,19 +1083,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>8.800000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J6" t="n">
         <v>6</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1107,15 +1107,128 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
         <v>21</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Vågticka
+Blå taggsvamp
+Grantaggsvamp
+Hapalopilus aurantiacus
+Talltita
+Ullticka
+Vedtrappmossa
+Blomkålssvamp
+Blåmossa
+Grön sköldmossa
+Grönpyrola
+Mindre märgborre
+Plattlummer
+Rödgul trumpetsvamp
+Spindelblomster
+Vedticka
+Vanlig padda
+Fläcknycklar
+Mattlummer
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 3152-2025 artfynd.xlsx", "A 3152-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 3152-2025 karta.png", "A 3152-2025")</f>
+        <v/>
+      </c>
+      <c r="U6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/knärot/A 3152-2025 karta knärot.png", "A 3152-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 3152-2025 FSC-klagomål.docx", "A 3152-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 3152-2025 FSC-klagomål mail.docx", "A 3152-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 3152-2025 tillsynsbegäran.docx", "A 3152-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 3152-2025 tillsynsbegäran mail.docx", "A 3152-2025")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 3152-2025 prioriterade fågelarter.docx", "A 3152-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 67868-2021</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>44525</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>13</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>21</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Gränsticka
 Grönhjon
@@ -1140,145 +1253,32 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 67868-2021 artfynd.xlsx", "A 67868-2021")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 67868-2021 karta.png", "A 67868-2021")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 67868-2021 FSC-klagomål.docx", "A 67868-2021")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 67868-2021 FSC-klagomål mail.docx", "A 67868-2021")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 67868-2021 tillsynsbegäran.docx", "A 67868-2021")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 67868-2021 tillsynsbegäran mail.docx", "A 67868-2021")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 67868-2021 prioriterade fågelarter.docx", "A 67868-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 3152-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45679</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>8</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>21</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Vågticka
-Blå taggsvamp
-Grantaggsvamp
-Hapalopilus aurantiacus
-Talltita
-Ullticka
-Vedtrappmossa
-Blomkålssvamp
-Blåmossa
-Grön sköldmossa
-Grönpyrola
-Mindre märgborre
-Plattlummer
-Rödgul trumpetsvamp
-Spindelblomster
-Vedticka
-Vanlig padda
-Fläcknycklar
-Mattlummer
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 3152-2025 artfynd.xlsx", "A 3152-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 3152-2025 karta.png", "A 3152-2025")</f>
-        <v/>
-      </c>
-      <c r="U7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/knärot/A 3152-2025 karta knärot.png", "A 3152-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 3152-2025 FSC-klagomål.docx", "A 3152-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 3152-2025 FSC-klagomål mail.docx", "A 3152-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 3152-2025 tillsynsbegäran.docx", "A 3152-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 3152-2025 tillsynsbegäran mail.docx", "A 3152-2025")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 3152-2025 prioriterade fågelarter.docx", "A 3152-2025")</f>
         <v/>
       </c>
     </row>
@@ -1292,7 +1292,7 @@
         <v>45991.89199074074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         <v>45679.31876157408</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         <v>45991.89914351852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44643</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>44463</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44463</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>45203</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>45014</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2042,14 +2042,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 20507-2025</t>
+          <t>A 24189-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45775.59121527777</v>
+        <v>45796.84584490741</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.2</v>
+        <v>6.1</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -2096,118 +2096,118 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
+          <t>Myskmadra
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 24189-2025 artfynd.xlsx", "A 24189-2025")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 24189-2025 karta.png", "A 24189-2025")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 24189-2025 FSC-klagomål.docx", "A 24189-2025")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 24189-2025 FSC-klagomål mail.docx", "A 24189-2025")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 24189-2025 tillsynsbegäran.docx", "A 24189-2025")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 24189-2025 tillsynsbegäran mail.docx", "A 24189-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 20507-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45775.59121527777</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
           <t>Brandticka
 Revlummer</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 20507-2025 artfynd.xlsx", "A 20507-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 20507-2025 karta.png", "A 20507-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 20507-2025 FSC-klagomål.docx", "A 20507-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 20507-2025 FSC-klagomål mail.docx", "A 20507-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 20507-2025 tillsynsbegäran.docx", "A 20507-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 20507-2025 tillsynsbegäran mail.docx", "A 20507-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 24189-2025</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45796.84584490741</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Myskmadra
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 24189-2025 artfynd.xlsx", "A 24189-2025")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 24189-2025 karta.png", "A 24189-2025")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 24189-2025 FSC-klagomål.docx", "A 24189-2025")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 24189-2025 FSC-klagomål mail.docx", "A 24189-2025")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 24189-2025 tillsynsbegäran.docx", "A 24189-2025")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 24189-2025 tillsynsbegäran mail.docx", "A 24189-2025")</f>
         <v/>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
         <v>44818</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44580</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44806</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2474,14 +2474,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 60369-2023</t>
+          <t>A 34823-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45259</v>
+        <v>44796</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2494,20 +2494,20 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.9</v>
+        <v>12</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
@@ -2518,55 +2518,55 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Mörk kraterlav</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 60369-2023 artfynd.xlsx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 34823-2022 artfynd.xlsx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 60369-2023 karta.png", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 34823-2022 karta.png", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 60369-2023 FSC-klagomål.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 34823-2022 FSC-klagomål.docx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 60369-2023 FSC-klagomål mail.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 34823-2022 FSC-klagomål mail.docx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 60369-2023 tillsynsbegäran.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 34823-2022 tillsynsbegäran.docx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 60369-2023 tillsynsbegäran mail.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 34823-2022 tillsynsbegäran mail.docx", "A 34823-2022")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 34823-2022</t>
+          <t>A 68883-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44796</v>
+        <v>44526</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2579,10 +2579,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2591,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2603,55 +2603,55 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Mörk kraterlav</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 34823-2022 artfynd.xlsx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 68883-2021 artfynd.xlsx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 34823-2022 karta.png", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 68883-2021 karta.png", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 34823-2022 FSC-klagomål.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 68883-2021 FSC-klagomål.docx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 34823-2022 FSC-klagomål mail.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 68883-2021 FSC-klagomål mail.docx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 34823-2022 tillsynsbegäran.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 68883-2021 tillsynsbegäran.docx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 34823-2022 tillsynsbegäran mail.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 68883-2021 tillsynsbegäran mail.docx", "A 68883-2021")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 68883-2021</t>
+          <t>A 59570-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44526</v>
+        <v>45991.93646990741</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -2673,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2688,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2698,45 +2698,49 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Fjällvråk</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 68883-2021 artfynd.xlsx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 59570-2025 artfynd.xlsx", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 68883-2021 karta.png", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 59570-2025 karta.png", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 68883-2021 FSC-klagomål.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 59570-2025 FSC-klagomål.docx", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 68883-2021 FSC-klagomål mail.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 59570-2025 FSC-klagomål mail.docx", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 68883-2021 tillsynsbegäran.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 59570-2025 tillsynsbegäran.docx", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 68883-2021 tillsynsbegäran mail.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 59570-2025 tillsynsbegäran mail.docx", "A 59570-2025")</f>
+        <v/>
+      </c>
+      <c r="Z23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 59570-2025 prioriterade fågelarter.docx", "A 59570-2025")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 59570-2025</t>
+          <t>A 60369-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45991.93646990741</v>
+        <v>45259</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2749,7 +2753,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -2758,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2773,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2783,35 +2787,31 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Fjällvråk</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 59570-2025 artfynd.xlsx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 60369-2023 artfynd.xlsx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 59570-2025 karta.png", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 60369-2023 karta.png", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 59570-2025 FSC-klagomål.docx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 60369-2023 FSC-klagomål.docx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 59570-2025 FSC-klagomål mail.docx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 60369-2023 FSC-klagomål mail.docx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 59570-2025 tillsynsbegäran.docx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 60369-2023 tillsynsbegäran.docx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 59570-2025 tillsynsbegäran mail.docx", "A 59570-2025")</f>
-        <v/>
-      </c>
-      <c r="Z24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 59570-2025 prioriterade fågelarter.docx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 60369-2023 tillsynsbegäran mail.docx", "A 60369-2023")</f>
         <v/>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
         <v>44369</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44526</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44300</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44825</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>44825</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>44460</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>44845.42407407407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>44845.42118055555</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>44476</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44694</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>44433.62136574074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>44476</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>44825</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44643</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44761</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>44806</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3879,14 +3879,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 3156-2025</t>
+          <t>A 4297-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45679.32142361111</v>
+        <v>45324.62291666667</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3898,8 +3898,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>3.3</v>
+        <v>0.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3936,14 +3941,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 18491-2025</t>
+          <t>A 9946-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45763.34135416667</v>
+        <v>45363.59789351852</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3956,7 +3961,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3993,14 +3998,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 68896-2021</t>
+          <t>A 8163-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44526</v>
+        <v>45351.60337962963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4012,8 +4017,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4050,14 +4060,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 6648-2023</t>
+          <t>A 1187-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44966</v>
+        <v>45302.58045138889</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4070,7 +4080,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4107,14 +4117,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 38880-2025</t>
+          <t>A 52773-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45887.57966435186</v>
+        <v>45610.53207175926</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4127,7 +4137,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4164,14 +4174,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 8163-2024</t>
+          <t>A 21231-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45351.60337962963</v>
+        <v>45779.54644675926</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4183,13 +4193,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4226,14 +4231,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 58599-2023</t>
+          <t>A 41809-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45251.47721064815</v>
+        <v>44425</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4246,7 +4251,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4283,14 +4288,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 32952-2025</t>
+          <t>A 13046-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45839.69278935185</v>
+        <v>44643</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4303,7 +4308,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4340,14 +4345,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 32954-2025</t>
+          <t>A 50306-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45839.70034722222</v>
+        <v>45209</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4360,7 +4365,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4393,18 +4398,38 @@
         <v>0</v>
       </c>
       <c r="R51" s="2" t="inlineStr"/>
+      <c r="U51">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/knärot/A 50306-2023 karta knärot.png", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="V51">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 50306-2023 FSC-klagomål.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="W51">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 50306-2023 FSC-klagomål mail.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="X51">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 50306-2023 tillsynsbegäran.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="Y51">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 50306-2023 tillsynsbegäran mail.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 18528-2024</t>
+          <t>A 24191-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45425.61965277778</v>
+        <v>45796.86738425926</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4416,13 +4441,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4459,14 +4479,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 32948-2025</t>
+          <t>A 24193-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45839</v>
+        <v>45796.89591435185</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4479,7 +4499,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4516,14 +4536,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 14264-2025</t>
+          <t>A 24115-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45740.6340162037</v>
+        <v>45796.61494212963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4536,7 +4556,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4573,14 +4593,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 17020-2022</t>
+          <t>A 64075-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44676</v>
+        <v>45279</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4592,13 +4612,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>12.4</v>
+        <v>2.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4635,14 +4650,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 38595-2021</t>
+          <t>A 22288-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44407</v>
+        <v>45070</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4655,7 +4670,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4692,14 +4707,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 50306-2023</t>
+          <t>A 38595-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45209</v>
+        <v>44407</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4712,7 +4727,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4745,38 +4760,18 @@
         <v>0</v>
       </c>
       <c r="R57" s="2" t="inlineStr"/>
-      <c r="U57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/knärot/A 50306-2023 karta knärot.png", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="V57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 50306-2023 FSC-klagomål.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="W57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 50306-2023 FSC-klagomål mail.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="X57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 50306-2023 tillsynsbegäran.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="Y57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 50306-2023 tillsynsbegäran mail.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
     </row>
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 22288-2023</t>
+          <t>A 27596-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45070</v>
+        <v>45813.52303240741</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4789,7 +4784,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.8</v>
+        <v>0.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4826,14 +4821,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 33792-2023</t>
+          <t>A 18512-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45121</v>
+        <v>45425.59938657407</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4845,8 +4840,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4883,14 +4883,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 48606-2025</t>
+          <t>A 32952-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45936.47019675926</v>
+        <v>45839.69278935185</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>6.9</v>
+        <v>1.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4940,14 +4940,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 20839-2024</t>
+          <t>A 32954-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45439.39953703704</v>
+        <v>45839.70034722222</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>8.4</v>
+        <v>1.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4997,14 +4997,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 18512-2024</t>
+          <t>A 1184-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45425.59938657407</v>
+        <v>45302.57663194444</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5016,13 +5016,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5059,14 +5054,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 4297-2024</t>
+          <t>A 48606-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45324.62291666667</v>
+        <v>45936.47019675926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5078,13 +5073,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>0.4</v>
+        <v>6.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5121,14 +5111,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 1703-2023</t>
+          <t>A 32948-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44938.44412037037</v>
+        <v>45839</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5141,7 +5131,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5178,14 +5168,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 17765-2024</t>
+          <t>A 52770-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45418.63149305555</v>
+        <v>45610.52414351852</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5198,7 +5188,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5235,14 +5225,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 25584-2023</t>
+          <t>A 14264-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45089</v>
+        <v>45740.6340162037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5255,7 +5245,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5292,14 +5282,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 59569-2025</t>
+          <t>A 17020-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45991.92870370371</v>
+        <v>44676</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5311,8 +5301,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>1.3</v>
+        <v>12.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5349,14 +5344,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 59565-2025</t>
+          <t>A 38880-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45991.88413194445</v>
+        <v>45887.57966435186</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5369,7 +5364,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5406,14 +5401,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 59568-2025</t>
+          <t>A 18528-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45991.90737268519</v>
+        <v>45425.61965277778</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5425,8 +5420,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>5.8</v>
+        <v>0.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5463,14 +5463,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 20527-2025</t>
+          <t>A 1703-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45775.60663194444</v>
+        <v>44938.44412037037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5520,14 +5520,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 1187-2024</t>
+          <t>A 18490-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45302.58045138889</v>
+        <v>45763</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5577,14 +5577,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 1180-2024</t>
+          <t>A 18548-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45302</v>
+        <v>45425.64708333334</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5596,8 +5596,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>7.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5634,14 +5639,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 1184-2024</t>
+          <t>A 20839-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45302.57663194444</v>
+        <v>45439.39953703704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5654,7 +5659,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.6</v>
+        <v>8.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5691,14 +5696,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 19220-2023</t>
+          <t>A 5474-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45048</v>
+        <v>45333.51131944444</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5710,8 +5715,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5748,14 +5758,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 18490-2025</t>
+          <t>A 23666-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45763</v>
+        <v>45454.57909722222</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5768,7 +5778,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5805,14 +5815,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 64568-2023</t>
+          <t>A 68896-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45281.43164351852</v>
+        <v>44526</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5825,7 +5835,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5862,14 +5872,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 18548-2024</t>
+          <t>A 59565-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45425.64708333334</v>
+        <v>45991.88413194445</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5881,13 +5891,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>7.3</v>
+        <v>1.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5924,14 +5929,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 41809-2021</t>
+          <t>A 59569-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44425</v>
+        <v>45991.92870370371</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5944,7 +5949,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5981,14 +5986,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 68894-2021</t>
+          <t>A 59568-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44526</v>
+        <v>45991.90737268519</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6001,7 +6006,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.2</v>
+        <v>5.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6038,14 +6043,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 13046-2022</t>
+          <t>A 6648-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44643</v>
+        <v>44966</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6058,7 +6063,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6095,14 +6100,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 8078-2024</t>
+          <t>A 33792-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45351.43737268518</v>
+        <v>45121</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6112,11 +6117,6 @@
       <c r="E81" t="inlineStr">
         <is>
           <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -6157,14 +6157,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 24873-2023</t>
+          <t>A 14900-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45085</v>
+        <v>45743.48729166666</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6214,14 +6214,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 52773-2024</t>
+          <t>A 20527-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45610.53207175926</v>
+        <v>45775.60663194444</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6271,14 +6271,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 23666-2024</t>
+          <t>A 64568-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45454.57909722222</v>
+        <v>45281.43164351852</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6328,14 +6328,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 9946-2024</t>
+          <t>A 1180-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45363.59789351852</v>
+        <v>45302</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6385,14 +6385,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 52770-2024</t>
+          <t>A 24873-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45610.52414351852</v>
+        <v>45085</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6442,14 +6442,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 52836-2024</t>
+          <t>A 58599-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45610.59637731482</v>
+        <v>45251.47721064815</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6499,14 +6499,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 5474-2024</t>
+          <t>A 52836-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45333.51131944444</v>
+        <v>45610.59637731482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6518,13 +6518,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6561,14 +6556,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 14900-2025</t>
+          <t>A 8078-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45743.48729166666</v>
+        <v>45351.43737268518</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6580,8 +6575,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6618,14 +6618,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 21231-2025</t>
+          <t>A 19220-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45779.54644675926</v>
+        <v>45048</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4.3</v>
+        <v>1.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6675,14 +6675,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 24115-2025</t>
+          <t>A 25584-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45796.61494212963</v>
+        <v>45089</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>4.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6732,14 +6732,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 24191-2025</t>
+          <t>A 3156-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45796.86738425926</v>
+        <v>45679.32142361111</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6789,14 +6789,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 24193-2025</t>
+          <t>A 17765-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45796.89591435185</v>
+        <v>45418.63149305555</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6846,14 +6846,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 64075-2023</t>
+          <t>A 68894-2021</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45279</v>
+        <v>44526</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6903,14 +6903,14 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 27596-2025</t>
+          <t>A 18491-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45813.52303240741</v>
+        <v>45763.34135416667</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>

--- a/Översikt HANINGE.xlsx
+++ b/Översikt HANINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         <v>45679</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45258</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>44525</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1063,14 +1063,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 3152-2025</t>
+          <t>A 67868-2021</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45679</v>
+        <v>44525</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1083,19 +1083,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J6" t="n">
         <v>6</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1107,15 +1107,124 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>21</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Gränsticka
+Grönhjon
+Spillkråka
+Spinnfingersvamp
+Tallticka
+Vedskivlav
+Björksplintborre
+Blåmossa
+Bronshjon
+Flagellkvastmossa
+Granbarkgnagare
+Grön sköldmossa
+Kornknutmossa
+Mindre märgborre
+Platt fjädermossa
+Scharlakansvårskål agg.
+Stubbspretmossa
+Sårläka
+Vågbandad barkbock
+Blåsippa
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 67868-2021 artfynd.xlsx", "A 67868-2021")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 67868-2021 karta.png", "A 67868-2021")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 67868-2021 FSC-klagomål.docx", "A 67868-2021")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 67868-2021 FSC-klagomål mail.docx", "A 67868-2021")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 67868-2021 tillsynsbegäran.docx", "A 67868-2021")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 67868-2021 tillsynsbegäran mail.docx", "A 67868-2021")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 67868-2021 prioriterade fågelarter.docx", "A 67868-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 3152-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45679</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>8</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>21</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Vågticka
@@ -1140,145 +1249,36 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 3152-2025 artfynd.xlsx", "A 3152-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 3152-2025 karta.png", "A 3152-2025")</f>
         <v/>
       </c>
-      <c r="U6">
+      <c r="U7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/knärot/A 3152-2025 karta knärot.png", "A 3152-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 3152-2025 FSC-klagomål.docx", "A 3152-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 3152-2025 FSC-klagomål mail.docx", "A 3152-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 3152-2025 tillsynsbegäran.docx", "A 3152-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 3152-2025 tillsynsbegäran mail.docx", "A 3152-2025")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 3152-2025 prioriterade fågelarter.docx", "A 3152-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 67868-2021</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>44525</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-      <c r="I7" t="n">
-        <v>13</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>6</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>21</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Gränsticka
-Grönhjon
-Spillkråka
-Spinnfingersvamp
-Tallticka
-Vedskivlav
-Björksplintborre
-Blåmossa
-Bronshjon
-Flagellkvastmossa
-Granbarkgnagare
-Grön sköldmossa
-Kornknutmossa
-Mindre märgborre
-Platt fjädermossa
-Scharlakansvårskål agg.
-Stubbspretmossa
-Sårläka
-Vågbandad barkbock
-Blåsippa
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 67868-2021 artfynd.xlsx", "A 67868-2021")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 67868-2021 karta.png", "A 67868-2021")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 67868-2021 FSC-klagomål.docx", "A 67868-2021")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 67868-2021 FSC-klagomål mail.docx", "A 67868-2021")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 67868-2021 tillsynsbegäran.docx", "A 67868-2021")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 67868-2021 tillsynsbegäran mail.docx", "A 67868-2021")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 67868-2021 prioriterade fågelarter.docx", "A 67868-2021")</f>
         <v/>
       </c>
     </row>
@@ -1292,7 +1292,7 @@
         <v>45991.89199074074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         <v>45679.31876157408</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         <v>45991.89914351852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44643</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>44463</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44463</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>45203</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>45014</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2042,14 +2042,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 24189-2025</t>
+          <t>A 20507-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45796.84584490741</v>
+        <v>45775.59121527777</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>6.1</v>
+        <v>1.2</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -2096,118 +2096,118 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
+          <t>Brandticka
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 20507-2025 artfynd.xlsx", "A 20507-2025")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 20507-2025 karta.png", "A 20507-2025")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 20507-2025 FSC-klagomål.docx", "A 20507-2025")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 20507-2025 FSC-klagomål mail.docx", "A 20507-2025")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 20507-2025 tillsynsbegäran.docx", "A 20507-2025")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 20507-2025 tillsynsbegäran mail.docx", "A 20507-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 24189-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45796.84584490741</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
           <t>Myskmadra
 Blåsippa</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 24189-2025 artfynd.xlsx", "A 24189-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 24189-2025 karta.png", "A 24189-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 24189-2025 FSC-klagomål.docx", "A 24189-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 24189-2025 FSC-klagomål mail.docx", "A 24189-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 24189-2025 tillsynsbegäran.docx", "A 24189-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 24189-2025 tillsynsbegäran mail.docx", "A 24189-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 20507-2025</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45775.59121527777</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Brandticka
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 20507-2025 artfynd.xlsx", "A 20507-2025")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 20507-2025 karta.png", "A 20507-2025")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 20507-2025 FSC-klagomål.docx", "A 20507-2025")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 20507-2025 FSC-klagomål mail.docx", "A 20507-2025")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 20507-2025 tillsynsbegäran.docx", "A 20507-2025")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 20507-2025 tillsynsbegäran mail.docx", "A 20507-2025")</f>
         <v/>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
         <v>44818</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2299,14 +2299,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 2722-2022</t>
+          <t>A 37004-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44580</v>
+        <v>44806</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2318,8 +2318,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G19" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -2353,45 +2358,45 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 2722-2022 artfynd.xlsx", "A 2722-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 37004-2022 artfynd.xlsx", "A 37004-2022")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 2722-2022 karta.png", "A 2722-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 37004-2022 karta.png", "A 37004-2022")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 2722-2022 FSC-klagomål.docx", "A 2722-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 37004-2022 FSC-klagomål.docx", "A 37004-2022")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 2722-2022 FSC-klagomål mail.docx", "A 2722-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 37004-2022 FSC-klagomål mail.docx", "A 37004-2022")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 2722-2022 tillsynsbegäran.docx", "A 2722-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 37004-2022 tillsynsbegäran.docx", "A 37004-2022")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 2722-2022 tillsynsbegäran mail.docx", "A 2722-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 37004-2022 tillsynsbegäran mail.docx", "A 37004-2022")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 37004-2022</t>
+          <t>A 2722-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44806</v>
+        <v>44580</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2403,13 +2408,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G20" t="n">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -2443,45 +2443,45 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 37004-2022 artfynd.xlsx", "A 37004-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 2722-2022 artfynd.xlsx", "A 2722-2022")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 37004-2022 karta.png", "A 37004-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 2722-2022 karta.png", "A 2722-2022")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 37004-2022 FSC-klagomål.docx", "A 37004-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 2722-2022 FSC-klagomål.docx", "A 2722-2022")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 37004-2022 FSC-klagomål mail.docx", "A 37004-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 2722-2022 FSC-klagomål mail.docx", "A 2722-2022")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 37004-2022 tillsynsbegäran.docx", "A 37004-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 2722-2022 tillsynsbegäran.docx", "A 2722-2022")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 37004-2022 tillsynsbegäran mail.docx", "A 37004-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 2722-2022 tillsynsbegäran mail.docx", "A 2722-2022")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 34823-2022</t>
+          <t>A 60369-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44796</v>
+        <v>45259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2494,10 +2494,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>12</v>
+        <v>2.9</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -2518,55 +2518,55 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Mörk kraterlav</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 34823-2022 artfynd.xlsx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 60369-2023 artfynd.xlsx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 34823-2022 karta.png", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 60369-2023 karta.png", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 34823-2022 FSC-klagomål.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 60369-2023 FSC-klagomål.docx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 34823-2022 FSC-klagomål mail.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 60369-2023 FSC-klagomål mail.docx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 34823-2022 tillsynsbegäran.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 60369-2023 tillsynsbegäran.docx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 34823-2022 tillsynsbegäran mail.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 60369-2023 tillsynsbegäran mail.docx", "A 60369-2023")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 68883-2021</t>
+          <t>A 34823-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44526</v>
+        <v>44796</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2579,20 +2579,20 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
@@ -2603,55 +2603,55 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Mörk kraterlav</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 68883-2021 artfynd.xlsx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 34823-2022 artfynd.xlsx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 68883-2021 karta.png", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 34823-2022 karta.png", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 68883-2021 FSC-klagomål.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 34823-2022 FSC-klagomål.docx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 68883-2021 FSC-klagomål mail.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 34823-2022 FSC-klagomål mail.docx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 68883-2021 tillsynsbegäran.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 34823-2022 tillsynsbegäran.docx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 68883-2021 tillsynsbegäran mail.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 34823-2022 tillsynsbegäran mail.docx", "A 34823-2022")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 59570-2025</t>
+          <t>A 68883-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45991.93646990741</v>
+        <v>44526</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -2673,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2688,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2698,49 +2698,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Fjällvråk</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 59570-2025 artfynd.xlsx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 68883-2021 artfynd.xlsx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 59570-2025 karta.png", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 68883-2021 karta.png", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 59570-2025 FSC-klagomål.docx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 68883-2021 FSC-klagomål.docx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 59570-2025 FSC-klagomål mail.docx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 68883-2021 FSC-klagomål mail.docx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 59570-2025 tillsynsbegäran.docx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 68883-2021 tillsynsbegäran.docx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 59570-2025 tillsynsbegäran mail.docx", "A 59570-2025")</f>
-        <v/>
-      </c>
-      <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 59570-2025 prioriterade fågelarter.docx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 68883-2021 tillsynsbegäran mail.docx", "A 68883-2021")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 60369-2023</t>
+          <t>A 59570-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45259</v>
+        <v>45991.93646990741</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2753,7 +2749,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -2762,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2777,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2787,31 +2783,35 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Fjällvråk</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 60369-2023 artfynd.xlsx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 59570-2025 artfynd.xlsx", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 60369-2023 karta.png", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 59570-2025 karta.png", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 60369-2023 FSC-klagomål.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 59570-2025 FSC-klagomål.docx", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 60369-2023 FSC-klagomål mail.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 59570-2025 FSC-klagomål mail.docx", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 60369-2023 tillsynsbegäran.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 59570-2025 tillsynsbegäran.docx", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 60369-2023 tillsynsbegäran mail.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 59570-2025 tillsynsbegäran mail.docx", "A 59570-2025")</f>
+        <v/>
+      </c>
+      <c r="Z24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 59570-2025 prioriterade fågelarter.docx", "A 59570-2025")</f>
         <v/>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
         <v>44369</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44526</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44300</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44825</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>44825</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>44460</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>44845.42407407407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3284,14 +3284,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 45498-2022</t>
+          <t>A 55861-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44845.42118055555</v>
+        <v>44476</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3303,8 +3303,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3341,14 +3346,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 55853-2021</t>
+          <t>A 19652-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44476</v>
+        <v>44694</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3358,11 +3363,6 @@
       <c r="E34" t="inlineStr">
         <is>
           <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -3403,14 +3403,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 19652-2022</t>
+          <t>A 13135-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44694</v>
+        <v>44643</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3460,14 +3460,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 45395-2021</t>
+          <t>A 30419-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44440</v>
+        <v>44761</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3479,13 +3479,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>3.5</v>
+        <v>7.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3522,14 +3517,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 43709-2021</t>
+          <t>A 45498-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44433.62136574074</v>
+        <v>44845.42118055555</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3542,7 +3537,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3579,14 +3574,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 55861-2021</t>
+          <t>A 45395-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44476</v>
+        <v>44440</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3600,11 +3595,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3648,7 +3643,7 @@
         <v>44825</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3703,14 +3698,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 13135-2022</t>
+          <t>A 55853-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44643</v>
+        <v>44476</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3722,8 +3717,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3760,14 +3760,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 30419-2022</t>
+          <t>A 37000-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44761</v>
+        <v>44806</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3779,8 +3779,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>7.4</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3817,14 +3822,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 37000-2022</t>
+          <t>A 20839-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44806</v>
+        <v>45439.39953703704</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3836,13 +3841,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>8.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3879,14 +3879,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 4297-2024</t>
+          <t>A 43709-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45324.62291666667</v>
+        <v>44433.62136574074</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3898,13 +3898,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3941,14 +3936,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 9946-2024</t>
+          <t>A 68896-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45363.59789351852</v>
+        <v>44526</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3961,7 +3956,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3998,14 +3993,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 8163-2024</t>
+          <t>A 3156-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45351.60337962963</v>
+        <v>45679.32142361111</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4017,13 +4012,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4060,14 +4050,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 1187-2024</t>
+          <t>A 18512-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45302.58045138889</v>
+        <v>45425.59938657407</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4079,8 +4069,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4117,14 +4112,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 52773-2024</t>
+          <t>A 18491-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45610.53207175926</v>
+        <v>45763.34135416667</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4137,7 +4132,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4174,14 +4169,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 21231-2025</t>
+          <t>A 4297-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45779.54644675926</v>
+        <v>45324.62291666667</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4193,8 +4188,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>4.3</v>
+        <v>0.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4231,14 +4231,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 41809-2021</t>
+          <t>A 68894-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44425</v>
+        <v>44526</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4288,14 +4288,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 13046-2022</t>
+          <t>A 6648-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44643</v>
+        <v>44966</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4345,14 +4345,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 50306-2023</t>
+          <t>A 1703-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45209</v>
+        <v>44938.44412037037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4398,38 +4398,18 @@
         <v>0</v>
       </c>
       <c r="R51" s="2" t="inlineStr"/>
-      <c r="U51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/knärot/A 50306-2023 karta knärot.png", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="V51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 50306-2023 FSC-klagomål.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="W51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 50306-2023 FSC-klagomål mail.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="X51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 50306-2023 tillsynsbegäran.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="Y51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 50306-2023 tillsynsbegäran mail.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
     </row>
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 24191-2025</t>
+          <t>A 17765-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45796.86738425926</v>
+        <v>45418.63149305555</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4442,7 +4422,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4479,14 +4459,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 24193-2025</t>
+          <t>A 27596-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45796.89591435185</v>
+        <v>45813.52303240741</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4499,7 +4479,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4536,14 +4516,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 24115-2025</t>
+          <t>A 58599-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45796.61494212963</v>
+        <v>45251.47721064815</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4556,7 +4536,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4593,14 +4573,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 64075-2023</t>
+          <t>A 25584-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45279</v>
+        <v>45089</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4613,7 +4593,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.6</v>
+        <v>4.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4650,14 +4630,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 22288-2023</t>
+          <t>A 18528-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45070</v>
+        <v>45425.61965277778</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4669,8 +4649,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4707,14 +4692,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 38595-2021</t>
+          <t>A 32952-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44407</v>
+        <v>45839.69278935185</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4727,7 +4712,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4764,14 +4749,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 27596-2025</t>
+          <t>A 32954-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45813.52303240741</v>
+        <v>45839.70034722222</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4784,7 +4769,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.1</v>
+        <v>1.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4821,14 +4806,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 18512-2024</t>
+          <t>A 13046-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45425.59938657407</v>
+        <v>44643</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4840,13 +4825,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4883,14 +4863,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 32952-2025</t>
+          <t>A 20527-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45839.69278935185</v>
+        <v>45775.60663194444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4903,7 +4883,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4940,14 +4920,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 32954-2025</t>
+          <t>A 32948-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45839.70034722222</v>
+        <v>45839</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4960,7 +4940,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4997,14 +4977,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 1184-2024</t>
+          <t>A 8078-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45302.57663194444</v>
+        <v>45351.43737268518</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5016,8 +4996,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5054,14 +5039,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 48606-2025</t>
+          <t>A 14264-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45936.47019675926</v>
+        <v>45740.6340162037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5074,7 +5059,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>6.9</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5111,14 +5096,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 32948-2025</t>
+          <t>A 1187-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45839</v>
+        <v>45302.58045138889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5131,7 +5116,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5168,14 +5153,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 52770-2024</t>
+          <t>A 38595-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45610.52414351852</v>
+        <v>44407</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5188,7 +5173,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5225,14 +5210,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 14264-2025</t>
+          <t>A 1180-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45740.6340162037</v>
+        <v>45302</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5245,7 +5230,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5289,7 +5274,7 @@
         <v>44676</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5344,14 +5329,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 38880-2025</t>
+          <t>A 1184-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45887.57966435186</v>
+        <v>45302.57663194444</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5364,7 +5349,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5401,14 +5386,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 18528-2024</t>
+          <t>A 50306-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45425.61965277778</v>
+        <v>45209</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5420,13 +5405,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5459,18 +5439,38 @@
         <v>0</v>
       </c>
       <c r="R69" s="2" t="inlineStr"/>
+      <c r="U69">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/knärot/A 50306-2023 karta knärot.png", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="V69">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 50306-2023 FSC-klagomål.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="W69">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 50306-2023 FSC-klagomål mail.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="X69">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 50306-2023 tillsynsbegäran.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="Y69">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 50306-2023 tillsynsbegäran mail.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 1703-2023</t>
+          <t>A 24873-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44938.44412037037</v>
+        <v>45085</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5520,14 +5520,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 18490-2025</t>
+          <t>A 19220-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45763</v>
+        <v>45048</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5577,14 +5577,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 18548-2024</t>
+          <t>A 18490-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45425.64708333334</v>
+        <v>45763</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5596,13 +5596,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>7.3</v>
+        <v>3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5639,14 +5634,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 20839-2024</t>
+          <t>A 22288-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45439.39953703704</v>
+        <v>45070</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5659,7 +5654,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>8.4</v>
+        <v>2.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5696,14 +5691,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 5474-2024</t>
+          <t>A 52773-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45333.51131944444</v>
+        <v>45610.53207175926</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5715,13 +5710,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5758,14 +5748,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 23666-2024</t>
+          <t>A 33792-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45454.57909722222</v>
+        <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5778,7 +5768,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5815,14 +5805,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 68896-2021</t>
+          <t>A 23666-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44526</v>
+        <v>45454.57909722222</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5835,7 +5825,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5872,14 +5862,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 59565-2025</t>
+          <t>A 64568-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45991.88413194445</v>
+        <v>45281.43164351852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5892,7 +5882,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5929,14 +5919,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 59569-2025</t>
+          <t>A 9946-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45991.92870370371</v>
+        <v>45363.59789351852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5949,7 +5939,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5986,14 +5976,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 59568-2025</t>
+          <t>A 18548-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45991.90737268519</v>
+        <v>45425.64708333334</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6005,8 +5995,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>5.8</v>
+        <v>7.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6043,14 +6038,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 6648-2023</t>
+          <t>A 41809-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44966</v>
+        <v>44425</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6063,7 +6058,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6100,14 +6095,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 33792-2023</t>
+          <t>A 38880-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45121</v>
+        <v>45887.57966435186</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6120,7 +6115,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6157,14 +6152,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 14900-2025</t>
+          <t>A 8163-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45743.48729166666</v>
+        <v>45351.60337962963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6176,8 +6171,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6214,14 +6214,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 20527-2025</t>
+          <t>A 52770-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45775.60663194444</v>
+        <v>45610.52414351852</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6271,14 +6271,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 64568-2023</t>
+          <t>A 52836-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45281.43164351852</v>
+        <v>45610.59637731482</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6328,14 +6328,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 1180-2024</t>
+          <t>A 5474-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45302</v>
+        <v>45333.51131944444</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6347,8 +6347,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6385,14 +6390,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 24873-2023</t>
+          <t>A 14900-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45085</v>
+        <v>45743.48729166666</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6405,7 +6410,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6442,14 +6447,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 58599-2023</t>
+          <t>A 21231-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45251.47721064815</v>
+        <v>45779.54644675926</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6462,7 +6467,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6499,14 +6504,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 52836-2024</t>
+          <t>A 48606-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45610.59637731482</v>
+        <v>45936.47019675926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6519,7 +6524,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>6.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6556,14 +6561,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 8078-2024</t>
+          <t>A 24115-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45351.43737268518</v>
+        <v>45796.61494212963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6575,13 +6580,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6618,14 +6618,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 19220-2023</t>
+          <t>A 24191-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45048</v>
+        <v>45796.86738425926</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6675,14 +6675,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 25584-2023</t>
+          <t>A 24193-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45089</v>
+        <v>45796.89591435185</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.8</v>
+        <v>0.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6732,14 +6732,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 3156-2025</t>
+          <t>A 64075-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45679.32142361111</v>
+        <v>45279</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6789,14 +6789,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 17765-2024</t>
+          <t>A 59569-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45418.63149305555</v>
+        <v>45991.92870370371</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6846,14 +6846,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 68894-2021</t>
+          <t>A 59565-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44526</v>
+        <v>45991.88413194445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6903,14 +6903,14 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 18491-2025</t>
+          <t>A 59568-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45763.34135416667</v>
+        <v>45991.90737268519</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.5</v>
+        <v>5.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>

--- a/Översikt HANINGE.xlsx
+++ b/Översikt HANINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         <v>45679</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45258</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>44525</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>44525</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>45679</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>45991.89199074074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         <v>45679.31876157408</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         <v>45991.89914351852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44643</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>44463</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44463</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>45203</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1956,14 +1956,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 14729-2023</t>
+          <t>A 24189-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45014</v>
+        <v>45796.84584490741</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1976,16 +1976,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.2</v>
+        <v>6.1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -2010,204 +2010,204 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
+          <t>Myskmadra
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 24189-2025 artfynd.xlsx", "A 24189-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 24189-2025 karta.png", "A 24189-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 24189-2025 FSC-klagomål.docx", "A 24189-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 24189-2025 FSC-klagomål mail.docx", "A 24189-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 24189-2025 tillsynsbegäran.docx", "A 24189-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 24189-2025 tillsynsbegäran mail.docx", "A 24189-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 20507-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45775.59121527777</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Brandticka
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 20507-2025 artfynd.xlsx", "A 20507-2025")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 20507-2025 karta.png", "A 20507-2025")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 20507-2025 FSC-klagomål.docx", "A 20507-2025")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 20507-2025 FSC-klagomål mail.docx", "A 20507-2025")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 20507-2025 tillsynsbegäran.docx", "A 20507-2025")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 20507-2025 tillsynsbegäran mail.docx", "A 20507-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 14729-2023</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45014</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
           <t>Ullticka
 Mindre märgborre</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 14729-2023 artfynd.xlsx", "A 14729-2023")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 14729-2023 karta.png", "A 14729-2023")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 14729-2023 FSC-klagomål.docx", "A 14729-2023")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 14729-2023 FSC-klagomål mail.docx", "A 14729-2023")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 14729-2023 tillsynsbegäran.docx", "A 14729-2023")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 14729-2023 tillsynsbegäran mail.docx", "A 14729-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 20507-2025</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45775.59121527777</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Brandticka
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 20507-2025 artfynd.xlsx", "A 20507-2025")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 20507-2025 karta.png", "A 20507-2025")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 20507-2025 FSC-klagomål.docx", "A 20507-2025")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 20507-2025 FSC-klagomål mail.docx", "A 20507-2025")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 20507-2025 tillsynsbegäran.docx", "A 20507-2025")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 20507-2025 tillsynsbegäran mail.docx", "A 20507-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 24189-2025</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45796.84584490741</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Myskmadra
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 24189-2025 artfynd.xlsx", "A 24189-2025")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 24189-2025 karta.png", "A 24189-2025")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 24189-2025 FSC-klagomål.docx", "A 24189-2025")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 24189-2025 FSC-klagomål mail.docx", "A 24189-2025")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 24189-2025 tillsynsbegäran.docx", "A 24189-2025")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 24189-2025 tillsynsbegäran mail.docx", "A 24189-2025")</f>
         <v/>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
         <v>44818</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2299,14 +2299,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 37004-2022</t>
+          <t>A 2722-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44806</v>
+        <v>44580</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2318,13 +2318,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G19" t="n">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -2358,45 +2353,45 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 37004-2022 artfynd.xlsx", "A 37004-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 2722-2022 artfynd.xlsx", "A 2722-2022")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 37004-2022 karta.png", "A 37004-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 2722-2022 karta.png", "A 2722-2022")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 37004-2022 FSC-klagomål.docx", "A 37004-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 2722-2022 FSC-klagomål.docx", "A 2722-2022")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 37004-2022 FSC-klagomål mail.docx", "A 37004-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 2722-2022 FSC-klagomål mail.docx", "A 2722-2022")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 37004-2022 tillsynsbegäran.docx", "A 37004-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 2722-2022 tillsynsbegäran.docx", "A 2722-2022")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 37004-2022 tillsynsbegäran mail.docx", "A 37004-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 2722-2022 tillsynsbegäran mail.docx", "A 2722-2022")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 2722-2022</t>
+          <t>A 37004-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44580</v>
+        <v>44806</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2408,8 +2403,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G20" t="n">
-        <v>1.5</v>
+        <v>4.4</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -2443,45 +2443,45 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 2722-2022 artfynd.xlsx", "A 2722-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 37004-2022 artfynd.xlsx", "A 37004-2022")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 2722-2022 karta.png", "A 2722-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 37004-2022 karta.png", "A 37004-2022")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 2722-2022 FSC-klagomål.docx", "A 2722-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 37004-2022 FSC-klagomål.docx", "A 37004-2022")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 2722-2022 FSC-klagomål mail.docx", "A 2722-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 37004-2022 FSC-klagomål mail.docx", "A 37004-2022")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 2722-2022 tillsynsbegäran.docx", "A 2722-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 37004-2022 tillsynsbegäran.docx", "A 37004-2022")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 2722-2022 tillsynsbegäran mail.docx", "A 2722-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 37004-2022 tillsynsbegäran mail.docx", "A 37004-2022")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 60369-2023</t>
+          <t>A 34823-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45259</v>
+        <v>44796</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2494,20 +2494,20 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.9</v>
+        <v>12</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
@@ -2518,55 +2518,55 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Mörk kraterlav</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 60369-2023 artfynd.xlsx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 34823-2022 artfynd.xlsx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 60369-2023 karta.png", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 34823-2022 karta.png", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 60369-2023 FSC-klagomål.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 34823-2022 FSC-klagomål.docx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 60369-2023 FSC-klagomål mail.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 34823-2022 FSC-klagomål mail.docx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 60369-2023 tillsynsbegäran.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 34823-2022 tillsynsbegäran.docx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 60369-2023 tillsynsbegäran mail.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 34823-2022 tillsynsbegäran mail.docx", "A 34823-2022")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 34823-2022</t>
+          <t>A 68883-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44796</v>
+        <v>44526</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2579,10 +2579,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2591,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2603,55 +2603,55 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Mörk kraterlav</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 34823-2022 artfynd.xlsx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 68883-2021 artfynd.xlsx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 34823-2022 karta.png", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 68883-2021 karta.png", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 34823-2022 FSC-klagomål.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 68883-2021 FSC-klagomål.docx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 34823-2022 FSC-klagomål mail.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 68883-2021 FSC-klagomål mail.docx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 34823-2022 tillsynsbegäran.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 68883-2021 tillsynsbegäran.docx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 34823-2022 tillsynsbegäran mail.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 68883-2021 tillsynsbegäran mail.docx", "A 68883-2021")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 68883-2021</t>
+          <t>A 60369-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44526</v>
+        <v>45259</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -2698,31 +2698,31 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 68883-2021 artfynd.xlsx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 60369-2023 artfynd.xlsx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 68883-2021 karta.png", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 60369-2023 karta.png", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 68883-2021 FSC-klagomål.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 60369-2023 FSC-klagomål.docx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 68883-2021 FSC-klagomål mail.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 60369-2023 FSC-klagomål mail.docx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 68883-2021 tillsynsbegäran.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 60369-2023 tillsynsbegäran.docx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 68883-2021 tillsynsbegäran mail.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 60369-2023 tillsynsbegäran mail.docx", "A 60369-2023")</f>
         <v/>
       </c>
     </row>
@@ -2736,7 +2736,7 @@
         <v>45991.93646990741</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>44369</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44526</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44300</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44825</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>44825</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>44460</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>44845.42407407407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3284,14 +3284,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 55861-2021</t>
+          <t>A 45498-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44476</v>
+        <v>44845.42118055555</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3303,13 +3303,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3346,14 +3341,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 19652-2022</t>
+          <t>A 55853-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44694</v>
+        <v>44476</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3363,6 +3358,11 @@
       <c r="E34" t="inlineStr">
         <is>
           <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -3403,14 +3403,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 13135-2022</t>
+          <t>A 19652-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44643</v>
+        <v>44694</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3460,14 +3460,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 30419-2022</t>
+          <t>A 45395-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44761</v>
+        <v>44440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3479,8 +3479,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>7.4</v>
+        <v>3.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3517,14 +3522,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 45498-2022</t>
+          <t>A 43709-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44845.42118055555</v>
+        <v>44433.62136574074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3537,7 +3542,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3574,14 +3579,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 45395-2021</t>
+          <t>A 55861-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44440</v>
+        <v>44476</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3595,11 +3600,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3643,7 +3648,7 @@
         <v>44825</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3698,14 +3703,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 55853-2021</t>
+          <t>A 30419-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44476</v>
+        <v>44761</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3717,13 +3722,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>1.3</v>
+        <v>7.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3760,14 +3760,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 37000-2022</t>
+          <t>A 13135-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44806</v>
+        <v>44643</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3777,11 +3777,6 @@
       <c r="E41" t="inlineStr">
         <is>
           <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -3822,14 +3817,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 20839-2024</t>
+          <t>A 37000-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45439.39953703704</v>
+        <v>44806</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3841,8 +3836,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>8.4</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3879,14 +3879,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 43709-2021</t>
+          <t>A 4297-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44433.62136574074</v>
+        <v>45324.62291666667</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3898,8 +3898,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3936,14 +3941,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 68896-2021</t>
+          <t>A 9946-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44526</v>
+        <v>45363.59789351852</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3956,7 +3961,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3993,14 +3998,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 3156-2025</t>
+          <t>A 41809-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45679.32142361111</v>
+        <v>44425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4013,7 +4018,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4050,14 +4055,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 18512-2024</t>
+          <t>A 24191-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45425.59938657407</v>
+        <v>45796.86738425926</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4069,13 +4074,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4112,14 +4112,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 18491-2025</t>
+          <t>A 24193-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45763.34135416667</v>
+        <v>45796.89591435185</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4169,14 +4169,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 4297-2024</t>
+          <t>A 24115-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45324.62291666667</v>
+        <v>45796.61494212963</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4188,13 +4188,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4231,14 +4226,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 68894-2021</t>
+          <t>A 13046-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44526</v>
+        <v>44643</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4251,7 +4246,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4288,14 +4283,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 6648-2023</t>
+          <t>A 64075-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44966</v>
+        <v>45279</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4308,7 +4303,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4345,14 +4340,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 1703-2023</t>
+          <t>A 50306-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44938.44412037037</v>
+        <v>45209</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4365,7 +4360,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4398,18 +4393,38 @@
         <v>0</v>
       </c>
       <c r="R51" s="2" t="inlineStr"/>
+      <c r="U51">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/knärot/A 50306-2023 karta knärot.png", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="V51">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 50306-2023 FSC-klagomål.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="W51">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 50306-2023 FSC-klagomål mail.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="X51">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 50306-2023 tillsynsbegäran.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="Y51">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 50306-2023 tillsynsbegäran mail.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 17765-2024</t>
+          <t>A 8163-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45418.63149305555</v>
+        <v>45351.60337962963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4421,8 +4436,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4459,14 +4479,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 27596-2025</t>
+          <t>A 22288-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45813.52303240741</v>
+        <v>45070</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4479,7 +4499,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.1</v>
+        <v>2.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4516,14 +4536,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 58599-2023</t>
+          <t>A 27596-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45251.47721064815</v>
+        <v>45813.52303240741</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4536,7 +4556,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.2</v>
+        <v>0.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4573,14 +4593,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 25584-2023</t>
+          <t>A 38595-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45089</v>
+        <v>44407</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4593,7 +4613,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4.8</v>
+        <v>1.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4630,14 +4650,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 18528-2024</t>
+          <t>A 32952-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45425.61965277778</v>
+        <v>45839.69278935185</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4649,13 +4669,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4692,14 +4707,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 32952-2025</t>
+          <t>A 32954-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45839.69278935185</v>
+        <v>45839.70034722222</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4712,7 +4727,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4749,14 +4764,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 32954-2025</t>
+          <t>A 32948-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45839.70034722222</v>
+        <v>45839</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4769,7 +4784,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4806,14 +4821,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 13046-2022</t>
+          <t>A 18512-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44643</v>
+        <v>45425.59938657407</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4825,8 +4840,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4863,14 +4883,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 20527-2025</t>
+          <t>A 1184-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45775.60663194444</v>
+        <v>45302.57663194444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4883,7 +4903,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4920,14 +4940,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 32948-2025</t>
+          <t>A 14264-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45839</v>
+        <v>45740.6340162037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4940,7 +4960,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4977,14 +4997,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 8078-2024</t>
+          <t>A 17020-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45351.43737268518</v>
+        <v>44676</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4998,11 +5018,11 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.4</v>
+        <v>12.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5039,14 +5059,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 14264-2025</t>
+          <t>A 52770-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45740.6340162037</v>
+        <v>45610.52414351852</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5059,7 +5079,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5096,14 +5116,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 1187-2024</t>
+          <t>A 38880-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45302.58045138889</v>
+        <v>45887.57966435186</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5116,7 +5136,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5153,14 +5173,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 38595-2021</t>
+          <t>A 48606-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44407</v>
+        <v>45936.47019675926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5173,7 +5193,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.1</v>
+        <v>6.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5210,14 +5230,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 1180-2024</t>
+          <t>A 18528-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45302</v>
+        <v>45425.61965277778</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5229,8 +5249,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5267,14 +5292,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 17020-2022</t>
+          <t>A 1703-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44676</v>
+        <v>44938.44412037037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5286,13 +5311,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>12.4</v>
+        <v>1.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5329,14 +5349,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 1184-2024</t>
+          <t>A 18490-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45302.57663194444</v>
+        <v>45763</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5349,7 +5369,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5386,14 +5406,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 50306-2023</t>
+          <t>A 18548-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45209</v>
+        <v>45425.64708333334</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5405,8 +5425,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>2.3</v>
+        <v>7.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5439,38 +5464,18 @@
         <v>0</v>
       </c>
       <c r="R69" s="2" t="inlineStr"/>
-      <c r="U69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/knärot/A 50306-2023 karta knärot.png", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="V69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 50306-2023 FSC-klagomål.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="W69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 50306-2023 FSC-klagomål mail.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="X69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 50306-2023 tillsynsbegäran.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="Y69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 50306-2023 tillsynsbegäran mail.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 24873-2023</t>
+          <t>A 20839-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45085</v>
+        <v>45439.39953703704</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5483,7 +5488,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.9</v>
+        <v>8.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5520,14 +5525,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 19220-2023</t>
+          <t>A 5474-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45048</v>
+        <v>45333.51131944444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5539,8 +5544,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5577,14 +5587,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 18490-2025</t>
+          <t>A 23666-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45763</v>
+        <v>45454.57909722222</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5597,7 +5607,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5634,14 +5644,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 22288-2023</t>
+          <t>A 68896-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45070</v>
+        <v>44526</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5654,7 +5664,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5691,14 +5701,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 52773-2024</t>
+          <t>A 6648-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45610.53207175926</v>
+        <v>44966</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5711,7 +5721,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5755,7 +5765,7 @@
         <v>45121</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5805,14 +5815,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 23666-2024</t>
+          <t>A 14900-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45454.57909722222</v>
+        <v>45743.48729166666</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5825,7 +5835,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.8</v>
+        <v>4.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5862,14 +5872,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 64568-2023</t>
+          <t>A 20527-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45281.43164351852</v>
+        <v>45775.60663194444</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5882,7 +5892,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5919,14 +5929,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 9946-2024</t>
+          <t>A 64568-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45363.59789351852</v>
+        <v>45281.43164351852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5939,7 +5949,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5976,14 +5986,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 18548-2024</t>
+          <t>A 1180-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45425.64708333334</v>
+        <v>45302</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5995,13 +6005,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>7.3</v>
+        <v>2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6038,14 +6043,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 41809-2021</t>
+          <t>A 24873-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44425</v>
+        <v>45085</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6058,7 +6063,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6095,14 +6100,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 38880-2025</t>
+          <t>A 59565-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45887.57966435186</v>
+        <v>45991.88413194445</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6115,7 +6120,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6152,14 +6157,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 8163-2024</t>
+          <t>A 59569-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45351.60337962963</v>
+        <v>45991.92870370371</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6171,13 +6176,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6214,14 +6214,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 52770-2024</t>
+          <t>A 58599-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45610.52414351852</v>
+        <v>45251.47721064815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6271,14 +6271,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 52836-2024</t>
+          <t>A 59568-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45610.59637731482</v>
+        <v>45991.90737268519</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>5.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6328,14 +6328,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 5474-2024</t>
+          <t>A 52836-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45333.51131944444</v>
+        <v>45610.59637731482</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6347,13 +6347,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6390,14 +6385,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 14900-2025</t>
+          <t>A 8078-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45743.48729166666</v>
+        <v>45351.43737268518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6409,8 +6404,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6447,14 +6447,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 21231-2025</t>
+          <t>A 19220-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45779.54644675926</v>
+        <v>45048</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.3</v>
+        <v>1.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6504,14 +6504,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 48606-2025</t>
+          <t>A 25584-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45936.47019675926</v>
+        <v>45089</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>6.9</v>
+        <v>4.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6561,14 +6561,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 24115-2025</t>
+          <t>A 3156-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45796.61494212963</v>
+        <v>45679.32142361111</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6618,14 +6618,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 24191-2025</t>
+          <t>A 17765-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45796.86738425926</v>
+        <v>45418.63149305555</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6675,14 +6675,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 24193-2025</t>
+          <t>A 68894-2021</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45796.89591435185</v>
+        <v>44526</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6732,14 +6732,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 64075-2023</t>
+          <t>A 18491-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45279</v>
+        <v>45763.34135416667</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6789,14 +6789,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 59569-2025</t>
+          <t>A 1187-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45991.92870370371</v>
+        <v>45302.58045138889</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6846,14 +6846,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 59565-2025</t>
+          <t>A 52773-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45991.88413194445</v>
+        <v>45610.53207175926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6903,14 +6903,14 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 59568-2025</t>
+          <t>A 21231-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45991.90737268519</v>
+        <v>45779.54644675926</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>5.8</v>
+        <v>4.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>

--- a/Översikt HANINGE.xlsx
+++ b/Översikt HANINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         <v>45679</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45258</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>44525</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>44525</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>45679</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>45991.89199074074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1386,14 +1386,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 3155-2025</t>
+          <t>A 59567-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45679.31876157408</v>
+        <v>45991.89914351852</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1406,39 +1406,142 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>17.7</v>
+        <v>6.6</v>
       </c>
       <c r="H9" t="n">
         <v>3</v>
       </c>
       <c r="I9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>6</v>
       </c>
-      <c r="J9" t="n">
-        <v>4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>4</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>11</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Spillkråka
+Tallticka
+Talltita
+Ullticka
+Vintertagging
+Björksplintborre
+Brandticka
+Grovticka
+Jättesvampmal
+Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 59567-2025 artfynd.xlsx", "A 59567-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 59567-2025 karta.png", "A 59567-2025")</f>
+        <v/>
+      </c>
+      <c r="U9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/knärot/A 59567-2025 karta knärot.png", "A 59567-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 59567-2025 FSC-klagomål.docx", "A 59567-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 59567-2025 FSC-klagomål mail.docx", "A 59567-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 59567-2025 tillsynsbegäran.docx", "A 59567-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 59567-2025 tillsynsbegäran mail.docx", "A 59567-2025")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 59567-2025 prioriterade fågelarter.docx", "A 59567-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 3155-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45679.31876157408</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>4</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>11</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Granticka
 Kandelabersvamp
@@ -1453,135 +1556,32 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 3155-2025 artfynd.xlsx", "A 3155-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 3155-2025 karta.png", "A 3155-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 3155-2025 FSC-klagomål.docx", "A 3155-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 3155-2025 FSC-klagomål mail.docx", "A 3155-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 3155-2025 tillsynsbegäran.docx", "A 3155-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 3155-2025 tillsynsbegäran mail.docx", "A 3155-2025")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 3155-2025 prioriterade fågelarter.docx", "A 3155-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 59567-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45991.89914351852</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>6</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>11</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Spillkråka
-Tallticka
-Talltita
-Ullticka
-Vintertagging
-Björksplintborre
-Brandticka
-Grovticka
-Jättesvampmal
-Mindre märgborre</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 59567-2025 artfynd.xlsx", "A 59567-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 59567-2025 karta.png", "A 59567-2025")</f>
-        <v/>
-      </c>
-      <c r="U10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/knärot/A 59567-2025 karta knärot.png", "A 59567-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 59567-2025 FSC-klagomål.docx", "A 59567-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 59567-2025 FSC-klagomål mail.docx", "A 59567-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 59567-2025 tillsynsbegäran.docx", "A 59567-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 59567-2025 tillsynsbegäran mail.docx", "A 59567-2025")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 59567-2025 prioriterade fågelarter.docx", "A 59567-2025")</f>
         <v/>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
         <v>44643</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>44463</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44463</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>45203</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>45796.84584490741</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>45775.59121527777</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>45014</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44818</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44580</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44806</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2474,14 +2474,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 34823-2022</t>
+          <t>A 59570-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44796</v>
+        <v>45991.93646990741</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2494,19 +2494,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>12</v>
+        <v>2.3</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -2521,52 +2521,56 @@
         <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Mörk kraterlav</t>
+          <t>Fjällvråk</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 34823-2022 artfynd.xlsx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 59570-2025 artfynd.xlsx", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 34823-2022 karta.png", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 59570-2025 karta.png", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 34823-2022 FSC-klagomål.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 59570-2025 FSC-klagomål.docx", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 34823-2022 FSC-klagomål mail.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 59570-2025 FSC-klagomål mail.docx", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 34823-2022 tillsynsbegäran.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 59570-2025 tillsynsbegäran.docx", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 34823-2022 tillsynsbegäran mail.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 59570-2025 tillsynsbegäran mail.docx", "A 59570-2025")</f>
+        <v/>
+      </c>
+      <c r="Z21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 59570-2025 prioriterade fågelarter.docx", "A 59570-2025")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 68883-2021</t>
+          <t>A 34823-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44526</v>
+        <v>44796</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2579,20 +2583,20 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
@@ -2603,55 +2607,55 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Mörk kraterlav</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 68883-2021 artfynd.xlsx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 34823-2022 artfynd.xlsx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 68883-2021 karta.png", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 34823-2022 karta.png", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 68883-2021 FSC-klagomål.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 34823-2022 FSC-klagomål.docx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 68883-2021 FSC-klagomål mail.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 34823-2022 FSC-klagomål mail.docx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 68883-2021 tillsynsbegäran.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 34823-2022 tillsynsbegäran.docx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 68883-2021 tillsynsbegäran mail.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 34823-2022 tillsynsbegäran mail.docx", "A 34823-2022")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 60369-2023</t>
+          <t>A 68883-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45259</v>
+        <v>44526</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2664,7 +2668,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -2698,45 +2702,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 60369-2023 artfynd.xlsx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 68883-2021 artfynd.xlsx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 60369-2023 karta.png", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 68883-2021 karta.png", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 60369-2023 FSC-klagomål.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 68883-2021 FSC-klagomål.docx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 60369-2023 FSC-klagomål mail.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 68883-2021 FSC-klagomål mail.docx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 60369-2023 tillsynsbegäran.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 68883-2021 tillsynsbegäran.docx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 60369-2023 tillsynsbegäran mail.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 68883-2021 tillsynsbegäran mail.docx", "A 68883-2021")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 59570-2025</t>
+          <t>A 60369-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45991.93646990741</v>
+        <v>45259</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2749,7 +2753,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -2758,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2773,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2783,35 +2787,31 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Fjällvråk</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 59570-2025 artfynd.xlsx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 60369-2023 artfynd.xlsx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 59570-2025 karta.png", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 60369-2023 karta.png", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 59570-2025 FSC-klagomål.docx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 60369-2023 FSC-klagomål.docx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 59570-2025 FSC-klagomål mail.docx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 60369-2023 FSC-klagomål mail.docx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 59570-2025 tillsynsbegäran.docx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 60369-2023 tillsynsbegäran.docx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 59570-2025 tillsynsbegäran mail.docx", "A 59570-2025")</f>
-        <v/>
-      </c>
-      <c r="Z24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 59570-2025 prioriterade fågelarter.docx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 60369-2023 tillsynsbegäran mail.docx", "A 60369-2023")</f>
         <v/>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
         <v>44369</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44526</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44300</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44825</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>44825</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>44460</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>44845.42407407407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>44845.42118055555</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>44476</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44694</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>44433.62136574074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>44476</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>44825</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44761</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44643</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>44806</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>45324.62291666667</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>45363.59789351852</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>44425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4055,14 +4055,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 24191-2025</t>
+          <t>A 8163-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45796.86738425926</v>
+        <v>45351.60337962963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4074,8 +4074,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4112,14 +4117,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 24193-2025</t>
+          <t>A 24191-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45796.89591435185</v>
+        <v>45796.86738425926</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4132,7 +4137,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4169,14 +4174,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 24115-2025</t>
+          <t>A 24193-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45796.61494212963</v>
+        <v>45796.89591435185</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4189,7 +4194,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4226,14 +4231,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 13046-2022</t>
+          <t>A 24115-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44643</v>
+        <v>45796.61494212963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4246,7 +4251,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4290,7 +4295,7 @@
         <v>45279</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4340,14 +4345,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 50306-2023</t>
+          <t>A 13046-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45209</v>
+        <v>44643</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4393,38 +4398,18 @@
         <v>0</v>
       </c>
       <c r="R51" s="2" t="inlineStr"/>
-      <c r="U51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/knärot/A 50306-2023 karta knärot.png", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="V51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 50306-2023 FSC-klagomål.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="W51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 50306-2023 FSC-klagomål mail.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="X51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 50306-2023 tillsynsbegäran.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="Y51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 50306-2023 tillsynsbegäran mail.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
     </row>
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 8163-2024</t>
+          <t>A 50306-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45351.60337962963</v>
+        <v>45209</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4436,13 +4421,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4475,18 +4455,38 @@
         <v>0</v>
       </c>
       <c r="R52" s="2" t="inlineStr"/>
+      <c r="U52">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/knärot/A 50306-2023 karta knärot.png", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="V52">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 50306-2023 FSC-klagomål.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="W52">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 50306-2023 FSC-klagomål mail.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="X52">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 50306-2023 tillsynsbegäran.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="Y52">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 50306-2023 tillsynsbegäran mail.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 22288-2023</t>
+          <t>A 27596-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45070</v>
+        <v>45813.52303240741</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.8</v>
+        <v>0.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4536,14 +4536,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 27596-2025</t>
+          <t>A 22288-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45813.52303240741</v>
+        <v>45070</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.1</v>
+        <v>2.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4600,7 +4600,7 @@
         <v>44407</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>45839.69278935185</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>45839.70034722222</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>45839</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4821,14 +4821,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 18512-2024</t>
+          <t>A 48606-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45425.59938657407</v>
+        <v>45936.47019675926</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4840,13 +4840,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>0.7</v>
+        <v>6.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4883,14 +4878,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 1184-2024</t>
+          <t>A 18512-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45302.57663194444</v>
+        <v>45425.59938657407</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4902,8 +4897,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4947,7 +4947,7 @@
         <v>45740.6340162037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4997,14 +4997,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 17020-2022</t>
+          <t>A 1184-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44676</v>
+        <v>45302.57663194444</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5016,13 +5016,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>12.4</v>
+        <v>3.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5059,14 +5054,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 52770-2024</t>
+          <t>A 17020-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45610.52414351852</v>
+        <v>44676</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5078,8 +5073,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>2.3</v>
+        <v>12.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5123,7 +5123,7 @@
         <v>45887.57966435186</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5173,14 +5173,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 48606-2025</t>
+          <t>A 52770-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45936.47019675926</v>
+        <v>45610.52414351852</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>6.9</v>
+        <v>2.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5237,7 +5237,7 @@
         <v>45425.61965277778</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5292,14 +5292,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 1703-2023</t>
+          <t>A 59565-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44938.44412037037</v>
+        <v>45991.88413194445</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5349,14 +5349,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 18490-2025</t>
+          <t>A 59569-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45763</v>
+        <v>45991.92870370371</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5406,14 +5406,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 18548-2024</t>
+          <t>A 59568-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45425.64708333334</v>
+        <v>45991.90737268519</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5425,13 +5425,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>7.3</v>
+        <v>5.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5468,14 +5463,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 20839-2024</t>
+          <t>A 1703-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45439.39953703704</v>
+        <v>44938.44412037037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5488,7 +5483,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>8.4</v>
+        <v>1.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5525,14 +5520,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 5474-2024</t>
+          <t>A 18490-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45333.51131944444</v>
+        <v>45763</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5544,13 +5539,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5587,14 +5577,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 23666-2024</t>
+          <t>A 18548-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45454.57909722222</v>
+        <v>45425.64708333334</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5606,8 +5596,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>0.8</v>
+        <v>7.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5644,14 +5639,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 68896-2021</t>
+          <t>A 20839-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44526</v>
+        <v>45439.39953703704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5664,7 +5659,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.4</v>
+        <v>8.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5701,14 +5696,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 6648-2023</t>
+          <t>A 5474-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44966</v>
+        <v>45333.51131944444</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5720,8 +5715,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5758,14 +5758,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 33792-2023</t>
+          <t>A 23666-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45121</v>
+        <v>45454.57909722222</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5815,14 +5815,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 14900-2025</t>
+          <t>A 68896-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45743.48729166666</v>
+        <v>44526</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5872,14 +5872,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 20527-2025</t>
+          <t>A 6648-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45775.60663194444</v>
+        <v>44966</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5929,14 +5929,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 64568-2023</t>
+          <t>A 33792-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45281.43164351852</v>
+        <v>45121</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5986,14 +5986,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 1180-2024</t>
+          <t>A 14900-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45302</v>
+        <v>45743.48729166666</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6043,14 +6043,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 24873-2023</t>
+          <t>A 20527-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45085</v>
+        <v>45775.60663194444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6100,14 +6100,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 59565-2025</t>
+          <t>A 64568-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45991.88413194445</v>
+        <v>45281.43164351852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6157,14 +6157,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 59569-2025</t>
+          <t>A 1180-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45991.92870370371</v>
+        <v>45302</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6214,14 +6214,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 58599-2023</t>
+          <t>A 24873-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45251.47721064815</v>
+        <v>45085</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6271,14 +6271,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 59568-2025</t>
+          <t>A 58599-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45991.90737268519</v>
+        <v>45251.47721064815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>5.8</v>
+        <v>3.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6335,7 +6335,7 @@
         <v>45610.59637731482</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>45351.43737268518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>45048</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>45089</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>45679.32142361111</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>45418.63149305555</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>44526</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>45763.34135416667</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>45302.58045138889</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>45610.53207175926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>45779.54644675926</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>

--- a/Översikt HANINGE.xlsx
+++ b/Översikt HANINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         <v>45679</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45258</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>44525</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>44525</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>45679</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>45991.89199074074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1386,14 +1386,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 59567-2025</t>
+          <t>A 3155-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45991.89914351852</v>
+        <v>45679.31876157408</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1406,19 +1406,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>6.6</v>
+        <v>17.7</v>
       </c>
       <c r="H9" t="n">
         <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1430,15 +1430,114 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>11</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Granticka
+Kandelabersvamp
+Spillkråka
+Vedtrappmossa
+Brandticka
+Grön sköldmossa
+Grönpyrola
+Mörk husmossa
+Rödgul trumpetsvamp
+Sårläka
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 3155-2025 artfynd.xlsx", "A 3155-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 3155-2025 karta.png", "A 3155-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 3155-2025 FSC-klagomål.docx", "A 3155-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 3155-2025 FSC-klagomål mail.docx", "A 3155-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 3155-2025 tillsynsbegäran.docx", "A 3155-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 3155-2025 tillsynsbegäran mail.docx", "A 3155-2025")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 3155-2025 prioriterade fågelarter.docx", "A 3155-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 59567-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45991.89914351852</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>6</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>11</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Spillkråka
@@ -1453,135 +1552,36 @@
 Mindre märgborre</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 59567-2025 artfynd.xlsx", "A 59567-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 59567-2025 karta.png", "A 59567-2025")</f>
         <v/>
       </c>
-      <c r="U9">
+      <c r="U10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/knärot/A 59567-2025 karta knärot.png", "A 59567-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 59567-2025 FSC-klagomål.docx", "A 59567-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 59567-2025 FSC-klagomål mail.docx", "A 59567-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 59567-2025 tillsynsbegäran.docx", "A 59567-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 59567-2025 tillsynsbegäran mail.docx", "A 59567-2025")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 59567-2025 prioriterade fågelarter.docx", "A 59567-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 3155-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45679.31876157408</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>4</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>11</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Granticka
-Kandelabersvamp
-Spillkråka
-Vedtrappmossa
-Brandticka
-Grön sköldmossa
-Grönpyrola
-Mörk husmossa
-Rödgul trumpetsvamp
-Sårläka
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 3155-2025 artfynd.xlsx", "A 3155-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 3155-2025 karta.png", "A 3155-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 3155-2025 FSC-klagomål.docx", "A 3155-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 3155-2025 FSC-klagomål mail.docx", "A 3155-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 3155-2025 tillsynsbegäran.docx", "A 3155-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 3155-2025 tillsynsbegäran mail.docx", "A 3155-2025")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 3155-2025 prioriterade fågelarter.docx", "A 3155-2025")</f>
         <v/>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
         <v>44643</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>44463</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44463</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>45203</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>45796.84584490741</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>45775.59121527777</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>45014</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44818</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44580</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44806</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>45991.93646990741</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>44796</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>44526</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>45259</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>44369</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44526</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44300</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44825</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>44825</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>44460</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>44845.42407407407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>44845.42118055555</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>44476</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44694</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>44433.62136574074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>44476</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>44825</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3703,14 +3703,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 30419-2022</t>
+          <t>A 13135-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44761</v>
+        <v>44643</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>7.4</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3760,14 +3760,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 13135-2022</t>
+          <t>A 30419-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44643</v>
+        <v>44761</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>7.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3824,7 +3824,7 @@
         <v>44806</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>45324.62291666667</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>45363.59789351852</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3998,14 +3998,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 41809-2021</t>
+          <t>A 8163-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44425</v>
+        <v>45351.60337962963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4017,8 +4017,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4055,14 +4060,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 8163-2024</t>
+          <t>A 24191-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45351.60337962963</v>
+        <v>45796.86738425926</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4074,13 +4079,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4117,14 +4117,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 24191-2025</t>
+          <t>A 24193-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45796.86738425926</v>
+        <v>45796.89591435185</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.8</v>
+        <v>0.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4174,14 +4174,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 24193-2025</t>
+          <t>A 24115-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45796.89591435185</v>
+        <v>45796.61494212963</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4231,14 +4231,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 24115-2025</t>
+          <t>A 41809-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45796.61494212963</v>
+        <v>44425</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>45279</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         <v>44643</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>45209</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>45813.52303240741</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>45070</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         <v>44407</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>45839.69278935185</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>45839.70034722222</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4764,14 +4764,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 32948-2025</t>
+          <t>A 48606-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45839</v>
+        <v>45936.47019675926</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.1</v>
+        <v>6.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4821,14 +4821,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 48606-2025</t>
+          <t>A 32948-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45936.47019675926</v>
+        <v>45839</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>6.9</v>
+        <v>1.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4885,7 +4885,7 @@
         <v>45425.59938657407</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>45740.6340162037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>45302.57663194444</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>44676</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5116,14 +5116,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 38880-2025</t>
+          <t>A 52770-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45887.57966435186</v>
+        <v>45610.52414351852</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5173,14 +5173,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 52770-2024</t>
+          <t>A 59565-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45610.52414351852</v>
+        <v>45991.88413194445</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5230,14 +5230,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 18528-2024</t>
+          <t>A 59569-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45425.61965277778</v>
+        <v>45991.92870370371</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5249,13 +5249,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5292,14 +5287,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 59565-2025</t>
+          <t>A 59568-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45991.88413194445</v>
+        <v>45991.90737268519</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5312,7 +5307,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.2</v>
+        <v>5.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5349,14 +5344,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 59569-2025</t>
+          <t>A 38880-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45991.92870370371</v>
+        <v>45887.57966435186</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5369,7 +5364,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5406,14 +5401,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 59568-2025</t>
+          <t>A 18528-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45991.90737268519</v>
+        <v>45425.61965277778</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5425,8 +5420,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>5.8</v>
+        <v>0.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5470,7 +5470,7 @@
         <v>44938.44412037037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>45763</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>45425.64708333334</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>45439.39953703704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>45333.51131944444</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>45454.57909722222</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>44526</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>44966</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>45121</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>45743.48729166666</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>45775.60663194444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>45281.43164351852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>45302</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>45085</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>45251.47721064815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>45610.59637731482</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>45351.43737268518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>45048</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>45089</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>45679.32142361111</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>45418.63149305555</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>44526</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>45763.34135416667</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>45302.58045138889</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>45610.53207175926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>45779.54644675926</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>

--- a/Översikt HANINGE.xlsx
+++ b/Översikt HANINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         <v>45679</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45258</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>44525</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1063,14 +1063,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 67868-2021</t>
+          <t>A 3152-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44525</v>
+        <v>45679</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1083,19 +1083,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>8.800000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J6" t="n">
         <v>6</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1107,15 +1107,128 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
         <v>21</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Vågticka
+Blå taggsvamp
+Grantaggsvamp
+Hapalopilus aurantiacus
+Talltita
+Ullticka
+Vedtrappmossa
+Blomkålssvamp
+Blåmossa
+Grön sköldmossa
+Grönpyrola
+Mindre märgborre
+Plattlummer
+Rödgul trumpetsvamp
+Spindelblomster
+Vedticka
+Vanlig padda
+Fläcknycklar
+Mattlummer
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 3152-2025 artfynd.xlsx", "A 3152-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 3152-2025 karta.png", "A 3152-2025")</f>
+        <v/>
+      </c>
+      <c r="U6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/knärot/A 3152-2025 karta knärot.png", "A 3152-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 3152-2025 FSC-klagomål.docx", "A 3152-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 3152-2025 FSC-klagomål mail.docx", "A 3152-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 3152-2025 tillsynsbegäran.docx", "A 3152-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 3152-2025 tillsynsbegäran mail.docx", "A 3152-2025")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 3152-2025 prioriterade fågelarter.docx", "A 3152-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 67868-2021</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>44525</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>13</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>21</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Gränsticka
 Grönhjon
@@ -1140,145 +1253,32 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 67868-2021 artfynd.xlsx", "A 67868-2021")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 67868-2021 karta.png", "A 67868-2021")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 67868-2021 FSC-klagomål.docx", "A 67868-2021")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 67868-2021 FSC-klagomål mail.docx", "A 67868-2021")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 67868-2021 tillsynsbegäran.docx", "A 67868-2021")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 67868-2021 tillsynsbegäran mail.docx", "A 67868-2021")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 67868-2021 prioriterade fågelarter.docx", "A 67868-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 3152-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45679</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>8</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>21</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Vågticka
-Blå taggsvamp
-Grantaggsvamp
-Hapalopilus aurantiacus
-Talltita
-Ullticka
-Vedtrappmossa
-Blomkålssvamp
-Blåmossa
-Grön sköldmossa
-Grönpyrola
-Mindre märgborre
-Plattlummer
-Rödgul trumpetsvamp
-Spindelblomster
-Vedticka
-Vanlig padda
-Fläcknycklar
-Mattlummer
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 3152-2025 artfynd.xlsx", "A 3152-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 3152-2025 karta.png", "A 3152-2025")</f>
-        <v/>
-      </c>
-      <c r="U7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/knärot/A 3152-2025 karta knärot.png", "A 3152-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 3152-2025 FSC-klagomål.docx", "A 3152-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 3152-2025 FSC-klagomål mail.docx", "A 3152-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 3152-2025 tillsynsbegäran.docx", "A 3152-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 3152-2025 tillsynsbegäran mail.docx", "A 3152-2025")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 3152-2025 prioriterade fågelarter.docx", "A 3152-2025")</f>
         <v/>
       </c>
     </row>
@@ -1292,7 +1292,7 @@
         <v>45991.89199074074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         <v>45679.31876157408</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         <v>45991.89914351852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44643</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>44463</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44463</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>45203</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>45796.84584490741</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2042,14 +2042,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 20507-2025</t>
+          <t>A 14729-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45775.59121527777</v>
+        <v>45014</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2062,16 +2062,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -2096,118 +2096,118 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
+          <t>Ullticka
+Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 14729-2023 artfynd.xlsx", "A 14729-2023")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 14729-2023 karta.png", "A 14729-2023")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 14729-2023 FSC-klagomål.docx", "A 14729-2023")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 14729-2023 FSC-klagomål mail.docx", "A 14729-2023")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 14729-2023 tillsynsbegäran.docx", "A 14729-2023")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 14729-2023 tillsynsbegäran mail.docx", "A 14729-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 20507-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45775.59121527777</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
           <t>Brandticka
 Revlummer</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 20507-2025 artfynd.xlsx", "A 20507-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 20507-2025 karta.png", "A 20507-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 20507-2025 FSC-klagomål.docx", "A 20507-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 20507-2025 FSC-klagomål mail.docx", "A 20507-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 20507-2025 tillsynsbegäran.docx", "A 20507-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 20507-2025 tillsynsbegäran mail.docx", "A 20507-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 14729-2023</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45014</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Ullticka
-Mindre märgborre</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 14729-2023 artfynd.xlsx", "A 14729-2023")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 14729-2023 karta.png", "A 14729-2023")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 14729-2023 FSC-klagomål.docx", "A 14729-2023")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 14729-2023 FSC-klagomål mail.docx", "A 14729-2023")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 14729-2023 tillsynsbegäran.docx", "A 14729-2023")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 14729-2023 tillsynsbegäran mail.docx", "A 14729-2023")</f>
         <v/>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
         <v>44818</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44580</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44806</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2474,14 +2474,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 59570-2025</t>
+          <t>A 60369-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45991.93646990741</v>
+        <v>45259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2528,49 +2528,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Fjällvråk</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 59570-2025 artfynd.xlsx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 60369-2023 artfynd.xlsx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 59570-2025 karta.png", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 60369-2023 karta.png", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 59570-2025 FSC-klagomål.docx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 60369-2023 FSC-klagomål.docx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 59570-2025 FSC-klagomål mail.docx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 60369-2023 FSC-klagomål mail.docx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 59570-2025 tillsynsbegäran.docx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 60369-2023 tillsynsbegäran.docx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 59570-2025 tillsynsbegäran mail.docx", "A 59570-2025")</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 59570-2025 prioriterade fågelarter.docx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 60369-2023 tillsynsbegäran mail.docx", "A 60369-2023")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 34823-2022</t>
+          <t>A 59570-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44796</v>
+        <v>45991.93646990741</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2583,19 +2579,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>12</v>
+        <v>2.3</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2610,52 +2606,56 @@
         <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Mörk kraterlav</t>
+          <t>Fjällvråk</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 34823-2022 artfynd.xlsx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 59570-2025 artfynd.xlsx", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 34823-2022 karta.png", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 59570-2025 karta.png", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 34823-2022 FSC-klagomål.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 59570-2025 FSC-klagomål.docx", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 34823-2022 FSC-klagomål mail.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 59570-2025 FSC-klagomål mail.docx", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 34823-2022 tillsynsbegäran.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 59570-2025 tillsynsbegäran.docx", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 34823-2022 tillsynsbegäran mail.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 59570-2025 tillsynsbegäran mail.docx", "A 59570-2025")</f>
+        <v/>
+      </c>
+      <c r="Z22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 59570-2025 prioriterade fågelarter.docx", "A 59570-2025")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 68883-2021</t>
+          <t>A 34823-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44526</v>
+        <v>44796</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2668,20 +2668,20 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>1</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
@@ -2692,55 +2692,55 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Mörk kraterlav</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 68883-2021 artfynd.xlsx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 34823-2022 artfynd.xlsx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 68883-2021 karta.png", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 34823-2022 karta.png", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 68883-2021 FSC-klagomål.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 34823-2022 FSC-klagomål.docx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 68883-2021 FSC-klagomål mail.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 34823-2022 FSC-klagomål mail.docx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 68883-2021 tillsynsbegäran.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 34823-2022 tillsynsbegäran.docx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 68883-2021 tillsynsbegäran mail.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 34823-2022 tillsynsbegäran mail.docx", "A 34823-2022")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 60369-2023</t>
+          <t>A 68883-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45259</v>
+        <v>44526</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -2787,31 +2787,31 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 60369-2023 artfynd.xlsx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 68883-2021 artfynd.xlsx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 60369-2023 karta.png", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 68883-2021 karta.png", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 60369-2023 FSC-klagomål.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 68883-2021 FSC-klagomål.docx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 60369-2023 FSC-klagomål mail.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 68883-2021 FSC-klagomål mail.docx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 60369-2023 tillsynsbegäran.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 68883-2021 tillsynsbegäran.docx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 60369-2023 tillsynsbegäran mail.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 68883-2021 tillsynsbegäran mail.docx", "A 68883-2021")</f>
         <v/>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
         <v>44369</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44526</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44300</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44825</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>44825</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>44460</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>44845.42407407407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>44845.42118055555</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>44476</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44694</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>44433.62136574074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>44476</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>44825</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44643</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44761</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>44806</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3879,14 +3879,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 4297-2024</t>
+          <t>A 5474-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45324.62291666667</v>
+        <v>45333.51131944444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3941,14 +3941,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 9946-2024</t>
+          <t>A 3156-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45363.59789351852</v>
+        <v>45679.32142361111</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3998,14 +3998,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 8163-2024</t>
+          <t>A 14900-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45351.60337962963</v>
+        <v>45743.48729166666</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4017,13 +4017,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4060,14 +4055,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 24191-2025</t>
+          <t>A 48606-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45796.86738425926</v>
+        <v>45936.47019675926</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4080,7 +4075,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.8</v>
+        <v>6.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4117,14 +4112,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 24193-2025</t>
+          <t>A 21231-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45796.89591435185</v>
+        <v>45779.54644675926</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4137,7 +4132,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.4</v>
+        <v>4.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4174,14 +4169,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 24115-2025</t>
+          <t>A 38880-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45796.61494212963</v>
+        <v>45887.57966435186</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4194,7 +4189,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4231,14 +4226,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 41809-2021</t>
+          <t>A 8163-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44425</v>
+        <v>45351.60337962963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4250,8 +4245,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4288,14 +4288,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 64075-2023</t>
+          <t>A 18491-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45279</v>
+        <v>45763.34135416667</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4345,14 +4345,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 13046-2022</t>
+          <t>A 24115-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44643</v>
+        <v>45796.61494212963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4402,14 +4402,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 50306-2023</t>
+          <t>A 24191-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45209</v>
+        <v>45796.86738425926</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4455,38 +4455,18 @@
         <v>0</v>
       </c>
       <c r="R52" s="2" t="inlineStr"/>
-      <c r="U52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/knärot/A 50306-2023 karta knärot.png", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="V52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 50306-2023 FSC-klagomål.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="W52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 50306-2023 FSC-klagomål mail.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="X52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 50306-2023 tillsynsbegäran.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="Y52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 50306-2023 tillsynsbegäran mail.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
     </row>
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 27596-2025</t>
+          <t>A 24193-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45813.52303240741</v>
+        <v>45796.89591435185</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4499,7 +4479,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4536,14 +4516,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 22288-2023</t>
+          <t>A 68896-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45070</v>
+        <v>44526</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4556,7 +4536,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4593,14 +4573,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 38595-2021</t>
+          <t>A 64075-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44407</v>
+        <v>45279</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4613,7 +4593,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4650,14 +4630,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 32952-2025</t>
+          <t>A 27596-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45839.69278935185</v>
+        <v>45813.52303240741</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4670,7 +4650,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.3</v>
+        <v>0.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4707,14 +4687,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 32954-2025</t>
+          <t>A 6648-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45839.70034722222</v>
+        <v>44966</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4727,7 +4707,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4764,14 +4744,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 48606-2025</t>
+          <t>A 32952-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45936.47019675926</v>
+        <v>45839.69278935185</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4784,7 +4764,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>6.9</v>
+        <v>1.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4821,14 +4801,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 32948-2025</t>
+          <t>A 32954-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45839</v>
+        <v>45839.70034722222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4841,7 +4821,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4878,14 +4858,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 18512-2024</t>
+          <t>A 58599-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45425.59938657407</v>
+        <v>45251.47721064815</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4897,13 +4877,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4940,14 +4915,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 14264-2025</t>
+          <t>A 59569-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45740.6340162037</v>
+        <v>45991.92870370371</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4960,7 +4935,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4997,14 +4972,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 1184-2024</t>
+          <t>A 59565-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45302.57663194444</v>
+        <v>45991.88413194445</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5017,7 +4992,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5054,14 +5029,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 17020-2022</t>
+          <t>A 32948-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44676</v>
+        <v>45839</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5073,13 +5048,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>12.4</v>
+        <v>1.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5116,14 +5086,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 52770-2024</t>
+          <t>A 59568-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45610.52414351852</v>
+        <v>45991.90737268519</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5136,7 +5106,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.3</v>
+        <v>5.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5173,14 +5143,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 59565-2025</t>
+          <t>A 18528-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45991.88413194445</v>
+        <v>45425.61965277778</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5192,8 +5162,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5230,14 +5205,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 59569-2025</t>
+          <t>A 14264-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45991.92870370371</v>
+        <v>45740.6340162037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5250,7 +5225,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5287,14 +5262,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 59568-2025</t>
+          <t>A 17020-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45991.90737268519</v>
+        <v>44676</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5306,8 +5281,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>5.8</v>
+        <v>12.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5344,14 +5324,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 38880-2025</t>
+          <t>A 38595-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45887.57966435186</v>
+        <v>44407</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5364,7 +5344,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5401,14 +5381,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 18528-2024</t>
+          <t>A 50306-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45425.61965277778</v>
+        <v>45209</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5420,13 +5400,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5459,18 +5434,38 @@
         <v>0</v>
       </c>
       <c r="R69" s="2" t="inlineStr"/>
+      <c r="U69">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/knärot/A 50306-2023 karta knärot.png", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="V69">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 50306-2023 FSC-klagomål.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="W69">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 50306-2023 FSC-klagomål mail.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="X69">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 50306-2023 tillsynsbegäran.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="Y69">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 50306-2023 tillsynsbegäran mail.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 1703-2023</t>
+          <t>A 22288-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44938.44412037037</v>
+        <v>45070</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5483,7 +5478,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5520,14 +5515,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 18490-2025</t>
+          <t>A 33792-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45763</v>
+        <v>45121</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5540,7 +5535,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5577,14 +5572,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 18548-2024</t>
+          <t>A 20839-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45425.64708333334</v>
+        <v>45439.39953703704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5596,13 +5591,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>7.3</v>
+        <v>8.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5639,14 +5629,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 20839-2024</t>
+          <t>A 18512-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45439.39953703704</v>
+        <v>45425.59938657407</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5658,8 +5648,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>8.4</v>
+        <v>0.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5696,14 +5691,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 5474-2024</t>
+          <t>A 4297-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45333.51131944444</v>
+        <v>45324.62291666667</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5721,7 +5716,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5758,14 +5753,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 23666-2024</t>
+          <t>A 1703-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45454.57909722222</v>
+        <v>44938.44412037037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5778,7 +5773,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5815,14 +5810,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 68896-2021</t>
+          <t>A 17765-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44526</v>
+        <v>45418.63149305555</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5835,7 +5830,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5872,14 +5867,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 6648-2023</t>
+          <t>A 25584-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44966</v>
+        <v>45089</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5892,7 +5887,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5929,14 +5924,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 33792-2023</t>
+          <t>A 20527-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45121</v>
+        <v>45775.60663194444</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5949,7 +5944,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5986,14 +5981,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 14900-2025</t>
+          <t>A 1187-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45743.48729166666</v>
+        <v>45302.58045138889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6006,7 +6001,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6043,14 +6038,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 20527-2025</t>
+          <t>A 1180-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45775.60663194444</v>
+        <v>45302</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6063,7 +6058,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6100,14 +6095,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 64568-2023</t>
+          <t>A 1184-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45281.43164351852</v>
+        <v>45302.57663194444</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6120,7 +6115,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6157,14 +6152,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 1180-2024</t>
+          <t>A 19220-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45302</v>
+        <v>45048</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6177,7 +6172,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6214,14 +6209,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 24873-2023</t>
+          <t>A 18490-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45085</v>
+        <v>45763</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6234,7 +6229,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6271,14 +6266,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 58599-2023</t>
+          <t>A 64568-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45251.47721064815</v>
+        <v>45281.43164351852</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6291,7 +6286,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6328,14 +6323,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 52836-2024</t>
+          <t>A 18548-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45610.59637731482</v>
+        <v>45425.64708333334</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6347,8 +6342,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>7.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6385,14 +6385,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 8078-2024</t>
+          <t>A 41809-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45351.43737268518</v>
+        <v>44425</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6404,13 +6404,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6447,14 +6442,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 19220-2023</t>
+          <t>A 68894-2021</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45048</v>
+        <v>44526</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6467,7 +6462,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6504,14 +6499,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 25584-2023</t>
+          <t>A 13046-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45089</v>
+        <v>44643</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6524,7 +6519,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.8</v>
+        <v>2.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6561,14 +6556,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 3156-2025</t>
+          <t>A 8078-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45679.32142361111</v>
+        <v>45351.43737268518</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6580,8 +6575,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6618,14 +6618,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 17765-2024</t>
+          <t>A 24873-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45418.63149305555</v>
+        <v>45085</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6675,14 +6675,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 68894-2021</t>
+          <t>A 52773-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44526</v>
+        <v>45610.53207175926</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6732,14 +6732,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 18491-2025</t>
+          <t>A 23666-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45763.34135416667</v>
+        <v>45454.57909722222</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6789,14 +6789,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 1187-2024</t>
+          <t>A 9946-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45302.58045138889</v>
+        <v>45363.59789351852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6846,14 +6846,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 52773-2024</t>
+          <t>A 52770-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45610.53207175926</v>
+        <v>45610.52414351852</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6903,14 +6903,14 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 21231-2025</t>
+          <t>A 52836-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45779.54644675926</v>
+        <v>45610.59637731482</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>

--- a/Översikt HANINGE.xlsx
+++ b/Översikt HANINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         <v>45679</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45258</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>44525</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1063,14 +1063,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 3152-2025</t>
+          <t>A 67868-2021</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45679</v>
+        <v>44525</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1083,19 +1083,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J6" t="n">
         <v>6</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1107,15 +1107,124 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>21</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Gränsticka
+Grönhjon
+Spillkråka
+Spinnfingersvamp
+Tallticka
+Vedskivlav
+Björksplintborre
+Blåmossa
+Bronshjon
+Flagellkvastmossa
+Granbarkgnagare
+Grön sköldmossa
+Kornknutmossa
+Mindre märgborre
+Platt fjädermossa
+Scharlakansvårskål agg.
+Stubbspretmossa
+Sårläka
+Vågbandad barkbock
+Blåsippa
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 67868-2021 artfynd.xlsx", "A 67868-2021")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 67868-2021 karta.png", "A 67868-2021")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 67868-2021 FSC-klagomål.docx", "A 67868-2021")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 67868-2021 FSC-klagomål mail.docx", "A 67868-2021")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 67868-2021 tillsynsbegäran.docx", "A 67868-2021")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 67868-2021 tillsynsbegäran mail.docx", "A 67868-2021")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 67868-2021 prioriterade fågelarter.docx", "A 67868-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 3152-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45679</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>8</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>21</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Vågticka
@@ -1140,145 +1249,36 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 3152-2025 artfynd.xlsx", "A 3152-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 3152-2025 karta.png", "A 3152-2025")</f>
         <v/>
       </c>
-      <c r="U6">
+      <c r="U7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/knärot/A 3152-2025 karta knärot.png", "A 3152-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 3152-2025 FSC-klagomål.docx", "A 3152-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 3152-2025 FSC-klagomål mail.docx", "A 3152-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 3152-2025 tillsynsbegäran.docx", "A 3152-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 3152-2025 tillsynsbegäran mail.docx", "A 3152-2025")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 3152-2025 prioriterade fågelarter.docx", "A 3152-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 67868-2021</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>44525</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-      <c r="I7" t="n">
-        <v>13</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>6</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>21</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Gränsticka
-Grönhjon
-Spillkråka
-Spinnfingersvamp
-Tallticka
-Vedskivlav
-Björksplintborre
-Blåmossa
-Bronshjon
-Flagellkvastmossa
-Granbarkgnagare
-Grön sköldmossa
-Kornknutmossa
-Mindre märgborre
-Platt fjädermossa
-Scharlakansvårskål agg.
-Stubbspretmossa
-Sårläka
-Vågbandad barkbock
-Blåsippa
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 67868-2021 artfynd.xlsx", "A 67868-2021")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 67868-2021 karta.png", "A 67868-2021")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 67868-2021 FSC-klagomål.docx", "A 67868-2021")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 67868-2021 FSC-klagomål mail.docx", "A 67868-2021")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 67868-2021 tillsynsbegäran.docx", "A 67868-2021")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 67868-2021 tillsynsbegäran mail.docx", "A 67868-2021")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 67868-2021 prioriterade fågelarter.docx", "A 67868-2021")</f>
         <v/>
       </c>
     </row>
@@ -1292,7 +1292,7 @@
         <v>45991.89199074074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         <v>45679.31876157408</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         <v>45991.89914351852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44643</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>44463</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44463</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>45203</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1956,14 +1956,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 24189-2025</t>
+          <t>A 20507-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45796.84584490741</v>
+        <v>45775.59121527777</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>6.1</v>
+        <v>1.2</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -2010,204 +2010,204 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
+          <t>Brandticka
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 20507-2025 artfynd.xlsx", "A 20507-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 20507-2025 karta.png", "A 20507-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 20507-2025 FSC-klagomål.docx", "A 20507-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 20507-2025 FSC-klagomål mail.docx", "A 20507-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 20507-2025 tillsynsbegäran.docx", "A 20507-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 20507-2025 tillsynsbegäran mail.docx", "A 20507-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 14729-2023</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45014</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Ullticka
+Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 14729-2023 artfynd.xlsx", "A 14729-2023")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 14729-2023 karta.png", "A 14729-2023")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 14729-2023 FSC-klagomål.docx", "A 14729-2023")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 14729-2023 FSC-klagomål mail.docx", "A 14729-2023")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 14729-2023 tillsynsbegäran.docx", "A 14729-2023")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 14729-2023 tillsynsbegäran mail.docx", "A 14729-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 24189-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45796.84584490741</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
           <t>Myskmadra
 Blåsippa</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 24189-2025 artfynd.xlsx", "A 24189-2025")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 24189-2025 karta.png", "A 24189-2025")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 24189-2025 FSC-klagomål.docx", "A 24189-2025")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 24189-2025 FSC-klagomål mail.docx", "A 24189-2025")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 24189-2025 tillsynsbegäran.docx", "A 24189-2025")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 24189-2025 tillsynsbegäran mail.docx", "A 24189-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 14729-2023</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45014</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Ullticka
-Mindre märgborre</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 14729-2023 artfynd.xlsx", "A 14729-2023")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 14729-2023 karta.png", "A 14729-2023")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 14729-2023 FSC-klagomål.docx", "A 14729-2023")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 14729-2023 FSC-klagomål mail.docx", "A 14729-2023")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 14729-2023 tillsynsbegäran.docx", "A 14729-2023")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 14729-2023 tillsynsbegäran mail.docx", "A 14729-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 20507-2025</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45775.59121527777</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Brandticka
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 20507-2025 artfynd.xlsx", "A 20507-2025")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 20507-2025 karta.png", "A 20507-2025")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 20507-2025 FSC-klagomål.docx", "A 20507-2025")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 20507-2025 FSC-klagomål mail.docx", "A 20507-2025")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 20507-2025 tillsynsbegäran.docx", "A 20507-2025")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 20507-2025 tillsynsbegäran mail.docx", "A 20507-2025")</f>
         <v/>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
         <v>44818</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44580</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44806</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2474,14 +2474,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 60369-2023</t>
+          <t>A 34823-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45259</v>
+        <v>44796</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2494,20 +2494,20 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.9</v>
+        <v>12</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
@@ -2518,55 +2518,55 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Mörk kraterlav</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 60369-2023 artfynd.xlsx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 34823-2022 artfynd.xlsx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 60369-2023 karta.png", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 34823-2022 karta.png", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 60369-2023 FSC-klagomål.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 34823-2022 FSC-klagomål.docx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 60369-2023 FSC-klagomål mail.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 34823-2022 FSC-klagomål mail.docx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 60369-2023 tillsynsbegäran.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 34823-2022 tillsynsbegäran.docx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 60369-2023 tillsynsbegäran mail.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 34823-2022 tillsynsbegäran mail.docx", "A 34823-2022")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 59570-2025</t>
+          <t>A 68883-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45991.93646990741</v>
+        <v>44526</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2613,49 +2613,45 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Fjällvråk</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 59570-2025 artfynd.xlsx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 68883-2021 artfynd.xlsx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 59570-2025 karta.png", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 68883-2021 karta.png", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 59570-2025 FSC-klagomål.docx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 68883-2021 FSC-klagomål.docx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 59570-2025 FSC-klagomål mail.docx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 68883-2021 FSC-klagomål mail.docx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 59570-2025 tillsynsbegäran.docx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 68883-2021 tillsynsbegäran.docx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 59570-2025 tillsynsbegäran mail.docx", "A 59570-2025")</f>
-        <v/>
-      </c>
-      <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 59570-2025 prioriterade fågelarter.docx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 68883-2021 tillsynsbegäran mail.docx", "A 68883-2021")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 34823-2022</t>
+          <t>A 59570-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44796</v>
+        <v>45991.93646990741</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2668,19 +2664,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>12</v>
+        <v>2.3</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2695,52 +2691,56 @@
         <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Mörk kraterlav</t>
+          <t>Fjällvråk</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 34823-2022 artfynd.xlsx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 59570-2025 artfynd.xlsx", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 34823-2022 karta.png", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 59570-2025 karta.png", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 34823-2022 FSC-klagomål.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 59570-2025 FSC-klagomål.docx", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 34823-2022 FSC-klagomål mail.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 59570-2025 FSC-klagomål mail.docx", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 34823-2022 tillsynsbegäran.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 59570-2025 tillsynsbegäran.docx", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 34823-2022 tillsynsbegäran mail.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 59570-2025 tillsynsbegäran mail.docx", "A 59570-2025")</f>
+        <v/>
+      </c>
+      <c r="Z23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 59570-2025 prioriterade fågelarter.docx", "A 59570-2025")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 68883-2021</t>
+          <t>A 60369-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44526</v>
+        <v>45259</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -2787,31 +2787,31 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 68883-2021 artfynd.xlsx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 60369-2023 artfynd.xlsx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 68883-2021 karta.png", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 60369-2023 karta.png", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 68883-2021 FSC-klagomål.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 60369-2023 FSC-klagomål.docx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 68883-2021 FSC-klagomål mail.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 60369-2023 FSC-klagomål mail.docx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 68883-2021 tillsynsbegäran.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 60369-2023 tillsynsbegäran.docx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 68883-2021 tillsynsbegäran mail.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 60369-2023 tillsynsbegäran mail.docx", "A 60369-2023")</f>
         <v/>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
         <v>44369</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44526</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44300</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44825</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>44825</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>44460</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>44845.42407407407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>44845.42118055555</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>44476</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44694</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>44433.62136574074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>44476</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>44825</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44643</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44761</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>44806</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3879,14 +3879,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 5474-2024</t>
+          <t>A 9946-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45333.51131944444</v>
+        <v>45363.59789351852</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3898,13 +3898,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3941,14 +3936,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 3156-2025</t>
+          <t>A 4297-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45679.32142361111</v>
+        <v>45324.62291666667</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3960,8 +3955,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>3.3</v>
+        <v>0.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3998,14 +3998,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 14900-2025</t>
+          <t>A 41809-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45743.48729166666</v>
+        <v>44425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4055,14 +4055,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 48606-2025</t>
+          <t>A 13046-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45936.47019675926</v>
+        <v>44643</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>6.9</v>
+        <v>2.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4112,14 +4112,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 21231-2025</t>
+          <t>A 50306-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45779.54644675926</v>
+        <v>45209</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4.3</v>
+        <v>2.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4165,18 +4165,38 @@
         <v>0</v>
       </c>
       <c r="R47" s="2" t="inlineStr"/>
+      <c r="U47">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/knärot/A 50306-2023 karta knärot.png", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="V47">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 50306-2023 FSC-klagomål.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="W47">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 50306-2023 FSC-klagomål mail.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="X47">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 50306-2023 tillsynsbegäran.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="Y47">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 50306-2023 tillsynsbegäran mail.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 38880-2025</t>
+          <t>A 22288-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45887.57966435186</v>
+        <v>45070</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4189,7 +4209,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4226,14 +4246,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 8163-2024</t>
+          <t>A 38595-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45351.60337962963</v>
+        <v>44407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4245,13 +4265,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4288,14 +4303,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 18491-2025</t>
+          <t>A 8163-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45763.34135416667</v>
+        <v>45351.60337962963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4307,8 +4322,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4345,14 +4365,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 24115-2025</t>
+          <t>A 32952-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45796.61494212963</v>
+        <v>45839.69278935185</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4365,7 +4385,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4402,14 +4422,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 24191-2025</t>
+          <t>A 32954-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45796.86738425926</v>
+        <v>45839.70034722222</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4422,7 +4442,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4459,14 +4479,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 24193-2025</t>
+          <t>A 18512-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45796.89591435185</v>
+        <v>45425.59938657407</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4478,8 +4498,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4516,14 +4541,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 68896-2021</t>
+          <t>A 32948-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44526</v>
+        <v>45839</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4536,7 +4561,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4573,14 +4598,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 64075-2023</t>
+          <t>A 1184-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45279</v>
+        <v>45302.57663194444</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4593,7 +4618,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4630,14 +4655,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 27596-2025</t>
+          <t>A 14264-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45813.52303240741</v>
+        <v>45740.6340162037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4650,7 +4675,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4687,14 +4712,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 6648-2023</t>
+          <t>A 52770-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44966</v>
+        <v>45610.52414351852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4707,7 +4732,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4744,14 +4769,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 32952-2025</t>
+          <t>A 17020-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45839.69278935185</v>
+        <v>44676</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4763,8 +4788,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>1.3</v>
+        <v>12.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4801,14 +4831,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 32954-2025</t>
+          <t>A 48606-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45839.70034722222</v>
+        <v>45936.47019675926</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4821,7 +4851,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.6</v>
+        <v>6.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4858,14 +4888,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 58599-2023</t>
+          <t>A 38880-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45251.47721064815</v>
+        <v>45887.57966435186</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4915,14 +4945,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 59569-2025</t>
+          <t>A 18528-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45991.92870370371</v>
+        <v>45425.61965277778</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4934,8 +4964,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4972,14 +5007,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 59565-2025</t>
+          <t>A 1703-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45991.88413194445</v>
+        <v>44938.44412037037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4992,7 +5027,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5029,14 +5064,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 32948-2025</t>
+          <t>A 18490-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45839</v>
+        <v>45763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5049,7 +5084,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5086,14 +5121,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 59568-2025</t>
+          <t>A 18548-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45991.90737268519</v>
+        <v>45425.64708333334</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5105,8 +5140,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>5.8</v>
+        <v>7.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5143,14 +5183,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 18528-2024</t>
+          <t>A 20839-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45425.61965277778</v>
+        <v>45439.39953703704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5162,13 +5202,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>0.5</v>
+        <v>8.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5205,14 +5240,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 14264-2025</t>
+          <t>A 5474-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45740.6340162037</v>
+        <v>45333.51131944444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5224,8 +5259,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5262,14 +5302,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 17020-2022</t>
+          <t>A 23666-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44676</v>
+        <v>45454.57909722222</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5281,13 +5321,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>12.4</v>
+        <v>0.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5324,14 +5359,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 38595-2021</t>
+          <t>A 68896-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44407</v>
+        <v>44526</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5344,7 +5379,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5381,14 +5416,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 50306-2023</t>
+          <t>A 59565-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45209</v>
+        <v>45991.88413194445</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5401,7 +5436,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5434,38 +5469,18 @@
         <v>0</v>
       </c>
       <c r="R69" s="2" t="inlineStr"/>
-      <c r="U69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/knärot/A 50306-2023 karta knärot.png", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="V69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 50306-2023 FSC-klagomål.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="W69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 50306-2023 FSC-klagomål mail.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="X69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 50306-2023 tillsynsbegäran.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="Y69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 50306-2023 tillsynsbegäran mail.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 22288-2023</t>
+          <t>A 59569-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45070</v>
+        <v>45991.92870370371</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5478,7 +5493,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5515,14 +5530,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 33792-2023</t>
+          <t>A 59568-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45121</v>
+        <v>45991.90737268519</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5535,7 +5550,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.4</v>
+        <v>5.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5572,14 +5587,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 20839-2024</t>
+          <t>A 6648-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45439.39953703704</v>
+        <v>44966</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5592,7 +5607,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>8.4</v>
+        <v>4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5629,14 +5644,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 18512-2024</t>
+          <t>A 33792-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45425.59938657407</v>
+        <v>45121</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5648,13 +5663,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5691,14 +5701,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 4297-2024</t>
+          <t>A 14900-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45324.62291666667</v>
+        <v>45743.48729166666</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5710,13 +5720,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>0.4</v>
+        <v>4.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5753,14 +5758,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 1703-2023</t>
+          <t>A 20527-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44938.44412037037</v>
+        <v>45775.60663194444</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5773,7 +5778,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5810,14 +5815,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 17765-2024</t>
+          <t>A 64568-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45418.63149305555</v>
+        <v>45281.43164351852</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5830,7 +5835,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5867,14 +5872,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 25584-2023</t>
+          <t>A 1180-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45089</v>
+        <v>45302</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5887,7 +5892,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5924,14 +5929,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 20527-2025</t>
+          <t>A 24873-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45775.60663194444</v>
+        <v>45085</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5944,7 +5949,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5981,14 +5986,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 1187-2024</t>
+          <t>A 58599-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45302.58045138889</v>
+        <v>45251.47721064815</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6001,7 +6006,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6038,14 +6043,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 1180-2024</t>
+          <t>A 52836-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45302</v>
+        <v>45610.59637731482</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6058,7 +6063,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6095,14 +6100,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 1184-2024</t>
+          <t>A 8078-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45302.57663194444</v>
+        <v>45351.43737268518</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6114,8 +6119,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6159,7 +6169,7 @@
         <v>45048</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6209,14 +6219,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 18490-2025</t>
+          <t>A 25584-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45763</v>
+        <v>45089</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6229,7 +6239,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6266,14 +6276,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 64568-2023</t>
+          <t>A 3156-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45281.43164351852</v>
+        <v>45679.32142361111</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6286,7 +6296,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6323,14 +6333,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 18548-2024</t>
+          <t>A 17765-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45425.64708333334</v>
+        <v>45418.63149305555</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6342,13 +6352,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>7.3</v>
+        <v>1.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6385,14 +6390,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 41809-2021</t>
+          <t>A 68894-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44425</v>
+        <v>44526</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6405,7 +6410,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6442,14 +6447,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 68894-2021</t>
+          <t>A 18491-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44526</v>
+        <v>45763.34135416667</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6462,7 +6467,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6499,14 +6504,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 13046-2022</t>
+          <t>A 1187-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44643</v>
+        <v>45302.58045138889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6519,7 +6524,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6556,14 +6561,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 8078-2024</t>
+          <t>A 52773-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45351.43737268518</v>
+        <v>45610.53207175926</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6575,13 +6580,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6618,14 +6618,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 24873-2023</t>
+          <t>A 21231-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45085</v>
+        <v>45779.54644675926</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.9</v>
+        <v>4.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6675,14 +6675,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 52773-2024</t>
+          <t>A 24191-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45610.53207175926</v>
+        <v>45796.86738425926</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6732,14 +6732,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 23666-2024</t>
+          <t>A 24193-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45454.57909722222</v>
+        <v>45796.89591435185</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6789,14 +6789,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 9946-2024</t>
+          <t>A 24115-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45363.59789351852</v>
+        <v>45796.61494212963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6846,14 +6846,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 52770-2024</t>
+          <t>A 64075-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45610.52414351852</v>
+        <v>45279</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6903,14 +6903,14 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 52836-2024</t>
+          <t>A 27596-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45610.59637731482</v>
+        <v>45813.52303240741</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>

--- a/Översikt HANINGE.xlsx
+++ b/Översikt HANINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         <v>45679</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45258</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>44525</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>44525</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>45679</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>45991.89199074074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         <v>45679.31876157408</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         <v>45991.89914351852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44643</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>44463</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44463</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>45203</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>45775.59121527777</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>45014</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>45796.84584490741</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44818</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44580</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44806</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>44796</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44526</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>45991.93646990741</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>45259</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>44369</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44526</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44300</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44825</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>44825</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>44460</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>44845.42407407407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>44845.42118055555</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>44476</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44694</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>44433.62136574074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>44476</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>44825</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44643</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44761</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>44806</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>45363.59789351852</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
         <v>45324.62291666667</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>44425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>44643</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>45209</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>45070</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>44407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>45351.60337962963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>45839.69278935185</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>45839.70034722222</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>45425.59938657407</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>45839</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>45302.57663194444</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>45740.6340162037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>45610.52414351852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>44676</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>45936.47019675926</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>45887.57966435186</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>45425.61965277778</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>44938.44412037037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>45763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>45425.64708333334</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>45439.39953703704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>45333.51131944444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>45454.57909722222</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>44526</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>45991.88413194445</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>45991.92870370371</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>45991.90737268519</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>44966</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>45121</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>45743.48729166666</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>45775.60663194444</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>45281.43164351852</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>45302</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>45085</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>45251.47721064815</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>45610.59637731482</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>45351.43737268518</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>45048</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>45089</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>45679.32142361111</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>45418.63149305555</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>44526</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>45763.34135416667</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>45302.58045138889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>45610.53207175926</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>45779.54644675926</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>45796.86738425926</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>45796.89591435185</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>45796.61494212963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>45279</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>45813.52303240741</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>

--- a/Översikt HANINGE.xlsx
+++ b/Översikt HANINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         <v>45679</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45258</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>44525</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>44525</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>45679</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>45991.89199074074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         <v>45679.31876157408</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         <v>45991.89914351852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44643</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>44463</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44463</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>45203</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>45775.59121527777</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>45014</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>45796.84584490741</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44818</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44580</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44806</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>44796</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44526</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>45991.93646990741</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>45259</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>44369</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44526</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44300</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44825</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>44825</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>44460</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>44845.42407407407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>44845.42118055555</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>44476</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44694</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>44433.62136574074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>44476</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>44825</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44643</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44761</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>44806</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>45363.59789351852</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
         <v>45324.62291666667</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>44425</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>44643</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>45209</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>45070</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>44407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>45351.60337962963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>45839.69278935185</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>45839.70034722222</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4486,7 +4486,7 @@
         <v>45425.59938657407</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>45839</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>45302.57663194444</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>45740.6340162037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>45610.52414351852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>44676</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>45936.47019675926</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>45887.57966435186</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>45425.61965277778</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>44938.44412037037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>45763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>45425.64708333334</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>45439.39953703704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>45333.51131944444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         <v>45454.57909722222</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>44526</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         <v>45991.88413194445</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>45991.92870370371</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>45991.90737268519</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>44966</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>45121</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>45743.48729166666</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         <v>45775.60663194444</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>45281.43164351852</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>45302</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>45085</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>45251.47721064815</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>45610.59637731482</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>45351.43737268518</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>45048</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>45089</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>45679.32142361111</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>45418.63149305555</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>44526</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>45763.34135416667</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>45302.58045138889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>45610.53207175926</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>45779.54644675926</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>45796.86738425926</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>45796.89591435185</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>45796.61494212963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>45279</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>45813.52303240741</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>

--- a/Översikt HANINGE.xlsx
+++ b/Översikt HANINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         <v>45679</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45258</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>44525</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>44525</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>45679</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>45991.89199074074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         <v>45679.31876157408</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         <v>45991.89914351852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44643</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>44463</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44463</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>45203</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1956,14 +1956,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 20507-2025</t>
+          <t>A 14729-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45775.59121527777</v>
+        <v>45014</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1976,16 +1976,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -2010,118 +2010,118 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
+          <t>Ullticka
+Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 14729-2023 artfynd.xlsx", "A 14729-2023")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 14729-2023 karta.png", "A 14729-2023")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 14729-2023 FSC-klagomål.docx", "A 14729-2023")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 14729-2023 FSC-klagomål mail.docx", "A 14729-2023")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 14729-2023 tillsynsbegäran.docx", "A 14729-2023")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 14729-2023 tillsynsbegäran mail.docx", "A 14729-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 20507-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45775.59121527777</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
           <t>Brandticka
 Revlummer</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 20507-2025 artfynd.xlsx", "A 20507-2025")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 20507-2025 karta.png", "A 20507-2025")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 20507-2025 FSC-klagomål.docx", "A 20507-2025")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 20507-2025 FSC-klagomål mail.docx", "A 20507-2025")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 20507-2025 tillsynsbegäran.docx", "A 20507-2025")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 20507-2025 tillsynsbegäran mail.docx", "A 20507-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 14729-2023</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45014</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Ullticka
-Mindre märgborre</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 14729-2023 artfynd.xlsx", "A 14729-2023")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 14729-2023 karta.png", "A 14729-2023")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 14729-2023 FSC-klagomål.docx", "A 14729-2023")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 14729-2023 FSC-klagomål mail.docx", "A 14729-2023")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 14729-2023 tillsynsbegäran.docx", "A 14729-2023")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 14729-2023 tillsynsbegäran mail.docx", "A 14729-2023")</f>
         <v/>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
         <v>45796.84584490741</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44818</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44580</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44806</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2474,14 +2474,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 34823-2022</t>
+          <t>A 68883-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44796</v>
+        <v>44526</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2494,10 +2494,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -2518,55 +2518,55 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Mörk kraterlav</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 34823-2022 artfynd.xlsx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 68883-2021 artfynd.xlsx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 34823-2022 karta.png", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 68883-2021 karta.png", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 34823-2022 FSC-klagomål.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 68883-2021 FSC-klagomål.docx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 34823-2022 FSC-klagomål mail.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 68883-2021 FSC-klagomål mail.docx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 34823-2022 tillsynsbegäran.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 68883-2021 tillsynsbegäran.docx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 34823-2022 tillsynsbegäran mail.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 68883-2021 tillsynsbegäran mail.docx", "A 68883-2021")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 68883-2021</t>
+          <t>A 34823-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44526</v>
+        <v>44796</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2579,20 +2579,20 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
@@ -2603,55 +2603,55 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Mörk kraterlav</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 68883-2021 artfynd.xlsx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 34823-2022 artfynd.xlsx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 68883-2021 karta.png", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 34823-2022 karta.png", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 68883-2021 FSC-klagomål.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 34823-2022 FSC-klagomål.docx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 68883-2021 FSC-klagomål mail.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 34823-2022 FSC-klagomål mail.docx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 68883-2021 tillsynsbegäran.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 34823-2022 tillsynsbegäran.docx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 68883-2021 tillsynsbegäran mail.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 34823-2022 tillsynsbegäran mail.docx", "A 34823-2022")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 59570-2025</t>
+          <t>A 60369-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45991.93646990741</v>
+        <v>45259</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -2673,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2688,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2698,49 +2698,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Fjällvråk</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 59570-2025 artfynd.xlsx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 60369-2023 artfynd.xlsx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 59570-2025 karta.png", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 60369-2023 karta.png", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 59570-2025 FSC-klagomål.docx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 60369-2023 FSC-klagomål.docx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 59570-2025 FSC-klagomål mail.docx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 60369-2023 FSC-klagomål mail.docx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 59570-2025 tillsynsbegäran.docx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 60369-2023 tillsynsbegäran.docx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 59570-2025 tillsynsbegäran mail.docx", "A 59570-2025")</f>
-        <v/>
-      </c>
-      <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 59570-2025 prioriterade fågelarter.docx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 60369-2023 tillsynsbegäran mail.docx", "A 60369-2023")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 60369-2023</t>
+          <t>A 59570-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45259</v>
+        <v>45991.93646990741</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2753,7 +2749,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -2762,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2777,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2787,31 +2783,35 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Fjällvråk</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 60369-2023 artfynd.xlsx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 59570-2025 artfynd.xlsx", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 60369-2023 karta.png", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 59570-2025 karta.png", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 60369-2023 FSC-klagomål.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 59570-2025 FSC-klagomål.docx", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 60369-2023 FSC-klagomål mail.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 59570-2025 FSC-klagomål mail.docx", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 60369-2023 tillsynsbegäran.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 59570-2025 tillsynsbegäran.docx", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 60369-2023 tillsynsbegäran mail.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 59570-2025 tillsynsbegäran mail.docx", "A 59570-2025")</f>
+        <v/>
+      </c>
+      <c r="Z24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 59570-2025 prioriterade fågelarter.docx", "A 59570-2025")</f>
         <v/>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
         <v>44369</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44526</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44300</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44825</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>44825</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>44460</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>44845.42407407407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>44845.42118055555</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>44476</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44694</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>44433.62136574074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>44476</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>44825</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44643</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44761</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>44806</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3879,14 +3879,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 9946-2024</t>
+          <t>A 3156-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45363.59789351852</v>
+        <v>45679.32142361111</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3936,14 +3936,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 4297-2024</t>
+          <t>A 6648-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45324.62291666667</v>
+        <v>44966</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3955,13 +3955,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3998,14 +3993,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 41809-2021</t>
+          <t>A 18491-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44425</v>
+        <v>45763.34135416667</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4018,7 +4013,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4055,14 +4050,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 13046-2022</t>
+          <t>A 50306-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44643</v>
+        <v>45209</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4108,18 +4103,38 @@
         <v>0</v>
       </c>
       <c r="R46" s="2" t="inlineStr"/>
+      <c r="U46">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/knärot/A 50306-2023 karta knärot.png", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="V46">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 50306-2023 FSC-klagomål.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="W46">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 50306-2023 FSC-klagomål mail.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="X46">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 50306-2023 tillsynsbegäran.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="Y46">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 50306-2023 tillsynsbegäran mail.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 50306-2023</t>
+          <t>A 22288-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45209</v>
+        <v>45070</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4132,7 +4147,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4165,38 +4180,18 @@
         <v>0</v>
       </c>
       <c r="R47" s="2" t="inlineStr"/>
-      <c r="U47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/knärot/A 50306-2023 karta knärot.png", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="V47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 50306-2023 FSC-klagomål.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="W47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 50306-2023 FSC-klagomål mail.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="X47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 50306-2023 tillsynsbegäran.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="Y47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 50306-2023 tillsynsbegäran mail.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
     </row>
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 22288-2023</t>
+          <t>A 33792-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45070</v>
+        <v>45121</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4209,7 +4204,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4253,7 +4248,7 @@
         <v>44407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4303,14 +4298,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 8163-2024</t>
+          <t>A 58599-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45351.60337962963</v>
+        <v>45251.47721064815</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4322,13 +4317,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4365,14 +4355,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 32952-2025</t>
+          <t>A 20839-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45839.69278935185</v>
+        <v>45439.39953703704</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4385,7 +4375,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.3</v>
+        <v>8.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4422,14 +4412,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 32954-2025</t>
+          <t>A 1703-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45839.70034722222</v>
+        <v>44938.44412037037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4442,7 +4432,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4479,14 +4469,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 18512-2024</t>
+          <t>A 18528-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45425.59938657407</v>
+        <v>45425.61965277778</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4504,7 +4494,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4541,14 +4531,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 32948-2025</t>
+          <t>A 17765-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45839</v>
+        <v>45418.63149305555</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4561,7 +4551,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4598,14 +4588,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 1184-2024</t>
+          <t>A 1187-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45302.57663194444</v>
+        <v>45302.58045138889</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4618,7 +4608,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4655,14 +4645,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 14264-2025</t>
+          <t>A 25584-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45740.6340162037</v>
+        <v>45089</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4675,7 +4665,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>4.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4712,14 +4702,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 52770-2024</t>
+          <t>A 18512-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45610.52414351852</v>
+        <v>45425.59938657407</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4731,8 +4721,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4769,14 +4764,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 17020-2022</t>
+          <t>A 4297-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44676</v>
+        <v>45324.62291666667</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4790,11 +4785,11 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>12.4</v>
+        <v>0.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4831,14 +4826,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 48606-2025</t>
+          <t>A 1180-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45936.47019675926</v>
+        <v>45302</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4851,7 +4846,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>6.9</v>
+        <v>2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4888,14 +4883,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 38880-2025</t>
+          <t>A 68896-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45887.57966435186</v>
+        <v>44526</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4908,7 +4903,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4945,14 +4940,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 18528-2024</t>
+          <t>A 1184-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45425.61965277778</v>
+        <v>45302.57663194444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4964,13 +4959,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5007,14 +4997,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 1703-2023</t>
+          <t>A 19220-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44938.44412037037</v>
+        <v>45048</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5027,7 +5017,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5071,7 +5061,7 @@
         <v>45763</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5121,14 +5111,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 18548-2024</t>
+          <t>A 38880-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45425.64708333334</v>
+        <v>45887.57966435186</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5140,13 +5130,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>7.3</v>
+        <v>3.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5183,14 +5168,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 20839-2024</t>
+          <t>A 8163-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45439.39953703704</v>
+        <v>45351.60337962963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5202,8 +5187,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>8.4</v>
+        <v>3.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5240,14 +5230,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 5474-2024</t>
+          <t>A 20527-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45333.51131944444</v>
+        <v>45775.60663194444</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5259,13 +5249,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5302,14 +5287,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 23666-2024</t>
+          <t>A 64568-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45454.57909722222</v>
+        <v>45281.43164351852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5322,7 +5307,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5359,14 +5344,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 68896-2021</t>
+          <t>A 18548-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44526</v>
+        <v>45425.64708333334</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5378,8 +5363,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>3.4</v>
+        <v>7.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5416,14 +5406,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 59565-2025</t>
+          <t>A 41809-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45991.88413194445</v>
+        <v>44425</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5436,7 +5426,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5473,14 +5463,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 59569-2025</t>
+          <t>A 68894-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45991.92870370371</v>
+        <v>44526</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5493,7 +5483,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5530,14 +5520,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 59568-2025</t>
+          <t>A 13046-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45991.90737268519</v>
+        <v>44643</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5550,7 +5540,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>5.8</v>
+        <v>2.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5587,14 +5577,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 6648-2023</t>
+          <t>A 8078-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44966</v>
+        <v>45351.43737268518</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5606,8 +5596,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5644,14 +5639,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 33792-2023</t>
+          <t>A 24873-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45121</v>
+        <v>45085</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5664,7 +5659,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5701,14 +5696,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 14900-2025</t>
+          <t>A 48606-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45743.48729166666</v>
+        <v>45936.47019675926</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5721,7 +5716,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4.5</v>
+        <v>6.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5758,14 +5753,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 20527-2025</t>
+          <t>A 52773-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45775.60663194444</v>
+        <v>45610.53207175926</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5778,7 +5773,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5815,14 +5810,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 64568-2023</t>
+          <t>A 23666-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45281.43164351852</v>
+        <v>45454.57909722222</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5835,7 +5830,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5872,14 +5867,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 1180-2024</t>
+          <t>A 9946-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45302</v>
+        <v>45363.59789351852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5892,7 +5887,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5929,14 +5924,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 24873-2023</t>
+          <t>A 52770-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45085</v>
+        <v>45610.52414351852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5949,7 +5944,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5986,14 +5981,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 58599-2023</t>
+          <t>A 52836-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45251.47721064815</v>
+        <v>45610.59637731482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6006,7 +6001,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6043,14 +6038,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 52836-2024</t>
+          <t>A 5474-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45610.59637731482</v>
+        <v>45333.51131944444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6062,8 +6057,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6100,14 +6100,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 8078-2024</t>
+          <t>A 14900-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45351.43737268518</v>
+        <v>45743.48729166666</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6119,13 +6119,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6162,14 +6157,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 19220-2023</t>
+          <t>A 21231-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45048</v>
+        <v>45779.54644675926</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6182,7 +6177,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.4</v>
+        <v>4.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6219,14 +6214,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 25584-2023</t>
+          <t>A 59569-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45089</v>
+        <v>45991.92870370371</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6239,7 +6234,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4.8</v>
+        <v>1.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6276,14 +6271,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 3156-2025</t>
+          <t>A 59565-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45679.32142361111</v>
+        <v>45991.88413194445</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6296,7 +6291,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6333,14 +6328,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 17765-2024</t>
+          <t>A 59568-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45418.63149305555</v>
+        <v>45991.90737268519</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6353,7 +6348,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.3</v>
+        <v>5.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6390,14 +6385,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 68894-2021</t>
+          <t>A 24115-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44526</v>
+        <v>45796.61494212963</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6410,7 +6405,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6447,14 +6442,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 18491-2025</t>
+          <t>A 24191-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45763.34135416667</v>
+        <v>45796.86738425926</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6467,7 +6462,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6504,14 +6499,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 1187-2024</t>
+          <t>A 24193-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45302.58045138889</v>
+        <v>45796.89591435185</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6524,7 +6519,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6561,14 +6556,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 52773-2024</t>
+          <t>A 64075-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45610.53207175926</v>
+        <v>45279</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6581,7 +6576,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6618,14 +6613,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 21231-2025</t>
+          <t>A 27596-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45779.54644675926</v>
+        <v>45813.52303240741</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6638,7 +6633,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4.3</v>
+        <v>0.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6675,14 +6670,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 24191-2025</t>
+          <t>A 32952-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45796.86738425926</v>
+        <v>45839.69278935185</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6695,7 +6690,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6732,14 +6727,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 24193-2025</t>
+          <t>A 32954-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45796.89591435185</v>
+        <v>45839.70034722222</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6752,7 +6747,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6789,14 +6784,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 24115-2025</t>
+          <t>A 32948-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45796.61494212963</v>
+        <v>45839</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6809,7 +6804,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6846,14 +6841,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 64075-2023</t>
+          <t>A 14264-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45279</v>
+        <v>45740.6340162037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6866,7 +6861,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6903,14 +6898,14 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 27596-2025</t>
+          <t>A 17020-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45813.52303240741</v>
+        <v>44676</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6922,8 +6917,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>0.1</v>
+        <v>12.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>

--- a/Översikt HANINGE.xlsx
+++ b/Översikt HANINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         <v>45679</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45258</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>44525</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1063,14 +1063,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 67868-2021</t>
+          <t>A 3152-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44525</v>
+        <v>45679</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1083,19 +1083,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>8.800000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J6" t="n">
         <v>6</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1107,15 +1107,128 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
         <v>21</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Vågticka
+Blå taggsvamp
+Grantaggsvamp
+Hapalopilus aurantiacus
+Talltita
+Ullticka
+Vedtrappmossa
+Blomkålssvamp
+Blåmossa
+Grön sköldmossa
+Grönpyrola
+Mindre märgborre
+Plattlummer
+Rödgul trumpetsvamp
+Spindelblomster
+Vedticka
+Vanlig padda
+Fläcknycklar
+Mattlummer
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 3152-2025 artfynd.xlsx", "A 3152-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 3152-2025 karta.png", "A 3152-2025")</f>
+        <v/>
+      </c>
+      <c r="U6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/knärot/A 3152-2025 karta knärot.png", "A 3152-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 3152-2025 FSC-klagomål.docx", "A 3152-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 3152-2025 FSC-klagomål mail.docx", "A 3152-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 3152-2025 tillsynsbegäran.docx", "A 3152-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 3152-2025 tillsynsbegäran mail.docx", "A 3152-2025")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 3152-2025 prioriterade fågelarter.docx", "A 3152-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 67868-2021</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>44525</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>13</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>21</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Gränsticka
 Grönhjon
@@ -1140,145 +1253,32 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 67868-2021 artfynd.xlsx", "A 67868-2021")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 67868-2021 karta.png", "A 67868-2021")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 67868-2021 FSC-klagomål.docx", "A 67868-2021")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 67868-2021 FSC-klagomål mail.docx", "A 67868-2021")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 67868-2021 tillsynsbegäran.docx", "A 67868-2021")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 67868-2021 tillsynsbegäran mail.docx", "A 67868-2021")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 67868-2021 prioriterade fågelarter.docx", "A 67868-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 3152-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45679</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>8</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>21</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Vågticka
-Blå taggsvamp
-Grantaggsvamp
-Hapalopilus aurantiacus
-Talltita
-Ullticka
-Vedtrappmossa
-Blomkålssvamp
-Blåmossa
-Grön sköldmossa
-Grönpyrola
-Mindre märgborre
-Plattlummer
-Rödgul trumpetsvamp
-Spindelblomster
-Vedticka
-Vanlig padda
-Fläcknycklar
-Mattlummer
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 3152-2025 artfynd.xlsx", "A 3152-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 3152-2025 karta.png", "A 3152-2025")</f>
-        <v/>
-      </c>
-      <c r="U7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/knärot/A 3152-2025 karta knärot.png", "A 3152-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 3152-2025 FSC-klagomål.docx", "A 3152-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 3152-2025 FSC-klagomål mail.docx", "A 3152-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 3152-2025 tillsynsbegäran.docx", "A 3152-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 3152-2025 tillsynsbegäran mail.docx", "A 3152-2025")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 3152-2025 prioriterade fågelarter.docx", "A 3152-2025")</f>
         <v/>
       </c>
     </row>
@@ -1292,7 +1292,7 @@
         <v>45991.89199074074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         <v>45679.31876157408</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         <v>45991.89914351852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44643</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>44463</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44463</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>45203</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1956,14 +1956,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 14729-2023</t>
+          <t>A 24189-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45014</v>
+        <v>45796.84584490741</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1976,16 +1976,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.2</v>
+        <v>6.1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -2010,204 +2010,204 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
+          <t>Myskmadra
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 24189-2025 artfynd.xlsx", "A 24189-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 24189-2025 karta.png", "A 24189-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 24189-2025 FSC-klagomål.docx", "A 24189-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 24189-2025 FSC-klagomål mail.docx", "A 24189-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 24189-2025 tillsynsbegäran.docx", "A 24189-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 24189-2025 tillsynsbegäran mail.docx", "A 24189-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 20507-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45775.59121527777</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Brandticka
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 20507-2025 artfynd.xlsx", "A 20507-2025")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 20507-2025 karta.png", "A 20507-2025")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 20507-2025 FSC-klagomål.docx", "A 20507-2025")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 20507-2025 FSC-klagomål mail.docx", "A 20507-2025")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 20507-2025 tillsynsbegäran.docx", "A 20507-2025")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 20507-2025 tillsynsbegäran mail.docx", "A 20507-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 14729-2023</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45014</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
           <t>Ullticka
 Mindre märgborre</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 14729-2023 artfynd.xlsx", "A 14729-2023")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 14729-2023 karta.png", "A 14729-2023")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 14729-2023 FSC-klagomål.docx", "A 14729-2023")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 14729-2023 FSC-klagomål mail.docx", "A 14729-2023")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 14729-2023 tillsynsbegäran.docx", "A 14729-2023")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 14729-2023 tillsynsbegäran mail.docx", "A 14729-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 20507-2025</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45775.59121527777</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Brandticka
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 20507-2025 artfynd.xlsx", "A 20507-2025")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 20507-2025 karta.png", "A 20507-2025")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 20507-2025 FSC-klagomål.docx", "A 20507-2025")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 20507-2025 FSC-klagomål mail.docx", "A 20507-2025")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 20507-2025 tillsynsbegäran.docx", "A 20507-2025")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 20507-2025 tillsynsbegäran mail.docx", "A 20507-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 24189-2025</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45796.84584490741</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Myskmadra
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 24189-2025 artfynd.xlsx", "A 24189-2025")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 24189-2025 karta.png", "A 24189-2025")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 24189-2025 FSC-klagomål.docx", "A 24189-2025")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 24189-2025 FSC-klagomål mail.docx", "A 24189-2025")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 24189-2025 tillsynsbegäran.docx", "A 24189-2025")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 24189-2025 tillsynsbegäran mail.docx", "A 24189-2025")</f>
         <v/>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
         <v>44818</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44580</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44806</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2474,14 +2474,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 68883-2021</t>
+          <t>A 34823-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44526</v>
+        <v>44796</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2494,20 +2494,20 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
@@ -2518,55 +2518,55 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Mörk kraterlav</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 68883-2021 artfynd.xlsx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 34823-2022 artfynd.xlsx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 68883-2021 karta.png", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 34823-2022 karta.png", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 68883-2021 FSC-klagomål.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 34823-2022 FSC-klagomål.docx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 68883-2021 FSC-klagomål mail.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 34823-2022 FSC-klagomål mail.docx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 68883-2021 tillsynsbegäran.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 34823-2022 tillsynsbegäran.docx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 68883-2021 tillsynsbegäran mail.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 34823-2022 tillsynsbegäran mail.docx", "A 34823-2022")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 34823-2022</t>
+          <t>A 59570-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44796</v>
+        <v>45991.93646990741</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2579,19 +2579,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>12</v>
+        <v>2.3</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2606,52 +2606,56 @@
         <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Mörk kraterlav</t>
+          <t>Fjällvråk</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 34823-2022 artfynd.xlsx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 59570-2025 artfynd.xlsx", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 34823-2022 karta.png", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 59570-2025 karta.png", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 34823-2022 FSC-klagomål.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 59570-2025 FSC-klagomål.docx", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 34823-2022 FSC-klagomål mail.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 59570-2025 FSC-klagomål mail.docx", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 34823-2022 tillsynsbegäran.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 59570-2025 tillsynsbegäran.docx", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 34823-2022 tillsynsbegäran mail.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 59570-2025 tillsynsbegäran mail.docx", "A 59570-2025")</f>
+        <v/>
+      </c>
+      <c r="Z22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 59570-2025 prioriterade fågelarter.docx", "A 59570-2025")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 60369-2023</t>
+          <t>A 68883-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45259</v>
+        <v>44526</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2664,7 +2668,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -2698,45 +2702,45 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 60369-2023 artfynd.xlsx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 68883-2021 artfynd.xlsx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 60369-2023 karta.png", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 68883-2021 karta.png", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 60369-2023 FSC-klagomål.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 68883-2021 FSC-klagomål.docx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 60369-2023 FSC-klagomål mail.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 68883-2021 FSC-klagomål mail.docx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 60369-2023 tillsynsbegäran.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 68883-2021 tillsynsbegäran.docx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 60369-2023 tillsynsbegäran mail.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 68883-2021 tillsynsbegäran mail.docx", "A 68883-2021")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 59570-2025</t>
+          <t>A 60369-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45991.93646990741</v>
+        <v>45259</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2749,7 +2753,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -2758,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2773,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2783,35 +2787,31 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Fjällvråk</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 59570-2025 artfynd.xlsx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 60369-2023 artfynd.xlsx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 59570-2025 karta.png", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 60369-2023 karta.png", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 59570-2025 FSC-klagomål.docx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 60369-2023 FSC-klagomål.docx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 59570-2025 FSC-klagomål mail.docx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 60369-2023 FSC-klagomål mail.docx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 59570-2025 tillsynsbegäran.docx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 60369-2023 tillsynsbegäran.docx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 59570-2025 tillsynsbegäran mail.docx", "A 59570-2025")</f>
-        <v/>
-      </c>
-      <c r="Z24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 59570-2025 prioriterade fågelarter.docx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 60369-2023 tillsynsbegäran mail.docx", "A 60369-2023")</f>
         <v/>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
         <v>44369</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44526</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44300</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44825</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>44825</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>44460</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>44845.42407407407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>44845.42118055555</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>44476</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44694</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>44433.62136574074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>44476</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>44825</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44643</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44761</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>44806</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3879,14 +3879,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 3156-2025</t>
+          <t>A 9946-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45679.32142361111</v>
+        <v>45363.59789351852</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3936,14 +3936,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 6648-2023</t>
+          <t>A 4297-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44966</v>
+        <v>45324.62291666667</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3955,8 +3955,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3993,14 +3998,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 18491-2025</t>
+          <t>A 21231-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45763.34135416667</v>
+        <v>45779.54644675926</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4013,7 +4018,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.5</v>
+        <v>4.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4050,14 +4055,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 50306-2023</t>
+          <t>A 8163-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45209</v>
+        <v>45351.60337962963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4069,8 +4074,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4103,38 +4113,18 @@
         <v>0</v>
       </c>
       <c r="R46" s="2" t="inlineStr"/>
-      <c r="U46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/knärot/A 50306-2023 karta knärot.png", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="V46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 50306-2023 FSC-klagomål.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="W46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 50306-2023 FSC-klagomål mail.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="X46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 50306-2023 tillsynsbegäran.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="Y46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 50306-2023 tillsynsbegäran mail.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
     </row>
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 22288-2023</t>
+          <t>A 41809-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45070</v>
+        <v>44425</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4147,7 +4137,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4184,14 +4174,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 33792-2023</t>
+          <t>A 13046-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45121</v>
+        <v>44643</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4204,7 +4194,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4241,14 +4231,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 38595-2021</t>
+          <t>A 24191-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44407</v>
+        <v>45796.86738425926</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4261,7 +4251,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4298,14 +4288,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 58599-2023</t>
+          <t>A 24193-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45251.47721064815</v>
+        <v>45796.89591435185</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4318,7 +4308,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.2</v>
+        <v>0.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4355,14 +4345,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 20839-2024</t>
+          <t>A 48606-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45439.39953703704</v>
+        <v>45936.47019675926</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4375,7 +4365,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>8.4</v>
+        <v>6.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4412,14 +4402,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 1703-2023</t>
+          <t>A 24115-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44938.44412037037</v>
+        <v>45796.61494212963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4432,7 +4422,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4469,14 +4459,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 18528-2024</t>
+          <t>A 64075-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45425.61965277778</v>
+        <v>45279</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4488,13 +4478,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4531,14 +4516,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 17765-2024</t>
+          <t>A 50306-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45418.63149305555</v>
+        <v>45209</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4551,7 +4536,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4584,18 +4569,38 @@
         <v>0</v>
       </c>
       <c r="R54" s="2" t="inlineStr"/>
+      <c r="U54">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/knärot/A 50306-2023 karta knärot.png", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="V54">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 50306-2023 FSC-klagomål.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="W54">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 50306-2023 FSC-klagomål mail.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="X54">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 50306-2023 tillsynsbegäran.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="Y54">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 50306-2023 tillsynsbegäran mail.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 1187-2024</t>
+          <t>A 22288-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45302.58045138889</v>
+        <v>45070</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4608,7 +4613,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4645,14 +4650,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 25584-2023</t>
+          <t>A 27596-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45089</v>
+        <v>45813.52303240741</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4665,7 +4670,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4.8</v>
+        <v>0.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4702,14 +4707,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 18512-2024</t>
+          <t>A 38595-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45425.59938657407</v>
+        <v>44407</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4721,13 +4726,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4764,14 +4764,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 4297-2024</t>
+          <t>A 32952-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45324.62291666667</v>
+        <v>45839.69278935185</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4783,13 +4783,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4826,14 +4821,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 1180-2024</t>
+          <t>A 32954-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45302</v>
+        <v>45839.70034722222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4846,7 +4841,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4883,14 +4878,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 68896-2021</t>
+          <t>A 18512-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44526</v>
+        <v>45425.59938657407</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4902,8 +4897,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4940,14 +4940,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 1184-2024</t>
+          <t>A 32948-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45302.57663194444</v>
+        <v>45839</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4997,14 +4997,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 19220-2023</t>
+          <t>A 1184-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45048</v>
+        <v>45302.57663194444</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5054,14 +5054,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 18490-2025</t>
+          <t>A 14264-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45763</v>
+        <v>45740.6340162037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5111,14 +5111,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 38880-2025</t>
+          <t>A 52770-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45887.57966435186</v>
+        <v>45610.52414351852</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5168,14 +5168,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 8163-2024</t>
+          <t>A 17020-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45351.60337962963</v>
+        <v>44676</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5189,11 +5189,11 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.8</v>
+        <v>12.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5230,14 +5230,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 20527-2025</t>
+          <t>A 38880-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45775.60663194444</v>
+        <v>45887.57966435186</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5250,7 +5250,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5287,14 +5287,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 64568-2023</t>
+          <t>A 18528-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45281.43164351852</v>
+        <v>45425.61965277778</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5306,8 +5306,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5344,14 +5349,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 18548-2024</t>
+          <t>A 1703-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45425.64708333334</v>
+        <v>44938.44412037037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5363,13 +5368,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>7.3</v>
+        <v>1.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5406,14 +5406,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 41809-2021</t>
+          <t>A 18490-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44425</v>
+        <v>45763</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5463,14 +5463,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 68894-2021</t>
+          <t>A 18548-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44526</v>
+        <v>45425.64708333334</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5482,8 +5482,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>1.2</v>
+        <v>7.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5520,14 +5525,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 13046-2022</t>
+          <t>A 20839-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44643</v>
+        <v>45439.39953703704</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5540,7 +5545,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.3</v>
+        <v>8.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5577,14 +5582,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 8078-2024</t>
+          <t>A 59565-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45351.43737268518</v>
+        <v>45991.88413194445</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5596,13 +5601,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5639,14 +5639,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 24873-2023</t>
+          <t>A 59569-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45085</v>
+        <v>45991.92870370371</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5696,14 +5696,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 48606-2025</t>
+          <t>A 59568-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45936.47019675926</v>
+        <v>45991.90737268519</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>6.9</v>
+        <v>5.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5753,14 +5753,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 52773-2024</t>
+          <t>A 5474-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45610.53207175926</v>
+        <v>45333.51131944444</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5772,8 +5772,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5817,7 +5822,7 @@
         <v>45454.57909722222</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5867,14 +5872,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 9946-2024</t>
+          <t>A 68896-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45363.59789351852</v>
+        <v>44526</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5887,7 +5892,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5924,14 +5929,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 52770-2024</t>
+          <t>A 6648-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45610.52414351852</v>
+        <v>44966</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5944,7 +5949,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5981,14 +5986,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 52836-2024</t>
+          <t>A 33792-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45610.59637731482</v>
+        <v>45121</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6001,7 +6006,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6038,14 +6043,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 5474-2024</t>
+          <t>A 14900-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45333.51131944444</v>
+        <v>45743.48729166666</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6057,13 +6062,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6100,14 +6100,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 14900-2025</t>
+          <t>A 20527-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45743.48729166666</v>
+        <v>45775.60663194444</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6157,14 +6157,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 21231-2025</t>
+          <t>A 64568-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45779.54644675926</v>
+        <v>45281.43164351852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6214,14 +6214,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 59569-2025</t>
+          <t>A 1180-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45991.92870370371</v>
+        <v>45302</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6271,14 +6271,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 59565-2025</t>
+          <t>A 24873-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45991.88413194445</v>
+        <v>45085</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6291,7 +6291,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6328,14 +6328,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 59568-2025</t>
+          <t>A 58599-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45991.90737268519</v>
+        <v>45251.47721064815</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>5.8</v>
+        <v>3.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6385,14 +6385,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 24115-2025</t>
+          <t>A 52836-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45796.61494212963</v>
+        <v>45610.59637731482</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6442,14 +6442,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 24191-2025</t>
+          <t>A 8078-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45796.86738425926</v>
+        <v>45351.43737268518</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6461,8 +6461,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6499,14 +6504,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 24193-2025</t>
+          <t>A 19220-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45796.89591435185</v>
+        <v>45048</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6519,7 +6524,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6556,14 +6561,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 64075-2023</t>
+          <t>A 25584-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45279</v>
+        <v>45089</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6576,7 +6581,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.6</v>
+        <v>4.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6613,14 +6618,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 27596-2025</t>
+          <t>A 3156-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45813.52303240741</v>
+        <v>45679.32142361111</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6633,7 +6638,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.1</v>
+        <v>3.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6670,14 +6675,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 32952-2025</t>
+          <t>A 17765-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45839.69278935185</v>
+        <v>45418.63149305555</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6727,14 +6732,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 32954-2025</t>
+          <t>A 68894-2021</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45839.70034722222</v>
+        <v>44526</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6747,7 +6752,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6784,14 +6789,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 32948-2025</t>
+          <t>A 18491-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45839</v>
+        <v>45763.34135416667</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6804,7 +6809,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6841,14 +6846,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 14264-2025</t>
+          <t>A 1187-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45740.6340162037</v>
+        <v>45302.58045138889</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6861,7 +6866,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6898,14 +6903,14 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 17020-2022</t>
+          <t>A 52773-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44676</v>
+        <v>45610.53207175926</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6917,13 +6922,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>12.4</v>
+        <v>0.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>

--- a/Översikt HANINGE.xlsx
+++ b/Översikt HANINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         <v>45679</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45258</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>44525</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1063,14 +1063,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 3152-2025</t>
+          <t>A 67868-2021</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45679</v>
+        <v>44525</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1083,19 +1083,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J6" t="n">
         <v>6</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1107,15 +1107,124 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>21</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Gränsticka
+Grönhjon
+Spillkråka
+Spinnfingersvamp
+Tallticka
+Vedskivlav
+Björksplintborre
+Blåmossa
+Bronshjon
+Flagellkvastmossa
+Granbarkgnagare
+Grön sköldmossa
+Kornknutmossa
+Mindre märgborre
+Platt fjädermossa
+Scharlakansvårskål agg.
+Stubbspretmossa
+Sårläka
+Vågbandad barkbock
+Blåsippa
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 67868-2021 artfynd.xlsx", "A 67868-2021")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 67868-2021 karta.png", "A 67868-2021")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 67868-2021 FSC-klagomål.docx", "A 67868-2021")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 67868-2021 FSC-klagomål mail.docx", "A 67868-2021")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 67868-2021 tillsynsbegäran.docx", "A 67868-2021")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 67868-2021 tillsynsbegäran mail.docx", "A 67868-2021")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 67868-2021 prioriterade fågelarter.docx", "A 67868-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 3152-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45679</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>8</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>21</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Vågticka
@@ -1140,145 +1249,36 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 3152-2025 artfynd.xlsx", "A 3152-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 3152-2025 karta.png", "A 3152-2025")</f>
         <v/>
       </c>
-      <c r="U6">
+      <c r="U7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/knärot/A 3152-2025 karta knärot.png", "A 3152-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 3152-2025 FSC-klagomål.docx", "A 3152-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 3152-2025 FSC-klagomål mail.docx", "A 3152-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 3152-2025 tillsynsbegäran.docx", "A 3152-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 3152-2025 tillsynsbegäran mail.docx", "A 3152-2025")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 3152-2025 prioriterade fågelarter.docx", "A 3152-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 67868-2021</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>44525</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-      <c r="I7" t="n">
-        <v>13</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>6</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>21</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Gränsticka
-Grönhjon
-Spillkråka
-Spinnfingersvamp
-Tallticka
-Vedskivlav
-Björksplintborre
-Blåmossa
-Bronshjon
-Flagellkvastmossa
-Granbarkgnagare
-Grön sköldmossa
-Kornknutmossa
-Mindre märgborre
-Platt fjädermossa
-Scharlakansvårskål agg.
-Stubbspretmossa
-Sårläka
-Vågbandad barkbock
-Blåsippa
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 67868-2021 artfynd.xlsx", "A 67868-2021")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 67868-2021 karta.png", "A 67868-2021")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 67868-2021 FSC-klagomål.docx", "A 67868-2021")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 67868-2021 FSC-klagomål mail.docx", "A 67868-2021")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 67868-2021 tillsynsbegäran.docx", "A 67868-2021")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 67868-2021 tillsynsbegäran mail.docx", "A 67868-2021")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 67868-2021 prioriterade fågelarter.docx", "A 67868-2021")</f>
         <v/>
       </c>
     </row>
@@ -1292,7 +1292,7 @@
         <v>45991.89199074074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         <v>45679.31876157408</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         <v>45991.89914351852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44643</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>44463</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44463</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>45203</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1956,14 +1956,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 24189-2025</t>
+          <t>A 14729-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45796.84584490741</v>
+        <v>45014</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1976,16 +1976,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>6.1</v>
+        <v>0.2</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -2010,204 +2010,204 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
+          <t>Ullticka
+Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 14729-2023 artfynd.xlsx", "A 14729-2023")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 14729-2023 karta.png", "A 14729-2023")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 14729-2023 FSC-klagomål.docx", "A 14729-2023")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 14729-2023 FSC-klagomål mail.docx", "A 14729-2023")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 14729-2023 tillsynsbegäran.docx", "A 14729-2023")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 14729-2023 tillsynsbegäran mail.docx", "A 14729-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 24189-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45796.84584490741</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
           <t>Myskmadra
 Blåsippa</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 24189-2025 artfynd.xlsx", "A 24189-2025")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 24189-2025 karta.png", "A 24189-2025")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 24189-2025 FSC-klagomål.docx", "A 24189-2025")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 24189-2025 FSC-klagomål mail.docx", "A 24189-2025")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 24189-2025 tillsynsbegäran.docx", "A 24189-2025")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 24189-2025 tillsynsbegäran mail.docx", "A 24189-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 20507-2025</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>45775.59121527777</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
+      <c r="C17" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>1.2</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>2</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Brandticka
 Revlummer</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 20507-2025 artfynd.xlsx", "A 20507-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 20507-2025 karta.png", "A 20507-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 20507-2025 FSC-klagomål.docx", "A 20507-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 20507-2025 FSC-klagomål mail.docx", "A 20507-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 20507-2025 tillsynsbegäran.docx", "A 20507-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 20507-2025 tillsynsbegäran mail.docx", "A 20507-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 14729-2023</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45014</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Ullticka
-Mindre märgborre</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 14729-2023 artfynd.xlsx", "A 14729-2023")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 14729-2023 karta.png", "A 14729-2023")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 14729-2023 FSC-klagomål.docx", "A 14729-2023")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 14729-2023 FSC-klagomål mail.docx", "A 14729-2023")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 14729-2023 tillsynsbegäran.docx", "A 14729-2023")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 14729-2023 tillsynsbegäran mail.docx", "A 14729-2023")</f>
         <v/>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
         <v>44818</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44580</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44806</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2474,14 +2474,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 34823-2022</t>
+          <t>A 68883-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44796</v>
+        <v>44526</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2494,10 +2494,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -2518,55 +2518,55 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Mörk kraterlav</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 34823-2022 artfynd.xlsx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 68883-2021 artfynd.xlsx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 34823-2022 karta.png", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 68883-2021 karta.png", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 34823-2022 FSC-klagomål.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 68883-2021 FSC-klagomål.docx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 34823-2022 FSC-klagomål mail.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 68883-2021 FSC-klagomål mail.docx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 34823-2022 tillsynsbegäran.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 68883-2021 tillsynsbegäran.docx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 34823-2022 tillsynsbegäran mail.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 68883-2021 tillsynsbegäran mail.docx", "A 68883-2021")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 59570-2025</t>
+          <t>A 60369-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45991.93646990741</v>
+        <v>45259</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2613,49 +2613,45 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Fjällvråk</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 59570-2025 artfynd.xlsx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 60369-2023 artfynd.xlsx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 59570-2025 karta.png", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 60369-2023 karta.png", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 59570-2025 FSC-klagomål.docx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 60369-2023 FSC-klagomål.docx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 59570-2025 FSC-klagomål mail.docx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 60369-2023 FSC-klagomål mail.docx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 59570-2025 tillsynsbegäran.docx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 60369-2023 tillsynsbegäran.docx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 59570-2025 tillsynsbegäran mail.docx", "A 59570-2025")</f>
-        <v/>
-      </c>
-      <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 59570-2025 prioriterade fågelarter.docx", "A 59570-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 60369-2023 tillsynsbegäran mail.docx", "A 60369-2023")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 68883-2021</t>
+          <t>A 34823-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44526</v>
+        <v>44796</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2668,20 +2664,20 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>1</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
@@ -2692,55 +2688,55 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Mörk kraterlav</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 68883-2021 artfynd.xlsx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 34823-2022 artfynd.xlsx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 68883-2021 karta.png", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 34823-2022 karta.png", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 68883-2021 FSC-klagomål.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 34823-2022 FSC-klagomål.docx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 68883-2021 FSC-klagomål mail.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 34823-2022 FSC-klagomål mail.docx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 68883-2021 tillsynsbegäran.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 34823-2022 tillsynsbegäran.docx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 68883-2021 tillsynsbegäran mail.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 34823-2022 tillsynsbegäran mail.docx", "A 34823-2022")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 60369-2023</t>
+          <t>A 59570-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45259</v>
+        <v>45991.93646990741</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2753,7 +2749,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -2762,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2777,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2787,31 +2783,35 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Fjällvråk</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 60369-2023 artfynd.xlsx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 59570-2025 artfynd.xlsx", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 60369-2023 karta.png", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 59570-2025 karta.png", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 60369-2023 FSC-klagomål.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 59570-2025 FSC-klagomål.docx", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 60369-2023 FSC-klagomål mail.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 59570-2025 FSC-klagomål mail.docx", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 60369-2023 tillsynsbegäran.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 59570-2025 tillsynsbegäran.docx", "A 59570-2025")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 60369-2023 tillsynsbegäran mail.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 59570-2025 tillsynsbegäran mail.docx", "A 59570-2025")</f>
+        <v/>
+      </c>
+      <c r="Z24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/fåglar/A 59570-2025 prioriterade fågelarter.docx", "A 59570-2025")</f>
         <v/>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
         <v>44369</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44526</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44300</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44825</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>44825</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>44460</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>44845.42407407407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3284,14 +3284,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 45498-2022</t>
+          <t>A 45395-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44845.42118055555</v>
+        <v>44440</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3303,8 +3303,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3341,14 +3346,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 55853-2021</t>
+          <t>A 45498-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44476</v>
+        <v>44845.42118055555</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3360,13 +3365,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3403,14 +3403,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 19652-2022</t>
+          <t>A 55861-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44694</v>
+        <v>44476</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3420,6 +3420,11 @@
       <c r="E35" t="inlineStr">
         <is>
           <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3460,14 +3465,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 45395-2021</t>
+          <t>A 55853-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44440</v>
+        <v>44476</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3481,11 +3486,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3529,7 +3534,7 @@
         <v>44433.62136574074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3579,14 +3584,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 55861-2021</t>
+          <t>A 19652-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44476</v>
+        <v>44694</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3596,11 +3601,6 @@
       <c r="E38" t="inlineStr">
         <is>
           <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -3641,14 +3641,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 41266-2022</t>
+          <t>A 13135-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44825</v>
+        <v>44643</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3660,13 +3660,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3703,14 +3698,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 13135-2022</t>
+          <t>A 30419-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44643</v>
+        <v>44761</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3723,7 +3718,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>7.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3760,14 +3755,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 30419-2022</t>
+          <t>A 41266-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44761</v>
+        <v>44825</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3779,8 +3774,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>7.4</v>
+        <v>1.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3824,7 +3824,7 @@
         <v>44806</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3879,14 +3879,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 9946-2024</t>
+          <t>A 3156-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45363.59789351852</v>
+        <v>45679.32142361111</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3899,7 +3899,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3936,14 +3936,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 4297-2024</t>
+          <t>A 13046-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45324.62291666667</v>
+        <v>44643</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3955,13 +3955,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>0.4</v>
+        <v>2.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3998,14 +3993,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 21231-2025</t>
+          <t>A 1703-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45779.54644675926</v>
+        <v>44938.44412037037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4018,7 +4013,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>4.3</v>
+        <v>1.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4055,14 +4050,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 8163-2024</t>
+          <t>A 58599-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45351.60337962963</v>
+        <v>45251.47721064815</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4074,13 +4069,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4117,14 +4107,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 41809-2021</t>
+          <t>A 18528-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44425</v>
+        <v>45425.61965277778</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4136,8 +4126,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4174,14 +4169,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 13046-2022</t>
+          <t>A 8078-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44643</v>
+        <v>45351.43737268518</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4193,8 +4188,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4231,14 +4231,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 24191-2025</t>
+          <t>A 24873-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45796.86738425926</v>
+        <v>45085</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4288,14 +4288,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 24193-2025</t>
+          <t>A 18491-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45796.89591435185</v>
+        <v>45763.34135416667</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4345,14 +4345,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 48606-2025</t>
+          <t>A 52773-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45936.47019675926</v>
+        <v>45610.53207175926</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>6.9</v>
+        <v>0.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4402,14 +4402,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 24115-2025</t>
+          <t>A 23666-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45796.61494212963</v>
+        <v>45454.57909722222</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4459,14 +4459,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 64075-2023</t>
+          <t>A 9946-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45279</v>
+        <v>45363.59789351852</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4516,14 +4516,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 50306-2023</t>
+          <t>A 68896-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45209</v>
+        <v>44526</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4569,38 +4569,18 @@
         <v>0</v>
       </c>
       <c r="R54" s="2" t="inlineStr"/>
-      <c r="U54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/knärot/A 50306-2023 karta knärot.png", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="V54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 50306-2023 FSC-klagomål.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="W54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 50306-2023 FSC-klagomål mail.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="X54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 50306-2023 tillsynsbegäran.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
-      <c r="Y54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 50306-2023 tillsynsbegäran mail.docx", "A 50306-2023")</f>
-        <v/>
-      </c>
     </row>
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 22288-2023</t>
+          <t>A 52770-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45070</v>
+        <v>45610.52414351852</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4613,7 +4593,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4650,14 +4630,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 27596-2025</t>
+          <t>A 38595-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45813.52303240741</v>
+        <v>44407</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4670,7 +4650,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4707,14 +4687,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 38595-2021</t>
+          <t>A 52836-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44407</v>
+        <v>45610.59637731482</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4727,7 +4707,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4764,14 +4744,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 32952-2025</t>
+          <t>A 6648-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45839.69278935185</v>
+        <v>44966</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4784,7 +4764,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4821,14 +4801,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 32954-2025</t>
+          <t>A 50306-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45839.70034722222</v>
+        <v>45209</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4841,7 +4821,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4874,18 +4854,38 @@
         <v>0</v>
       </c>
       <c r="R59" s="2" t="inlineStr"/>
+      <c r="U59">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/knärot/A 50306-2023 karta knärot.png", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="V59">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 50306-2023 FSC-klagomål.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="W59">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 50306-2023 FSC-klagomål mail.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="X59">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 50306-2023 tillsynsbegäran.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
+      <c r="Y59">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 50306-2023 tillsynsbegäran mail.docx", "A 50306-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 18512-2024</t>
+          <t>A 17765-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45425.59938657407</v>
+        <v>45418.63149305555</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4897,13 +4897,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4940,14 +4935,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 32948-2025</t>
+          <t>A 5474-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45839</v>
+        <v>45333.51131944444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4959,8 +4954,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4997,14 +4997,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 1184-2024</t>
+          <t>A 14900-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45302.57663194444</v>
+        <v>45743.48729166666</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5054,14 +5054,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 14264-2025</t>
+          <t>A 22288-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45740.6340162037</v>
+        <v>45070</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5111,14 +5111,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 52770-2024</t>
+          <t>A 33792-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45610.52414351852</v>
+        <v>45121</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5168,14 +5168,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 17020-2022</t>
+          <t>A 25584-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44676</v>
+        <v>45089</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5187,13 +5187,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>12.4</v>
+        <v>4.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5230,14 +5225,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 38880-2025</t>
+          <t>A 21231-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45887.57966435186</v>
+        <v>45779.54644675926</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5250,7 +5245,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5287,14 +5282,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 18528-2024</t>
+          <t>A 20839-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45425.61965277778</v>
+        <v>45439.39953703704</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5306,13 +5301,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>0.5</v>
+        <v>8.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5349,14 +5339,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 1703-2023</t>
+          <t>A 38880-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44938.44412037037</v>
+        <v>45887.57966435186</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5369,7 +5359,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5406,14 +5396,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 18490-2025</t>
+          <t>A 8163-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45763</v>
+        <v>45351.60337962963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5425,8 +5415,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5463,14 +5458,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 18548-2024</t>
+          <t>A 24115-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45425.64708333334</v>
+        <v>45796.61494212963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5482,13 +5477,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>7.3</v>
+        <v>2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5525,14 +5515,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 20839-2024</t>
+          <t>A 18512-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45439.39953703704</v>
+        <v>45425.59938657407</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5544,8 +5534,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>8.4</v>
+        <v>0.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5582,14 +5577,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 59565-2025</t>
+          <t>A 4297-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45991.88413194445</v>
+        <v>45324.62291666667</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5601,8 +5596,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5639,14 +5639,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 59569-2025</t>
+          <t>A 24191-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45991.92870370371</v>
+        <v>45796.86738425926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5696,14 +5696,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 59568-2025</t>
+          <t>A 24193-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45991.90737268519</v>
+        <v>45796.89591435185</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>5.8</v>
+        <v>0.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5753,14 +5753,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 5474-2024</t>
+          <t>A 64075-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45333.51131944444</v>
+        <v>45279</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5772,13 +5772,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5815,14 +5810,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 23666-2024</t>
+          <t>A 20527-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45454.57909722222</v>
+        <v>45775.60663194444</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5835,7 +5830,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5872,14 +5867,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 68896-2021</t>
+          <t>A 27596-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44526</v>
+        <v>45813.52303240741</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5892,7 +5887,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.4</v>
+        <v>0.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5929,14 +5924,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 6648-2023</t>
+          <t>A 48606-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44966</v>
+        <v>45936.47019675926</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5949,7 +5944,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4</v>
+        <v>6.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5986,14 +5981,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 33792-2023</t>
+          <t>A 1187-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45121</v>
+        <v>45302.58045138889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6006,7 +6001,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6043,14 +6038,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 14900-2025</t>
+          <t>A 1180-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45743.48729166666</v>
+        <v>45302</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6063,7 +6058,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6100,14 +6095,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 20527-2025</t>
+          <t>A 32952-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45775.60663194444</v>
+        <v>45839.69278935185</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6120,7 +6115,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6157,14 +6152,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 64568-2023</t>
+          <t>A 32954-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45281.43164351852</v>
+        <v>45839.70034722222</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6177,7 +6172,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6214,14 +6209,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 1180-2024</t>
+          <t>A 1184-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45302</v>
+        <v>45302.57663194444</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6234,7 +6229,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6271,14 +6266,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 24873-2023</t>
+          <t>A 19220-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45085</v>
+        <v>45048</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6291,7 +6286,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6328,14 +6323,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 58599-2023</t>
+          <t>A 18490-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45251.47721064815</v>
+        <v>45763</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6348,7 +6343,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6385,14 +6380,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 52836-2024</t>
+          <t>A 32948-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45610.59637731482</v>
+        <v>45839</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6405,7 +6400,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6442,14 +6437,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 8078-2024</t>
+          <t>A 64568-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45351.43737268518</v>
+        <v>45281.43164351852</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6461,13 +6456,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6504,14 +6494,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 19220-2023</t>
+          <t>A 14264-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45048</v>
+        <v>45740.6340162037</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6524,7 +6514,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6561,14 +6551,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 25584-2023</t>
+          <t>A 18548-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45089</v>
+        <v>45425.64708333334</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6580,8 +6570,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>4.8</v>
+        <v>7.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6618,14 +6613,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 3156-2025</t>
+          <t>A 41809-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45679.32142361111</v>
+        <v>44425</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6638,7 +6633,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6675,14 +6670,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 17765-2024</t>
+          <t>A 59569-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45418.63149305555</v>
+        <v>45991.92870370371</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6732,14 +6727,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 68894-2021</t>
+          <t>A 59565-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44526</v>
+        <v>45991.88413194445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6789,14 +6784,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 18491-2025</t>
+          <t>A 59568-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45763.34135416667</v>
+        <v>45991.90737268519</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6809,7 +6804,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.5</v>
+        <v>5.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6846,14 +6841,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 1187-2024</t>
+          <t>A 17020-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45302.58045138889</v>
+        <v>44676</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6865,8 +6860,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>1.5</v>
+        <v>12.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6903,14 +6903,14 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 52773-2024</t>
+          <t>A 68894-2021</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45610.53207175926</v>
+        <v>44526</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>

--- a/Översikt HANINGE.xlsx
+++ b/Översikt HANINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         <v>45679</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45258</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>44525</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>44525</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>45679</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>45991.89199074074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         <v>45679.31876157408</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         <v>45991.89914351852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44643</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>44463</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44463</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>45203</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>45014</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2042,14 +2042,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 24189-2025</t>
+          <t>A 20507-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45796.84584490741</v>
+        <v>45775.59121527777</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>6.1</v>
+        <v>1.2</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -2096,118 +2096,118 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
+          <t>Brandticka
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 20507-2025 artfynd.xlsx", "A 20507-2025")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 20507-2025 karta.png", "A 20507-2025")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 20507-2025 FSC-klagomål.docx", "A 20507-2025")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 20507-2025 FSC-klagomål mail.docx", "A 20507-2025")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 20507-2025 tillsynsbegäran.docx", "A 20507-2025")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 20507-2025 tillsynsbegäran mail.docx", "A 20507-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 24189-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45796.84584490741</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
           <t>Myskmadra
 Blåsippa</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 24189-2025 artfynd.xlsx", "A 24189-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 24189-2025 karta.png", "A 24189-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 24189-2025 FSC-klagomål.docx", "A 24189-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 24189-2025 FSC-klagomål mail.docx", "A 24189-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 24189-2025 tillsynsbegäran.docx", "A 24189-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 24189-2025 tillsynsbegäran mail.docx", "A 24189-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 20507-2025</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45775.59121527777</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>STOCKHOLMS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Brandticka
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 20507-2025 artfynd.xlsx", "A 20507-2025")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 20507-2025 karta.png", "A 20507-2025")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 20507-2025 FSC-klagomål.docx", "A 20507-2025")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 20507-2025 FSC-klagomål mail.docx", "A 20507-2025")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 20507-2025 tillsynsbegäran.docx", "A 20507-2025")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 20507-2025 tillsynsbegäran mail.docx", "A 20507-2025")</f>
         <v/>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
         <v>44818</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44580</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44806</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2474,14 +2474,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 68883-2021</t>
+          <t>A 60369-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44526</v>
+        <v>45259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2528,45 +2528,45 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Nattviol</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 68883-2021 artfynd.xlsx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 60369-2023 artfynd.xlsx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 68883-2021 karta.png", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 60369-2023 karta.png", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 68883-2021 FSC-klagomål.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 60369-2023 FSC-klagomål.docx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 68883-2021 FSC-klagomål mail.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 60369-2023 FSC-klagomål mail.docx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 68883-2021 tillsynsbegäran.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 60369-2023 tillsynsbegäran.docx", "A 60369-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 68883-2021 tillsynsbegäran mail.docx", "A 68883-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 60369-2023 tillsynsbegäran mail.docx", "A 60369-2023")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 60369-2023</t>
+          <t>A 34823-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45259</v>
+        <v>44796</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2579,20 +2579,20 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.9</v>
+        <v>12</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
@@ -2603,55 +2603,55 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Mörk kraterlav</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 60369-2023 artfynd.xlsx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 34823-2022 artfynd.xlsx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 60369-2023 karta.png", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 34823-2022 karta.png", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 60369-2023 FSC-klagomål.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 34823-2022 FSC-klagomål.docx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 60369-2023 FSC-klagomål mail.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 34823-2022 FSC-klagomål mail.docx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 60369-2023 tillsynsbegäran.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 34823-2022 tillsynsbegäran.docx", "A 34823-2022")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 60369-2023 tillsynsbegäran mail.docx", "A 60369-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 34823-2022 tillsynsbegäran mail.docx", "A 34823-2022")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 34823-2022</t>
+          <t>A 68883-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44796</v>
+        <v>44526</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2664,10 +2664,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2688,41 +2688,41 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Mörk kraterlav</t>
+          <t>Nattviol</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 34823-2022 artfynd.xlsx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/artfynd/A 68883-2021 artfynd.xlsx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 34823-2022 karta.png", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/kartor/A 68883-2021 karta.png", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 34823-2022 FSC-klagomål.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomål/A 68883-2021 FSC-klagomål.docx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 34823-2022 FSC-klagomål mail.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/klagomålsmail/A 68883-2021 FSC-klagomål mail.docx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 34823-2022 tillsynsbegäran.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsyn/A 68883-2021 tillsynsbegäran.docx", "A 68883-2021")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 34823-2022 tillsynsbegäran mail.docx", "A 34823-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0136/tillsynsmail/A 68883-2021 tillsynsbegäran mail.docx", "A 68883-2021")</f>
         <v/>
       </c>
     </row>
@@ -2736,7 +2736,7 @@
         <v>45991.93646990741</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>44369</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44526</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44300</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44825</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>44825</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>44460</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>44845.42407407407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3284,14 +3284,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 45395-2021</t>
+          <t>A 45498-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44440</v>
+        <v>44845.42118055555</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3303,13 +3303,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3346,14 +3341,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 45498-2022</t>
+          <t>A 55853-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44845.42118055555</v>
+        <v>44476</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3365,8 +3360,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3403,14 +3403,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 55861-2021</t>
+          <t>A 19652-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44476</v>
+        <v>44694</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3420,11 +3420,6 @@
       <c r="E35" t="inlineStr">
         <is>
           <t>HANINGE</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3465,14 +3460,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 55853-2021</t>
+          <t>A 45395-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44476</v>
+        <v>44440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3486,11 +3481,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3534,7 +3529,7 @@
         <v>44433.62136574074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3584,14 +3579,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 19652-2022</t>
+          <t>A 55861-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44694</v>
+        <v>44476</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3601,6 +3596,11 @@
       <c r="E38" t="inlineStr">
         <is>
           <t>HANINGE</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -3641,14 +3641,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 13135-2022</t>
+          <t>A 41266-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44643</v>
+        <v>44825</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3660,8 +3660,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3698,14 +3703,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 30419-2022</t>
+          <t>A 13135-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44761</v>
+        <v>44643</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3718,7 +3723,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>7.4</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3755,14 +3760,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 41266-2022</t>
+          <t>A 30419-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44825</v>
+        <v>44761</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3774,13 +3779,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>1.6</v>
+        <v>7.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3824,7 +3824,7 @@
         <v>44806</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>45679.32142361111</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3936,14 +3936,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 13046-2022</t>
+          <t>A 18491-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44643</v>
+        <v>45763.34135416667</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3993,14 +3993,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 1703-2023</t>
+          <t>A 68896-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44938.44412037037</v>
+        <v>44526</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4050,14 +4050,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 58599-2023</t>
+          <t>A 38880-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45251.47721064815</v>
+        <v>45887.57966435186</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4107,14 +4107,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 18528-2024</t>
+          <t>A 8163-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45425.61965277778</v>
+        <v>45351.60337962963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4169,14 +4169,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 8078-2024</t>
+          <t>A 6648-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45351.43737268518</v>
+        <v>44966</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4188,13 +4188,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4231,14 +4226,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 24873-2023</t>
+          <t>A 27596-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45085</v>
+        <v>45813.52303240741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4251,7 +4246,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.9</v>
+        <v>0.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4288,14 +4283,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 18491-2025</t>
+          <t>A 58599-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45763.34135416667</v>
+        <v>45251.47721064815</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4308,7 +4303,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4345,14 +4340,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 52773-2024</t>
+          <t>A 18528-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45610.53207175926</v>
+        <v>45425.61965277778</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4364,8 +4359,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4402,14 +4402,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 23666-2024</t>
+          <t>A 32952-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45454.57909722222</v>
+        <v>45839.69278935185</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4459,14 +4459,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 9946-2024</t>
+          <t>A 32954-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45363.59789351852</v>
+        <v>45839.70034722222</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.8</v>
+        <v>1.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4516,14 +4516,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 68896-2021</t>
+          <t>A 32948-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44526</v>
+        <v>45839</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4573,14 +4573,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 52770-2024</t>
+          <t>A 14264-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45610.52414351852</v>
+        <v>45740.6340162037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4630,14 +4630,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 38595-2021</t>
+          <t>A 17020-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44407</v>
+        <v>44676</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4649,8 +4649,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>1.1</v>
+        <v>12.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4687,14 +4692,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 52836-2024</t>
+          <t>A 38595-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45610.59637731482</v>
+        <v>44407</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4707,7 +4712,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4744,14 +4749,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 6648-2023</t>
+          <t>A 48606-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44966</v>
+        <v>45936.47019675926</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4764,7 +4769,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4</v>
+        <v>6.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4808,7 +4813,7 @@
         <v>45209</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4878,14 +4883,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 17765-2024</t>
+          <t>A 22288-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45418.63149305555</v>
+        <v>45070</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4898,7 +4903,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4935,14 +4940,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 5474-2024</t>
+          <t>A 33792-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45333.51131944444</v>
+        <v>45121</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4954,13 +4959,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4997,14 +4997,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 14900-2025</t>
+          <t>A 20839-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45743.48729166666</v>
+        <v>45439.39953703704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.5</v>
+        <v>8.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5054,14 +5054,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 22288-2023</t>
+          <t>A 18512-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45070</v>
+        <v>45425.59938657407</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5073,8 +5073,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5111,14 +5116,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 33792-2023</t>
+          <t>A 4297-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45121</v>
+        <v>45324.62291666667</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5130,8 +5135,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5168,14 +5178,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 25584-2023</t>
+          <t>A 1703-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45089</v>
+        <v>44938.44412037037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5188,7 +5198,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.8</v>
+        <v>1.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5225,14 +5235,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 21231-2025</t>
+          <t>A 17765-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45779.54644675926</v>
+        <v>45418.63149305555</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5245,7 +5255,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.3</v>
+        <v>1.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5282,14 +5292,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 20839-2024</t>
+          <t>A 25584-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45439.39953703704</v>
+        <v>45089</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5302,7 +5312,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>8.4</v>
+        <v>4.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5339,14 +5349,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 38880-2025</t>
+          <t>A 59569-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45887.57966435186</v>
+        <v>45991.92870370371</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5359,7 +5369,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5396,14 +5406,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 8163-2024</t>
+          <t>A 59565-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45351.60337962963</v>
+        <v>45991.88413194445</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5415,13 +5425,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5458,14 +5463,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 24115-2025</t>
+          <t>A 59568-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45796.61494212963</v>
+        <v>45991.90737268519</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5478,7 +5483,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>5.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5515,14 +5520,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 18512-2024</t>
+          <t>A 20527-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45425.59938657407</v>
+        <v>45775.60663194444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5534,13 +5539,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5577,14 +5577,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 4297-2024</t>
+          <t>A 1187-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45324.62291666667</v>
+        <v>45302.58045138889</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5596,13 +5596,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5639,14 +5634,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 24191-2025</t>
+          <t>A 1180-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45796.86738425926</v>
+        <v>45302</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5659,7 +5654,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5696,14 +5691,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 24193-2025</t>
+          <t>A 1184-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45796.89591435185</v>
+        <v>45302.57663194444</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5716,7 +5711,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.4</v>
+        <v>3.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5753,14 +5748,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 64075-2023</t>
+          <t>A 19220-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45279</v>
+        <v>45048</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5773,7 +5768,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5810,14 +5805,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 20527-2025</t>
+          <t>A 18490-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45775.60663194444</v>
+        <v>45763</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5830,7 +5825,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5867,14 +5862,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 27596-2025</t>
+          <t>A 64568-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45813.52303240741</v>
+        <v>45281.43164351852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5887,7 +5882,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.1</v>
+        <v>3.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5924,14 +5919,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 48606-2025</t>
+          <t>A 18548-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45936.47019675926</v>
+        <v>45425.64708333334</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5943,8 +5938,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5981,14 +5981,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 1187-2024</t>
+          <t>A 41809-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45302.58045138889</v>
+        <v>44425</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6038,14 +6038,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 1180-2024</t>
+          <t>A 68894-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45302</v>
+        <v>44526</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6095,14 +6095,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 32952-2025</t>
+          <t>A 13046-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45839.69278935185</v>
+        <v>44643</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6152,14 +6152,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 32954-2025</t>
+          <t>A 8078-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45839.70034722222</v>
+        <v>45351.43737268518</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6171,8 +6171,13 @@
           <t>HANINGE</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6209,14 +6214,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 1184-2024</t>
+          <t>A 24873-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45302.57663194444</v>
+        <v>45085</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6229,7 +6234,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.6</v>
+        <v>1.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6266,14 +6271,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 19220-2023</t>
+          <t>A 52773-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45048</v>
+        <v>45610.53207175926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6286,7 +6291,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6323,14 +6328,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 18490-2025</t>
+          <t>A 23666-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45763</v>
+        <v>45454.57909722222</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6343,7 +6348,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6380,14 +6385,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 32948-2025</t>
+          <t>A 9946-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45839</v>
+        <v>45363.59789351852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6400,7 +6405,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6437,14 +6442,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 64568-2023</t>
+          <t>A 52770-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45281.43164351852</v>
+        <v>45610.52414351852</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6457,7 +6462,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6494,14 +6499,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 14264-2025</t>
+          <t>A 52836-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45740.6340162037</v>
+        <v>45610.59637731482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6551,14 +6556,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 18548-2024</t>
+          <t>A 5474-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45425.64708333334</v>
+        <v>45333.51131944444</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6576,7 +6581,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>7.3</v>
+        <v>0.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6613,14 +6618,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 41809-2021</t>
+          <t>A 14900-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44425</v>
+        <v>45743.48729166666</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6633,7 +6638,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6670,14 +6675,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 59569-2025</t>
+          <t>A 21231-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45991.92870370371</v>
+        <v>45779.54644675926</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6690,7 +6695,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6727,14 +6732,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 59565-2025</t>
+          <t>A 24115-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45991.88413194445</v>
+        <v>45796.61494212963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6747,7 +6752,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6784,14 +6789,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 59568-2025</t>
+          <t>A 24191-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45991.90737268519</v>
+        <v>45796.86738425926</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6804,7 +6809,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>5.8</v>
+        <v>2.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6841,14 +6846,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 17020-2022</t>
+          <t>A 24193-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44676</v>
+        <v>45796.89591435185</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6860,13 +6865,8 @@
           <t>HANINGE</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>12.4</v>
+        <v>0.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6903,14 +6903,14 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 68894-2021</t>
+          <t>A 64075-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44526</v>
+        <v>45279</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>

--- a/Översikt HANINGE.xlsx
+++ b/Översikt HANINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         <v>45679</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45258</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>44525</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>44525</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>45679</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>45991.89199074074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         <v>45679.31876157408</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         <v>45991.89914351852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44643</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>44463</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44463</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>45203</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>45014</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>45775.59121527777</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>45796.84584490741</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44818</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44580</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44806</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>45259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44796</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>44526</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>45991.93646990741</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>44369</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44526</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44300</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44825</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>44825</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>44460</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>44845.42407407407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>44845.42118055555</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>44476</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44694</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>44433.62136574074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>44476</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>44825</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44643</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44761</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>44806</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>45679.32142361111</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
         <v>45763.34135416667</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         <v>44526</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>45887.57966435186</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>45351.60337962963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>44966</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>45813.52303240741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>45251.47721064815</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>45425.61965277778</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>45839.69278935185</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         <v>45839.70034722222</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>45839</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>45740.6340162037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>44676</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>44407</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>45936.47019675926</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         <v>45209</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>45070</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>45121</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>45439.39953703704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>45425.59938657407</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>45324.62291666667</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>44938.44412037037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>45418.63149305555</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>45089</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>45991.92870370371</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>45991.88413194445</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>45991.90737268519</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>45775.60663194444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>45302.58045138889</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>45302</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>45302.57663194444</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>45048</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>45763</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>45281.43164351852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>45425.64708333334</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>44425</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>44526</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>44643</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>45351.43737268518</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>45085</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>45610.53207175926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>45454.57909722222</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>45363.59789351852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>45610.52414351852</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>45610.59637731482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>45333.51131944444</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>45743.48729166666</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>45779.54644675926</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>45796.61494212963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>45796.86738425926</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>45796.89591435185</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>45279</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>

--- a/Översikt HANINGE.xlsx
+++ b/Översikt HANINGE.xlsx
@@ -575,7 +575,7 @@
         <v>44518</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         <v>45679</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>45258</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>44525</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>44525</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>45679</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>45991.89199074074</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         <v>45679.31876157408</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         <v>45991.89914351852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44643</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         <v>44463</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44463</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>45203</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>45014</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>45775.59121527777</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         <v>45796.84584490741</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>44818</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44580</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44806</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>45259</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44796</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>44526</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>45991.93646990741</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>44369</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44526</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44417</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44300</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>44825</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>44825</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         <v>44460</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>44845.42407407407</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>44845.42118055555</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>44476</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44694</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>44440</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         <v>44433.62136574074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>44476</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>44825</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>44643</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>44761</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>44806</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         <v>45679.32142361111</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
         <v>45763.34135416667</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         <v>44526</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
         <v>45887.57966435186</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>45351.60337962963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>44966</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>45813.52303240741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>45251.47721064815</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>45425.61965277778</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         <v>45839.69278935185</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         <v>45839.70034722222</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>45839</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>45740.6340162037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>44676</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>44407</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>45936.47019675926</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         <v>45209</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>45070</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>45121</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>45439.39953703704</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>45425.59938657407</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>45324.62291666667</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>44938.44412037037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>45418.63149305555</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>45089</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>45991.92870370371</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>45991.88413194445</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>45991.90737268519</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>45775.60663194444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>45302.58045138889</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>45302</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>45302.57663194444</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>45048</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>45763</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>45281.43164351852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>45425.64708333334</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>44425</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>44526</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6102,7 +6102,7 @@
         <v>44643</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         <v>45351.43737268518</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6221,7 +6221,7 @@
         <v>45085</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
         <v>45610.53207175926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>45454.57909722222</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>45363.59789351852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>45610.52414351852</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>45610.59637731482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6563,7 +6563,7 @@
         <v>45333.51131944444</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>45743.48729166666</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>45779.54644675926</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>45796.61494212963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>45796.86738425926</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>45796.89591435185</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>45279</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
